--- a/ML-DL-LLMs ver 0.2 - session progress.xlsx
+++ b/ML-DL-LLMs ver 0.2 - session progress.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gridflowAI\gridflowAI-company\Proposals\Novelvista-CGI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gridflowAI\cgi-AI-ML-GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E204F0F7-CC48-4649-9971-34BB1E7FCFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DC3539-10F7-4C24-8A6D-E81AC46C5DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3228" yWindow="228" windowWidth="16572" windowHeight="11904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="672" yWindow="216" windowWidth="16572" windowHeight="11904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1362,7 +1362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1466,6 +1466,36 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1474,39 +1504,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1791,7 +1788,7 @@
   <dimension ref="A1:H178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1801,7 +1798,7 @@
     <col min="3" max="3" width="29.88671875" style="10" customWidth="1"/>
     <col min="4" max="4" width="23.88671875" style="10" customWidth="1"/>
     <col min="5" max="5" width="8.21875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="48" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="44" customWidth="1"/>
     <col min="7" max="7" width="24" style="10" customWidth="1"/>
     <col min="8" max="8" width="48.5546875" style="10" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="10"/>
@@ -1823,7 +1820,7 @@
       <c r="E1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="41" t="s">
         <v>221</v>
       </c>
     </row>
@@ -1841,7 +1838,7 @@
         <v>90</v>
       </c>
       <c r="E2" s="8"/>
-      <c r="F2" s="45">
+      <c r="F2" s="42">
         <v>1</v>
       </c>
       <c r="G2" s="10" t="s">
@@ -1857,7 +1854,7 @@
         <v>90</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="45">
+      <c r="F3" s="42">
         <v>1</v>
       </c>
     </row>
@@ -1870,7 +1867,7 @@
         <v>90</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="45">
+      <c r="F4" s="42">
         <v>2</v>
       </c>
     </row>
@@ -1883,7 +1880,7 @@
         <v>90</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="45">
+      <c r="F5" s="42">
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -1899,7 +1896,7 @@
         <v>90</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="F6" s="45">
+      <c r="F6" s="42">
         <v>2</v>
       </c>
       <c r="H6" s="10" t="s">
@@ -1907,7 +1904,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F7" s="46"/>
+      <c r="F7" s="42"/>
       <c r="H7" s="10" t="s">
         <v>182</v>
       </c>
@@ -1925,7 +1922,7 @@
       <c r="E8" s="18">
         <v>0.5</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="42">
         <v>2</v>
       </c>
       <c r="H8" s="10" t="s">
@@ -1933,7 +1930,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F9" s="46"/>
+      <c r="F9" s="42"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
@@ -1948,7 +1945,7 @@
       <c r="E10" s="19">
         <v>0</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="42">
         <v>2</v>
       </c>
     </row>
@@ -1963,7 +1960,7 @@
       <c r="E11" s="5">
         <v>0.5</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="42">
         <v>2</v>
       </c>
     </row>
@@ -1976,7 +1973,7 @@
         <v>90</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="45"/>
+      <c r="F12" s="42"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
@@ -1987,7 +1984,7 @@
         <v>90</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="45"/>
+      <c r="F13" s="42"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
@@ -2000,7 +1997,7 @@
       <c r="E14" s="5">
         <v>0.5</v>
       </c>
-      <c r="F14" s="45"/>
+      <c r="F14" s="42"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
@@ -2011,7 +2008,7 @@
         <v>90</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="45"/>
+      <c r="F15" s="42"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
@@ -2024,7 +2021,7 @@
       <c r="E16" s="5">
         <v>0.5</v>
       </c>
-      <c r="F16" s="45"/>
+      <c r="F16" s="42"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="15"/>
@@ -2037,7 +2034,7 @@
       <c r="E17" s="6">
         <v>0.5</v>
       </c>
-      <c r="F17" s="45"/>
+      <c r="F17" s="42"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
@@ -2048,10 +2045,10 @@
       <c r="E18" s="11">
         <v>0.5</v>
       </c>
-      <c r="F18" s="47"/>
+      <c r="F18" s="43"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F19" s="46"/>
+      <c r="F19" s="42"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
@@ -2066,7 +2063,7 @@
       <c r="E20" s="19">
         <v>0.5</v>
       </c>
-      <c r="F20" s="45"/>
+      <c r="F20" s="42"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
@@ -2079,7 +2076,7 @@
       <c r="E21" s="5">
         <v>0.5</v>
       </c>
-      <c r="F21" s="45"/>
+      <c r="F21" s="42"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
@@ -2092,7 +2089,7 @@
       <c r="E22" s="5">
         <v>0.25</v>
       </c>
-      <c r="F22" s="45"/>
+      <c r="F22" s="42"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
@@ -2105,7 +2102,7 @@
       <c r="E23" s="5">
         <v>0.25</v>
       </c>
-      <c r="F23" s="45"/>
+      <c r="F23" s="42"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
@@ -2118,7 +2115,7 @@
       <c r="E24" s="5">
         <v>0.5</v>
       </c>
-      <c r="F24" s="45"/>
+      <c r="F24" s="42"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
@@ -2131,7 +2128,7 @@
       <c r="E25" s="5">
         <v>0.5</v>
       </c>
-      <c r="F25" s="45"/>
+      <c r="F25" s="42"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="15"/>
@@ -2144,7 +2141,7 @@
       <c r="E26" s="6">
         <v>0.25</v>
       </c>
-      <c r="F26" s="45"/>
+      <c r="F26" s="42"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
@@ -2155,10 +2152,10 @@
       <c r="E27" s="11">
         <v>0.5</v>
       </c>
-      <c r="F27" s="47"/>
+      <c r="F27" s="43"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F28" s="46"/>
+      <c r="F28" s="42"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
@@ -2173,7 +2170,7 @@
       <c r="E29" s="19">
         <v>0.75</v>
       </c>
-      <c r="F29" s="45"/>
+      <c r="F29" s="42"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="9"/>
@@ -2186,7 +2183,7 @@
       <c r="E30" s="5">
         <v>1</v>
       </c>
-      <c r="F30" s="45"/>
+      <c r="F30" s="42"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="4"/>
@@ -2199,7 +2196,7 @@
       <c r="E31" s="5">
         <v>1</v>
       </c>
-      <c r="F31" s="45"/>
+      <c r="F31" s="42"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="4"/>
@@ -2212,7 +2209,7 @@
       <c r="E32" s="5">
         <v>4</v>
       </c>
-      <c r="F32" s="45"/>
+      <c r="F32" s="42"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B33" s="4"/>
@@ -2225,7 +2222,7 @@
       <c r="E33" s="5">
         <v>4</v>
       </c>
-      <c r="F33" s="45"/>
+      <c r="F33" s="42"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B34" s="15"/>
@@ -2238,7 +2235,7 @@
       <c r="E34" s="6">
         <v>2</v>
       </c>
-      <c r="F34" s="45"/>
+      <c r="F34" s="42"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B35" s="11" t="s">
@@ -2249,21 +2246,21 @@
       <c r="E35" s="11">
         <v>0.5</v>
       </c>
-      <c r="F35" s="47"/>
+      <c r="F35" s="43"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
-      <c r="F36" s="47"/>
+      <c r="F36" s="43"/>
       <c r="G36" s="1">
         <f>SUM(E2:E36)</f>
         <v>19.5</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F37" s="46"/>
+      <c r="F37" s="42"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
@@ -2281,7 +2278,7 @@
       <c r="E38" s="19">
         <v>0.5</v>
       </c>
-      <c r="F38" s="45"/>
+      <c r="F38" s="42"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B39" s="4"/>
@@ -2294,7 +2291,7 @@
       <c r="E39" s="5">
         <v>0.5</v>
       </c>
-      <c r="F39" s="45"/>
+      <c r="F39" s="42"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B40" s="4"/>
@@ -2307,7 +2304,7 @@
       <c r="E40" s="5">
         <v>0.5</v>
       </c>
-      <c r="F40" s="45"/>
+      <c r="F40" s="42"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B41" s="4"/>
@@ -2320,7 +2317,7 @@
       <c r="E41" s="5">
         <v>0.25</v>
       </c>
-      <c r="F41" s="45"/>
+      <c r="F41" s="42"/>
     </row>
     <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B42" s="4"/>
@@ -2333,7 +2330,7 @@
       <c r="E42" s="5">
         <v>0.5</v>
       </c>
-      <c r="F42" s="45"/>
+      <c r="F42" s="42"/>
       <c r="G42" s="10" t="s">
         <v>176</v>
       </c>
@@ -2349,7 +2346,7 @@
       <c r="E43" s="6">
         <v>0.5</v>
       </c>
-      <c r="F43" s="45"/>
+      <c r="F43" s="42"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
@@ -2360,10 +2357,10 @@
       <c r="E44" s="11">
         <v>0.5</v>
       </c>
-      <c r="F44" s="47"/>
+      <c r="F44" s="43"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F45" s="46"/>
+      <c r="F45" s="42"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
@@ -2378,7 +2375,7 @@
       <c r="E46" s="19">
         <v>1</v>
       </c>
-      <c r="F46" s="45"/>
+      <c r="F46" s="42"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B47" s="15"/>
@@ -2391,7 +2388,7 @@
       <c r="E47" s="6">
         <v>1</v>
       </c>
-      <c r="F47" s="45"/>
+      <c r="F47" s="42"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B48" s="11" t="s">
@@ -2402,14 +2399,14 @@
       <c r="E48" s="11">
         <v>0.5</v>
       </c>
-      <c r="F48" s="47"/>
+      <c r="F48" s="43"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
-      <c r="F49" s="46"/>
+      <c r="F49" s="42"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
@@ -2424,14 +2421,14 @@
       <c r="E50" s="19">
         <v>0.75</v>
       </c>
-      <c r="F50" s="45"/>
+      <c r="F50" s="42"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="15"/>
       <c r="C51" s="16"/>
       <c r="D51" s="16"/>
       <c r="E51" s="6"/>
-      <c r="F51" s="45"/>
+      <c r="F51" s="42"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="11" t="s">
@@ -2442,14 +2439,14 @@
       <c r="E52" s="11">
         <v>0.5</v>
       </c>
-      <c r="F52" s="47"/>
+      <c r="F52" s="43"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
       <c r="E53" s="20"/>
-      <c r="F53" s="46"/>
+      <c r="F53" s="42"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
@@ -2464,7 +2461,7 @@
       <c r="E54" s="19">
         <v>0.5</v>
       </c>
-      <c r="F54" s="45"/>
+      <c r="F54" s="42"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="9"/>
@@ -2477,7 +2474,7 @@
       <c r="E55" s="5">
         <v>0.75</v>
       </c>
-      <c r="F55" s="45"/>
+      <c r="F55" s="42"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="9"/>
@@ -2490,7 +2487,7 @@
       <c r="E56" s="5">
         <v>0.5</v>
       </c>
-      <c r="F56" s="45"/>
+      <c r="F56" s="42"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="9"/>
@@ -2503,17 +2500,17 @@
       <c r="E57" s="5">
         <v>0.5</v>
       </c>
-      <c r="F57" s="45"/>
+      <c r="F57" s="42"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="15"/>
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
       <c r="E58" s="6"/>
-      <c r="F58" s="45"/>
+      <c r="F58" s="42"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F59" s="46"/>
+      <c r="F59" s="42"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
@@ -2528,7 +2525,7 @@
       <c r="E60" s="19">
         <v>0.75</v>
       </c>
-      <c r="F60" s="45"/>
+      <c r="F60" s="42"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="4"/>
@@ -2541,7 +2538,7 @@
       <c r="E61" s="5">
         <v>0.75</v>
       </c>
-      <c r="F61" s="45"/>
+      <c r="F61" s="42"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="4"/>
@@ -2554,7 +2551,7 @@
       <c r="E62" s="5">
         <v>0.5</v>
       </c>
-      <c r="F62" s="45"/>
+      <c r="F62" s="42"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="4"/>
@@ -2567,7 +2564,7 @@
       <c r="E63" s="5">
         <v>0.5</v>
       </c>
-      <c r="F63" s="45"/>
+      <c r="F63" s="42"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="4"/>
@@ -2580,7 +2577,7 @@
       <c r="E64" s="5">
         <v>0.5</v>
       </c>
-      <c r="F64" s="45"/>
+      <c r="F64" s="42"/>
     </row>
     <row r="65" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B65" s="4"/>
@@ -2593,7 +2590,7 @@
       <c r="E65" s="5">
         <v>0.75</v>
       </c>
-      <c r="F65" s="45"/>
+      <c r="F65" s="42"/>
       <c r="G65" s="10" t="s">
         <v>176</v>
       </c>
@@ -2609,7 +2606,7 @@
       <c r="E66" s="5">
         <v>0.5</v>
       </c>
-      <c r="F66" s="45"/>
+      <c r="F66" s="42"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B67" s="4"/>
@@ -2622,7 +2619,7 @@
       <c r="E67" s="5">
         <v>0.5</v>
       </c>
-      <c r="F67" s="45"/>
+      <c r="F67" s="42"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B68" s="15"/>
@@ -2635,10 +2632,10 @@
       <c r="E68" s="6">
         <v>1</v>
       </c>
-      <c r="F68" s="45"/>
+      <c r="F68" s="42"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F69" s="46"/>
+      <c r="F69" s="42"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
@@ -2653,7 +2650,7 @@
       <c r="E70" s="19">
         <v>0.5</v>
       </c>
-      <c r="F70" s="45"/>
+      <c r="F70" s="42"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B71" s="4"/>
@@ -2666,7 +2663,7 @@
       <c r="E71" s="5">
         <v>0.5</v>
       </c>
-      <c r="F71" s="45"/>
+      <c r="F71" s="42"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B72" s="4"/>
@@ -2679,7 +2676,7 @@
       <c r="E72" s="5">
         <v>0.5</v>
       </c>
-      <c r="F72" s="45"/>
+      <c r="F72" s="42"/>
     </row>
     <row r="73" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B73" s="4"/>
@@ -2692,7 +2689,7 @@
       <c r="E73" s="5">
         <v>0.5</v>
       </c>
-      <c r="F73" s="45"/>
+      <c r="F73" s="42"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B74" s="4"/>
@@ -2705,14 +2702,14 @@
       <c r="E74" s="5">
         <v>0.5</v>
       </c>
-      <c r="F74" s="45"/>
+      <c r="F74" s="42"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B75" s="15"/>
       <c r="C75" s="16"/>
       <c r="D75" s="16"/>
       <c r="E75" s="6"/>
-      <c r="F75" s="45"/>
+      <c r="F75" s="42"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B76" s="11" t="s">
@@ -2723,14 +2720,14 @@
       <c r="E76" s="11">
         <v>0.5</v>
       </c>
-      <c r="F76" s="47"/>
+      <c r="F76" s="43"/>
       <c r="G76" s="1">
         <f>SUM(E38:E77)</f>
         <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F77" s="46"/>
+      <c r="F77" s="42"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
@@ -2748,7 +2745,7 @@
       <c r="E78" s="19">
         <v>0.75</v>
       </c>
-      <c r="F78" s="45"/>
+      <c r="F78" s="42"/>
     </row>
     <row r="79" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B79" s="4"/>
@@ -2761,7 +2758,7 @@
       <c r="E79" s="5">
         <v>0.75</v>
       </c>
-      <c r="F79" s="45"/>
+      <c r="F79" s="42"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B80" s="4"/>
@@ -2771,7 +2768,7 @@
       <c r="E80" s="5">
         <v>0.75</v>
       </c>
-      <c r="F80" s="45"/>
+      <c r="F80" s="42"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B81" s="4"/>
@@ -2784,7 +2781,7 @@
       <c r="E81" s="5">
         <v>1</v>
       </c>
-      <c r="F81" s="45"/>
+      <c r="F81" s="42"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B82" s="4"/>
@@ -2797,7 +2794,7 @@
       <c r="E82" s="5">
         <v>1</v>
       </c>
-      <c r="F82" s="45"/>
+      <c r="F82" s="42"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B83" s="4"/>
@@ -2810,12 +2807,12 @@
       <c r="E83" s="5">
         <v>1</v>
       </c>
-      <c r="F83" s="45"/>
+      <c r="F83" s="42"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B84" s="4"/>
       <c r="E84" s="5"/>
-      <c r="F84" s="45"/>
+      <c r="F84" s="42"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B85" s="4" t="s">
@@ -2830,7 +2827,7 @@
       <c r="E85" s="5">
         <v>0.5</v>
       </c>
-      <c r="F85" s="45"/>
+      <c r="F85" s="42"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B86" s="4"/>
@@ -2843,7 +2840,7 @@
       <c r="E86" s="5">
         <v>0.5</v>
       </c>
-      <c r="F86" s="45"/>
+      <c r="F86" s="42"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B87" s="4"/>
@@ -2856,7 +2853,7 @@
       <c r="E87" s="5">
         <v>0.75</v>
       </c>
-      <c r="F87" s="45"/>
+      <c r="F87" s="42"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B88" s="4"/>
@@ -2869,12 +2866,12 @@
       <c r="E88" s="5">
         <v>1</v>
       </c>
-      <c r="F88" s="45"/>
+      <c r="F88" s="42"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B89" s="4"/>
       <c r="E89" s="5"/>
-      <c r="F89" s="45"/>
+      <c r="F89" s="42"/>
     </row>
     <row r="90" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B90" s="4" t="s">
@@ -2889,14 +2886,14 @@
       <c r="E90" s="5">
         <v>1.5</v>
       </c>
-      <c r="F90" s="45"/>
+      <c r="F90" s="42"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B91" s="15"/>
       <c r="C91" s="16"/>
       <c r="D91" s="16"/>
       <c r="E91" s="6"/>
-      <c r="F91" s="45"/>
+      <c r="F91" s="42"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B92" s="11" t="s">
@@ -2907,14 +2904,14 @@
       <c r="E92" s="11">
         <v>0.5</v>
       </c>
-      <c r="F92" s="47"/>
+      <c r="F92" s="43"/>
       <c r="G92" s="1">
         <f>SUM(E78:E92)</f>
         <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F93" s="46"/>
+      <c r="F93" s="42"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
@@ -2932,7 +2929,7 @@
       <c r="E94" s="19">
         <v>0.75</v>
       </c>
-      <c r="F94" s="45"/>
+      <c r="F94" s="42"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B95" s="4"/>
@@ -2945,12 +2942,12 @@
       <c r="E95" s="5">
         <v>0.5</v>
       </c>
-      <c r="F95" s="45"/>
+      <c r="F95" s="42"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B96" s="4"/>
       <c r="E96" s="5"/>
-      <c r="F96" s="45"/>
+      <c r="F96" s="42"/>
     </row>
     <row r="97" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B97" s="4"/>
@@ -2960,7 +2957,7 @@
       <c r="E97" s="5">
         <v>0.5</v>
       </c>
-      <c r="F97" s="45"/>
+      <c r="F97" s="42"/>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" s="4"/>
@@ -2970,12 +2967,12 @@
       <c r="E98" s="5">
         <v>0.5</v>
       </c>
-      <c r="F98" s="45"/>
+      <c r="F98" s="42"/>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99" s="4"/>
       <c r="E99" s="5"/>
-      <c r="F99" s="45"/>
+      <c r="F99" s="42"/>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" s="4" t="s">
@@ -2990,7 +2987,7 @@
       <c r="E100" s="5">
         <v>0.5</v>
       </c>
-      <c r="F100" s="45"/>
+      <c r="F100" s="42"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B101" s="4"/>
@@ -3003,7 +3000,7 @@
       <c r="E101" s="5">
         <v>0.25</v>
       </c>
-      <c r="F101" s="45"/>
+      <c r="F101" s="42"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102" s="4"/>
@@ -3016,7 +3013,7 @@
       <c r="E102" s="5">
         <v>0.25</v>
       </c>
-      <c r="F102" s="45"/>
+      <c r="F102" s="42"/>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103" s="4"/>
@@ -3029,7 +3026,7 @@
       <c r="E103" s="5">
         <v>0.5</v>
       </c>
-      <c r="F103" s="45"/>
+      <c r="F103" s="42"/>
     </row>
     <row r="104" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B104" s="4"/>
@@ -3039,7 +3036,7 @@
       <c r="E104" s="5">
         <v>0.5</v>
       </c>
-      <c r="F104" s="45"/>
+      <c r="F104" s="42"/>
     </row>
     <row r="105" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B105" s="4"/>
@@ -3049,7 +3046,7 @@
       <c r="E105" s="5">
         <v>0.5</v>
       </c>
-      <c r="F105" s="45"/>
+      <c r="F105" s="42"/>
     </row>
     <row r="106" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B106" s="4"/>
@@ -3059,7 +3056,7 @@
       <c r="E106" s="5">
         <v>0.25</v>
       </c>
-      <c r="F106" s="45"/>
+      <c r="F106" s="42"/>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B107" s="4"/>
@@ -3069,7 +3066,7 @@
       <c r="E107" s="5">
         <v>0.5</v>
       </c>
-      <c r="F107" s="45"/>
+      <c r="F107" s="42"/>
     </row>
     <row r="108" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B108" s="4"/>
@@ -3079,7 +3076,7 @@
       <c r="E108" s="5">
         <v>1</v>
       </c>
-      <c r="F108" s="45"/>
+      <c r="F108" s="42"/>
     </row>
     <row r="109" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B109" s="4" t="s">
@@ -3091,7 +3088,7 @@
       <c r="E109" s="5">
         <v>1</v>
       </c>
-      <c r="F109" s="45"/>
+      <c r="F109" s="42"/>
     </row>
     <row r="110" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B110" s="4" t="s">
@@ -3103,7 +3100,7 @@
       <c r="E110" s="5">
         <v>0.25</v>
       </c>
-      <c r="F110" s="45"/>
+      <c r="F110" s="42"/>
     </row>
     <row r="111" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B111" s="13"/>
@@ -3113,7 +3110,7 @@
       <c r="E111" s="5">
         <v>0.25</v>
       </c>
-      <c r="F111" s="45"/>
+      <c r="F111" s="42"/>
     </row>
     <row r="112" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B112" s="13"/>
@@ -3123,7 +3120,7 @@
       <c r="E112" s="5">
         <v>0.5</v>
       </c>
-      <c r="F112" s="45"/>
+      <c r="F112" s="42"/>
       <c r="G112" s="10" t="s">
         <v>178</v>
       </c>
@@ -3136,7 +3133,7 @@
       <c r="E113" s="5">
         <v>0.25</v>
       </c>
-      <c r="F113" s="45"/>
+      <c r="F113" s="42"/>
       <c r="G113" s="10" t="s">
         <v>179</v>
       </c>
@@ -3149,7 +3146,7 @@
       <c r="E114" s="5">
         <v>0.25</v>
       </c>
-      <c r="F114" s="45"/>
+      <c r="F114" s="42"/>
     </row>
     <row r="115" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B115" s="13"/>
@@ -3159,7 +3156,7 @@
       <c r="E115" s="5">
         <v>0.25</v>
       </c>
-      <c r="F115" s="45"/>
+      <c r="F115" s="42"/>
     </row>
     <row r="116" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B116" s="13"/>
@@ -3169,7 +3166,7 @@
       <c r="E116" s="5">
         <v>0.25</v>
       </c>
-      <c r="F116" s="45"/>
+      <c r="F116" s="42"/>
     </row>
     <row r="117" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B117" s="13"/>
@@ -3179,7 +3176,7 @@
       <c r="E117" s="5">
         <v>0.25</v>
       </c>
-      <c r="F117" s="45"/>
+      <c r="F117" s="42"/>
     </row>
     <row r="118" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B118" s="13"/>
@@ -3189,7 +3186,7 @@
       <c r="E118" s="5">
         <v>0.25</v>
       </c>
-      <c r="F118" s="45"/>
+      <c r="F118" s="42"/>
     </row>
     <row r="119" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B119" s="13"/>
@@ -3199,7 +3196,7 @@
       <c r="E119" s="5">
         <v>0.5</v>
       </c>
-      <c r="F119" s="45"/>
+      <c r="F119" s="42"/>
     </row>
     <row r="120" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B120" s="13"/>
@@ -3209,7 +3206,7 @@
       <c r="E120" s="5">
         <v>1</v>
       </c>
-      <c r="F120" s="45"/>
+      <c r="F120" s="42"/>
     </row>
     <row r="121" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B121" s="4" t="s">
@@ -3221,7 +3218,7 @@
       <c r="E121" s="5">
         <v>0.25</v>
       </c>
-      <c r="F121" s="45"/>
+      <c r="F121" s="42"/>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B122" s="13"/>
@@ -3231,12 +3228,12 @@
       <c r="E122" s="5">
         <v>0.5</v>
       </c>
-      <c r="F122" s="45"/>
+      <c r="F122" s="42"/>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B123" s="13"/>
       <c r="E123" s="5"/>
-      <c r="F123" s="45"/>
+      <c r="F123" s="42"/>
     </row>
     <row r="124" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B124" s="13"/>
@@ -3246,7 +3243,7 @@
       <c r="E124" s="5">
         <v>0.5</v>
       </c>
-      <c r="F124" s="45"/>
+      <c r="F124" s="42"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B125" s="13"/>
@@ -3256,7 +3253,7 @@
       <c r="E125" s="5">
         <v>1</v>
       </c>
-      <c r="F125" s="45"/>
+      <c r="F125" s="42"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B126" s="13"/>
@@ -3266,12 +3263,12 @@
       <c r="E126" s="5">
         <v>1</v>
       </c>
-      <c r="F126" s="45"/>
+      <c r="F126" s="42"/>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B127" s="13"/>
       <c r="E127" s="5"/>
-      <c r="F127" s="45"/>
+      <c r="F127" s="42"/>
     </row>
     <row r="128" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B128" s="13"/>
@@ -3281,7 +3278,7 @@
       <c r="E128" s="5">
         <v>0.25</v>
       </c>
-      <c r="F128" s="45"/>
+      <c r="F128" s="42"/>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B129" s="13"/>
@@ -3291,7 +3288,7 @@
       <c r="E129" s="5">
         <v>1</v>
       </c>
-      <c r="F129" s="45"/>
+      <c r="F129" s="42"/>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B130" s="13"/>
@@ -3301,7 +3298,7 @@
       <c r="E130" s="5">
         <v>1</v>
       </c>
-      <c r="F130" s="45"/>
+      <c r="F130" s="42"/>
     </row>
     <row r="131" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B131" s="13"/>
@@ -3311,7 +3308,7 @@
       <c r="E131" s="5">
         <v>0.5</v>
       </c>
-      <c r="F131" s="45"/>
+      <c r="F131" s="42"/>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B132" s="13"/>
@@ -3321,12 +3318,12 @@
       <c r="E132" s="5">
         <v>1</v>
       </c>
-      <c r="F132" s="45"/>
+      <c r="F132" s="42"/>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B133" s="4"/>
       <c r="E133" s="5"/>
-      <c r="F133" s="45"/>
+      <c r="F133" s="42"/>
     </row>
     <row r="134" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B134" s="4" t="s">
@@ -3338,7 +3335,7 @@
       <c r="E134" s="5">
         <v>0.75</v>
       </c>
-      <c r="F134" s="45"/>
+      <c r="F134" s="42"/>
     </row>
     <row r="135" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B135" s="13"/>
@@ -3348,7 +3345,7 @@
       <c r="E135" s="5">
         <v>1.5</v>
       </c>
-      <c r="F135" s="45"/>
+      <c r="F135" s="42"/>
     </row>
     <row r="136" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B136" s="13"/>
@@ -3358,7 +3355,7 @@
       <c r="E136" s="5">
         <v>1.5</v>
       </c>
-      <c r="F136" s="45"/>
+      <c r="F136" s="42"/>
     </row>
     <row r="137" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B137" s="13"/>
@@ -3368,7 +3365,7 @@
       <c r="E137" s="5">
         <v>0.5</v>
       </c>
-      <c r="F137" s="45"/>
+      <c r="F137" s="42"/>
     </row>
     <row r="138" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B138" s="13"/>
@@ -3378,7 +3375,7 @@
       <c r="E138" s="5">
         <v>0.5</v>
       </c>
-      <c r="F138" s="45"/>
+      <c r="F138" s="42"/>
     </row>
     <row r="139" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B139" s="13"/>
@@ -3388,7 +3385,7 @@
       <c r="E139" s="5">
         <v>1.5</v>
       </c>
-      <c r="F139" s="45"/>
+      <c r="F139" s="42"/>
     </row>
     <row r="140" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B140" s="4" t="s">
@@ -3400,12 +3397,12 @@
       <c r="E140" s="5">
         <v>1</v>
       </c>
-      <c r="F140" s="45"/>
+      <c r="F140" s="42"/>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B141" s="4"/>
       <c r="E141" s="5"/>
-      <c r="F141" s="45"/>
+      <c r="F141" s="42"/>
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B142" s="4" t="s">
@@ -3417,7 +3414,7 @@
       <c r="E142" s="5">
         <v>1</v>
       </c>
-      <c r="F142" s="45"/>
+      <c r="F142" s="42"/>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B143" s="15"/>
@@ -3428,10 +3425,10 @@
       <c r="E143" s="6">
         <v>1</v>
       </c>
-      <c r="F143" s="45"/>
+      <c r="F143" s="42"/>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F144" s="46"/>
+      <c r="F144" s="42"/>
       <c r="G144" s="1">
         <f>SUM(E94:E143)</f>
         <v>27.75</v>
@@ -3451,7 +3448,7 @@
       <c r="E145" s="19">
         <v>1</v>
       </c>
-      <c r="F145" s="45"/>
+      <c r="F145" s="42"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="4"/>
@@ -3462,7 +3459,7 @@
       <c r="E146" s="5">
         <v>1</v>
       </c>
-      <c r="F146" s="45"/>
+      <c r="F146" s="42"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="4"/>
@@ -3473,7 +3470,7 @@
       <c r="E147" s="5">
         <v>0.5</v>
       </c>
-      <c r="F147" s="45"/>
+      <c r="F147" s="42"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="4"/>
@@ -3484,7 +3481,7 @@
       <c r="E148" s="5">
         <v>1</v>
       </c>
-      <c r="F148" s="45"/>
+      <c r="F148" s="42"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="4"/>
@@ -3495,7 +3492,7 @@
       <c r="E149" s="5">
         <v>2</v>
       </c>
-      <c r="F149" s="45"/>
+      <c r="F149" s="42"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="4"/>
@@ -3508,7 +3505,7 @@
       <c r="E150" s="5">
         <v>2</v>
       </c>
-      <c r="F150" s="45"/>
+      <c r="F150" s="42"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="15"/>
@@ -3522,17 +3519,17 @@
       <c r="E151" s="6">
         <v>1</v>
       </c>
-      <c r="F151" s="45"/>
+      <c r="F151" s="42"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F152" s="46"/>
+      <c r="F152" s="42"/>
       <c r="G152" s="1">
         <f>SUM(E145:E151)</f>
         <v>8.5</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F153" s="46"/>
+      <c r="F153" s="42"/>
       <c r="G153" s="1">
         <f>SUM(G2:G152)</f>
         <v>83.75</v>
@@ -3548,7 +3545,7 @@
       <c r="C154" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="F154" s="46"/>
+      <c r="F154" s="42"/>
     </row>
     <row r="155" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A155" s="29" t="s">
@@ -3557,18 +3554,18 @@
       <c r="B155" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="C155" s="35" t="s">
+      <c r="C155" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="F155" s="46"/>
+      <c r="F155" s="42"/>
     </row>
     <row r="156" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A156" s="29"/>
       <c r="B156" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C156" s="36"/>
-      <c r="F156" s="46"/>
+      <c r="C156" s="46"/>
+      <c r="F156" s="42"/>
     </row>
     <row r="157" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A157" s="29" t="s">
@@ -3577,32 +3574,32 @@
       <c r="B157" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="C157" s="36"/>
-      <c r="F157" s="46"/>
+      <c r="C157" s="46"/>
+      <c r="F157" s="42"/>
     </row>
     <row r="158" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A158" s="30"/>
       <c r="B158" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="C158" s="36"/>
-      <c r="F158" s="46"/>
+      <c r="C158" s="46"/>
+      <c r="F158" s="42"/>
     </row>
     <row r="159" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A159" s="30"/>
       <c r="B159" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="C159" s="36"/>
-      <c r="F159" s="46"/>
+      <c r="C159" s="46"/>
+      <c r="F159" s="42"/>
     </row>
     <row r="160" spans="1:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="31"/>
       <c r="B160" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="C160" s="37"/>
-      <c r="F160" s="46"/>
+      <c r="C160" s="47"/>
+      <c r="F160" s="42"/>
     </row>
     <row r="161" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A161" s="29" t="s">
@@ -3611,18 +3608,18 @@
       <c r="B161" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="C161" s="35" t="s">
+      <c r="C161" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="F161" s="46"/>
+      <c r="F161" s="42"/>
     </row>
     <row r="162" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A162" s="29"/>
       <c r="B162" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="C162" s="36"/>
-      <c r="F162" s="46"/>
+      <c r="C162" s="46"/>
+      <c r="F162" s="42"/>
     </row>
     <row r="163" spans="1:6" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="34" t="s">
@@ -3631,8 +3628,8 @@
       <c r="B163" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="C163" s="37"/>
-      <c r="F163" s="46"/>
+      <c r="C163" s="47"/>
+      <c r="F163" s="42"/>
     </row>
     <row r="164" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A164" s="29" t="s">
@@ -3641,18 +3638,18 @@
       <c r="B164" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="C164" s="35" t="s">
+      <c r="C164" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="F164" s="46"/>
+      <c r="F164" s="42"/>
     </row>
     <row r="165" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A165" s="29"/>
       <c r="B165" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="C165" s="36"/>
-      <c r="F165" s="46"/>
+      <c r="C165" s="46"/>
+      <c r="F165" s="42"/>
     </row>
     <row r="166" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="34" t="s">
@@ -3661,8 +3658,8 @@
       <c r="B166" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="C166" s="37"/>
-      <c r="F166" s="46"/>
+      <c r="C166" s="47"/>
+      <c r="F166" s="42"/>
     </row>
     <row r="167" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A167" s="29" t="s">
@@ -3671,18 +3668,18 @@
       <c r="B167" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="C167" s="35" t="s">
+      <c r="C167" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="F167" s="46"/>
+      <c r="F167" s="42"/>
     </row>
     <row r="168" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A168" s="29"/>
       <c r="B168" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="C168" s="36"/>
-      <c r="F168" s="46"/>
+      <c r="C168" s="46"/>
+      <c r="F168" s="42"/>
     </row>
     <row r="169" spans="1:6" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="34" t="s">
@@ -3691,74 +3688,74 @@
       <c r="B169" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="C169" s="37"/>
-      <c r="F169" s="46"/>
+      <c r="C169" s="47"/>
+      <c r="F169" s="42"/>
     </row>
     <row r="170" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A170" s="38"/>
+      <c r="A170" s="35"/>
       <c r="B170"/>
       <c r="C170"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="39" t="s">
+      <c r="A171" s="36" t="s">
         <v>212</v>
       </c>
       <c r="B171"/>
       <c r="C171"/>
     </row>
     <row r="172" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A172" s="38" t="s">
+      <c r="A172" s="35" t="s">
         <v>213</v>
       </c>
       <c r="B172"/>
       <c r="C172"/>
     </row>
     <row r="173" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="38"/>
+      <c r="A173" s="35"/>
       <c r="B173"/>
       <c r="C173"/>
     </row>
     <row r="174" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="40" t="s">
+      <c r="A174" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="B174" s="41" t="s">
+      <c r="B174" s="38" t="s">
         <v>215</v>
       </c>
       <c r="C174"/>
     </row>
     <row r="175" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="42" t="s">
+      <c r="A175" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="B175" s="43" t="s">
+      <c r="B175" s="40" t="s">
         <v>215</v>
       </c>
       <c r="C175"/>
     </row>
     <row r="176" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="42" t="s">
+      <c r="A176" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="B176" s="43" t="s">
+      <c r="B176" s="40" t="s">
         <v>220</v>
       </c>
       <c r="C176"/>
     </row>
     <row r="177" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="42" t="s">
+      <c r="A177" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="B177" s="43" t="s">
+      <c r="B177" s="40" t="s">
         <v>215</v>
       </c>
       <c r="C177"/>
     </row>
     <row r="178" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="42" t="s">
+      <c r="A178" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="B178" s="43" t="s">
+      <c r="B178" s="40" t="s">
         <v>215</v>
       </c>
       <c r="C178"/>

--- a/ML-DL-LLMs ver 0.2 - session progress.xlsx
+++ b/ML-DL-LLMs ver 0.2 - session progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gridflowAI\cgi-AI-ML-GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DC3539-10F7-4C24-8A6D-E81AC46C5DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C81FD9-FBF3-4D78-A4D2-D4476004A735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="672" yWindow="216" windowWidth="16572" windowHeight="11904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="224">
   <si>
     <t>AI Fundamentatals</t>
   </si>
@@ -986,17 +986,64 @@
     <t xml:space="preserve">Week 5 </t>
   </si>
   <si>
-    <t>M T W  &lt;BREAK&gt;</t>
-  </si>
-  <si>
     <t>Day #</t>
+  </si>
+  <si>
+    <t>M T  W Th  F
+8   9 10 11 12</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">M  T   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF1F497D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  Th  F
+15 16 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF1F497D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 18 19</t>
+    </r>
+  </si>
+  <si>
+    <t>M  T   W   Th &lt;BREAK&gt;
+22 23 24  25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1111,6 +1158,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1788,7 +1841,7 @@
   <dimension ref="A1:H178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1821,7 +1874,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -3715,30 +3768,30 @@
       <c r="B173"/>
       <c r="C173"/>
     </row>
-    <row r="174" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="37" t="s">
         <v>214</v>
       </c>
       <c r="B174" s="38" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C174"/>
     </row>
-    <row r="175" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="39" t="s">
         <v>216</v>
       </c>
       <c r="B175" s="40" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C175"/>
     </row>
-    <row r="176" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="39" t="s">
         <v>217</v>
       </c>
       <c r="B176" s="40" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C176"/>
     </row>

--- a/ML-DL-LLMs ver 0.2 - session progress.xlsx
+++ b/ML-DL-LLMs ver 0.2 - session progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gridflowAI\cgi-AI-ML-GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C81FD9-FBF3-4D78-A4D2-D4476004A735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32031488-2AEC-44C9-97B7-4BA876E161B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="672" yWindow="216" windowWidth="16572" windowHeight="11904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30660" yWindow="-4455" windowWidth="21420" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="227">
   <si>
     <t>AI Fundamentatals</t>
   </si>
@@ -1038,12 +1038,24 @@
     <t>M  T   W   Th &lt;BREAK&gt;
 22 23 24  25</t>
   </si>
+  <si>
+    <t>https://youtu.be/ZiK-yJWvhbw?si=DWrQ8bm6OJv04Tyq
+(9 videos)</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ODVq8nYohgk?si=qHXNLZP8K0mTReo8
+(10 videos)</t>
+  </si>
+  <si>
+    <t>https://youtu.be/fXj-JGkMMtY?si=kFzfUyXFyOG2JVPd
+(14 videos)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1165,6 +1177,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1412,10 +1432,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1558,8 +1579,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1841,7 +1866,7 @@
   <dimension ref="A1:H178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H31" sqref="H29:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1852,7 +1877,7 @@
     <col min="4" max="4" width="23.88671875" style="10" customWidth="1"/>
     <col min="5" max="5" width="8.21875" style="10" customWidth="1"/>
     <col min="6" max="6" width="10.5546875" style="44" customWidth="1"/>
-    <col min="7" max="7" width="24" style="10" customWidth="1"/>
+    <col min="7" max="7" width="38" style="10" customWidth="1"/>
     <col min="8" max="8" width="48.5546875" style="10" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="10"/>
   </cols>
@@ -1950,7 +1975,7 @@
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>181</v>
@@ -1976,7 +2001,7 @@
         <v>0.5</v>
       </c>
       <c r="F8" s="42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>183</v>
@@ -1985,7 +2010,7 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F9" s="42"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1999,7 +2024,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="42">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2014,7 +2042,7 @@
         <v>0.5</v>
       </c>
       <c r="F11" s="42">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -2026,7 +2054,9 @@
         <v>90</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="42"/>
+      <c r="F12" s="42">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
@@ -2037,7 +2067,9 @@
         <v>90</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="42"/>
+      <c r="F13" s="42">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
@@ -2050,7 +2082,9 @@
       <c r="E14" s="5">
         <v>0.5</v>
       </c>
-      <c r="F14" s="42"/>
+      <c r="F14" s="42">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
@@ -2061,7 +2095,9 @@
         <v>90</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="42"/>
+      <c r="F15" s="42">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
@@ -2076,7 +2112,7 @@
       </c>
       <c r="F16" s="42"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="15"/>
       <c r="C17" s="16" t="s">
         <v>20</v>
@@ -2089,7 +2125,7 @@
       </c>
       <c r="F17" s="42"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>94</v>
       </c>
@@ -2100,10 +2136,10 @@
       </c>
       <c r="F18" s="43"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F19" s="42"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
@@ -2117,8 +2153,11 @@
         <v>0.5</v>
       </c>
       <c r="F20" s="42"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="48" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="C21" s="10" t="s">
         <v>23</v>
@@ -2131,7 +2170,7 @@
       </c>
       <c r="F21" s="42"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="10" t="s">
         <v>24</v>
@@ -2144,7 +2183,7 @@
       </c>
       <c r="F22" s="42"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
       <c r="C23" s="10" t="s">
         <v>25</v>
@@ -2157,7 +2196,7 @@
       </c>
       <c r="F23" s="42"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
       <c r="C24" s="10" t="s">
         <v>26</v>
@@ -2170,7 +2209,7 @@
       </c>
       <c r="F24" s="42"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
       <c r="C25" s="10" t="s">
         <v>27</v>
@@ -2183,7 +2222,7 @@
       </c>
       <c r="F25" s="42"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="15"/>
       <c r="C26" s="16" t="s">
         <v>28</v>
@@ -2196,7 +2235,7 @@
       </c>
       <c r="F26" s="42"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
         <v>94</v>
       </c>
@@ -2207,10 +2246,10 @@
       </c>
       <c r="F27" s="43"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F28" s="42"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>29</v>
       </c>
@@ -2224,8 +2263,11 @@
         <v>0.75</v>
       </c>
       <c r="F29" s="42"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="48" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="9"/>
       <c r="C30" s="10" t="s">
         <v>35</v>
@@ -2238,7 +2280,7 @@
       </c>
       <c r="F30" s="42"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="4"/>
       <c r="C31" s="10" t="s">
         <v>31</v>
@@ -2251,7 +2293,7 @@
       </c>
       <c r="F31" s="42"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="4"/>
       <c r="C32" s="10" t="s">
         <v>32</v>
@@ -3820,8 +3862,13 @@
     <mergeCell ref="C164:C166"/>
     <mergeCell ref="C167:C169"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G20" r:id="rId1" xr:uid="{8E0293B7-93B8-4EB1-A0D2-43896432E6DF}"/>
+    <hyperlink ref="G10" r:id="rId2" xr:uid="{39E4BDE5-30CD-4DC0-A1D7-1C29F6A4F891}"/>
+    <hyperlink ref="G29" r:id="rId3" xr:uid="{F079AFBB-415D-4EA3-944F-3494D265CAB1}"/>
+  </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/ML-DL-LLMs ver 0.2 - session progress.xlsx
+++ b/ML-DL-LLMs ver 0.2 - session progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gridflowAI\cgi-AI-ML-GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32031488-2AEC-44C9-97B7-4BA876E161B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6B7B58-E061-4269-AC1B-43111A8C0878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30660" yWindow="-4455" windowWidth="21420" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1570,6 +1570,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1578,9 +1581,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1865,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H29:H31"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2026,7 +2026,7 @@
       <c r="F10" s="42">
         <v>3</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="45" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2152,8 +2152,10 @@
       <c r="E20" s="19">
         <v>0.5</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="48" t="s">
+      <c r="F20" s="42">
+        <v>3</v>
+      </c>
+      <c r="G20" s="45" t="s">
         <v>224</v>
       </c>
     </row>
@@ -2168,7 +2170,9 @@
       <c r="E21" s="5">
         <v>0.5</v>
       </c>
-      <c r="F21" s="42"/>
+      <c r="F21" s="42">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
@@ -2181,7 +2185,9 @@
       <c r="E22" s="5">
         <v>0.25</v>
       </c>
-      <c r="F22" s="42"/>
+      <c r="F22" s="42">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
@@ -2263,7 +2269,7 @@
         <v>0.75</v>
       </c>
       <c r="F29" s="42"/>
-      <c r="G29" s="48" t="s">
+      <c r="G29" s="45" t="s">
         <v>226</v>
       </c>
     </row>
@@ -2414,7 +2420,7 @@
       </c>
       <c r="F41" s="42"/>
     </row>
-    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B42" s="4"/>
       <c r="C42" s="10" t="s">
         <v>41</v>
@@ -2674,7 +2680,7 @@
       </c>
       <c r="F64" s="42"/>
     </row>
-    <row r="65" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B65" s="4"/>
       <c r="C65" s="10" t="s">
         <v>57</v>
@@ -3649,7 +3655,7 @@
       <c r="B155" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="C155" s="45" t="s">
+      <c r="C155" s="46" t="s">
         <v>195</v>
       </c>
       <c r="F155" s="42"/>
@@ -3659,7 +3665,7 @@
       <c r="B156" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C156" s="46"/>
+      <c r="C156" s="47"/>
       <c r="F156" s="42"/>
     </row>
     <row r="157" spans="1:7" ht="72" x14ac:dyDescent="0.3">
@@ -3669,7 +3675,7 @@
       <c r="B157" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="C157" s="46"/>
+      <c r="C157" s="47"/>
       <c r="F157" s="42"/>
     </row>
     <row r="158" spans="1:7" ht="18" x14ac:dyDescent="0.3">
@@ -3677,7 +3683,7 @@
       <c r="B158" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="C158" s="46"/>
+      <c r="C158" s="47"/>
       <c r="F158" s="42"/>
     </row>
     <row r="159" spans="1:7" ht="18" x14ac:dyDescent="0.3">
@@ -3685,7 +3691,7 @@
       <c r="B159" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="C159" s="46"/>
+      <c r="C159" s="47"/>
       <c r="F159" s="42"/>
     </row>
     <row r="160" spans="1:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -3693,7 +3699,7 @@
       <c r="B160" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="C160" s="47"/>
+      <c r="C160" s="48"/>
       <c r="F160" s="42"/>
     </row>
     <row r="161" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -3703,7 +3709,7 @@
       <c r="B161" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="C161" s="45" t="s">
+      <c r="C161" s="46" t="s">
         <v>195</v>
       </c>
       <c r="F161" s="42"/>
@@ -3713,7 +3719,7 @@
       <c r="B162" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="C162" s="46"/>
+      <c r="C162" s="47"/>
       <c r="F162" s="42"/>
     </row>
     <row r="163" spans="1:6" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -3723,7 +3729,7 @@
       <c r="B163" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="C163" s="47"/>
+      <c r="C163" s="48"/>
       <c r="F163" s="42"/>
     </row>
     <row r="164" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -3733,7 +3739,7 @@
       <c r="B164" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="C164" s="45" t="s">
+      <c r="C164" s="46" t="s">
         <v>195</v>
       </c>
       <c r="F164" s="42"/>
@@ -3743,7 +3749,7 @@
       <c r="B165" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="C165" s="46"/>
+      <c r="C165" s="47"/>
       <c r="F165" s="42"/>
     </row>
     <row r="166" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -3753,7 +3759,7 @@
       <c r="B166" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="C166" s="47"/>
+      <c r="C166" s="48"/>
       <c r="F166" s="42"/>
     </row>
     <row r="167" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -3763,7 +3769,7 @@
       <c r="B167" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="C167" s="45" t="s">
+      <c r="C167" s="46" t="s">
         <v>211</v>
       </c>
       <c r="F167" s="42"/>
@@ -3773,7 +3779,7 @@
       <c r="B168" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="C168" s="46"/>
+      <c r="C168" s="47"/>
       <c r="F168" s="42"/>
     </row>
     <row r="169" spans="1:6" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -3783,7 +3789,7 @@
       <c r="B169" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="C169" s="47"/>
+      <c r="C169" s="48"/>
       <c r="F169" s="42"/>
     </row>
     <row r="170" spans="1:6" ht="18" x14ac:dyDescent="0.3">

--- a/ML-DL-LLMs ver 0.2 - session progress.xlsx
+++ b/ML-DL-LLMs ver 0.2 - session progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gridflowAI\cgi-AI-ML-GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6B7B58-E061-4269-AC1B-43111A8C0878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0910B315-01A9-47C4-B617-1D1CC5A11B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30660" yWindow="-4455" windowWidth="21420" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32055" yWindow="-5190" windowWidth="17805" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1186,7 +1186,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1205,6 +1205,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -1436,7 +1442,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1581,6 +1587,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1865,8 +1874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:E26"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2042,7 +2051,7 @@
         <v>0.5</v>
       </c>
       <c r="F11" s="42">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -2055,7 +2064,7 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="42">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -2068,7 +2077,7 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="42">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -2082,8 +2091,8 @@
       <c r="E14" s="5">
         <v>0.5</v>
       </c>
-      <c r="F14" s="42">
-        <v>3</v>
+      <c r="F14" s="49">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -2095,8 +2104,8 @@
         <v>90</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="42">
-        <v>3</v>
+      <c r="F15" s="49">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -2110,7 +2119,9 @@
       <c r="E16" s="5">
         <v>0.5</v>
       </c>
-      <c r="F16" s="42"/>
+      <c r="F16" s="49">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="15"/>
@@ -2123,7 +2134,9 @@
       <c r="E17" s="6">
         <v>0.5</v>
       </c>
-      <c r="F17" s="42"/>
+      <c r="F17" s="49">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
@@ -2200,7 +2213,9 @@
       <c r="E23" s="5">
         <v>0.25</v>
       </c>
-      <c r="F23" s="42"/>
+      <c r="F23" s="42">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
@@ -2213,7 +2228,9 @@
       <c r="E24" s="5">
         <v>0.5</v>
       </c>
-      <c r="F24" s="42"/>
+      <c r="F24" s="42">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
@@ -2226,7 +2243,9 @@
       <c r="E25" s="5">
         <v>0.5</v>
       </c>
-      <c r="F25" s="42"/>
+      <c r="F25" s="42">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="15"/>
@@ -2239,7 +2258,9 @@
       <c r="E26" s="6">
         <v>0.25</v>
       </c>
-      <c r="F26" s="42"/>
+      <c r="F26" s="42">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
@@ -2268,7 +2289,9 @@
       <c r="E29" s="19">
         <v>0.75</v>
       </c>
-      <c r="F29" s="42"/>
+      <c r="F29" s="49">
+        <v>5</v>
+      </c>
       <c r="G29" s="45" t="s">
         <v>226</v>
       </c>
@@ -2284,7 +2307,9 @@
       <c r="E30" s="5">
         <v>1</v>
       </c>
-      <c r="F30" s="42"/>
+      <c r="F30" s="49">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="4"/>
@@ -2297,7 +2322,9 @@
       <c r="E31" s="5">
         <v>1</v>
       </c>
-      <c r="F31" s="42"/>
+      <c r="F31" s="49">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="4"/>
@@ -2310,7 +2337,9 @@
       <c r="E32" s="5">
         <v>4</v>
       </c>
-      <c r="F32" s="42"/>
+      <c r="F32" s="49">
+        <v>5</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B33" s="4"/>

--- a/ML-DL-LLMs ver 0.2 - session progress.xlsx
+++ b/ML-DL-LLMs ver 0.2 - session progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gridflowAI\cgi-AI-ML-GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0910B315-01A9-47C4-B617-1D1CC5A11B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF739682-B7F6-4672-8085-7C56B3C65228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32055" yWindow="-5190" windowWidth="17805" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-5745" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="252">
   <si>
     <t>AI Fundamentatals</t>
   </si>
@@ -1049,6 +1049,85 @@
   <si>
     <t>https://youtu.be/fXj-JGkMMtY?si=kFzfUyXFyOG2JVPd
 (14 videos)</t>
+  </si>
+  <si>
+    <t>Group 1</t>
+  </si>
+  <si>
+    <t>Group 2</t>
+  </si>
+  <si>
+    <t>Group 3</t>
+  </si>
+  <si>
+    <t>Group 4</t>
+  </si>
+  <si>
+    <t>Group of participants for 
+- projects
+- presentations
+(Complex use cases, deployments etc)
+Each grp to have at least 1 Python expert</t>
+  </si>
+  <si>
+    <t>Laksmi</t>
+  </si>
+  <si>
+    <t>Amarnath</t>
+  </si>
+  <si>
+    <t>Vikram</t>
+  </si>
+  <si>
+    <t>Aditya</t>
+  </si>
+  <si>
+    <t>Sai</t>
+  </si>
+  <si>
+    <t>Phanidhar</t>
+  </si>
+  <si>
+    <t>Raja</t>
+  </si>
+  <si>
+    <t>Javith</t>
+  </si>
+  <si>
+    <t>Vamsi</t>
+  </si>
+  <si>
+    <t>Shirley</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Sanjay</t>
+  </si>
+  <si>
+    <t>Anthoni</t>
+  </si>
+  <si>
+    <t>Prasad</t>
+  </si>
+  <si>
+    <t>Ranjit</t>
+  </si>
+  <si>
+    <t>chandru</t>
+  </si>
+  <si>
+    <t>Rajendra</t>
+  </si>
+  <si>
+    <t>Ravindra</t>
+  </si>
+  <si>
+    <t>Ravi</t>
+  </si>
+  <si>
+    <t>include Graph RAG</t>
   </si>
 </sst>
 </file>
@@ -1442,7 +1521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1579,6 +1658,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1588,7 +1670,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1872,10 +1954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H178"/>
+  <dimension ref="A1:H186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1884,7 +1966,7 @@
     <col min="2" max="2" width="25.77734375" style="10" customWidth="1"/>
     <col min="3" max="3" width="29.88671875" style="10" customWidth="1"/>
     <col min="4" max="4" width="23.88671875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="10" customWidth="1"/>
     <col min="6" max="6" width="10.5546875" style="44" customWidth="1"/>
     <col min="7" max="7" width="38" style="10" customWidth="1"/>
     <col min="8" max="8" width="48.5546875" style="10" customWidth="1"/>
@@ -2091,7 +2173,7 @@
       <c r="E14" s="5">
         <v>0.5</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="50">
         <v>5</v>
       </c>
     </row>
@@ -2104,7 +2186,7 @@
         <v>90</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="49">
+      <c r="F15" s="50">
         <v>5</v>
       </c>
     </row>
@@ -2119,7 +2201,7 @@
       <c r="E16" s="5">
         <v>0.5</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="50">
         <v>5</v>
       </c>
     </row>
@@ -2134,7 +2216,7 @@
       <c r="E17" s="6">
         <v>0.5</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="50">
         <v>5</v>
       </c>
     </row>
@@ -2289,7 +2371,7 @@
       <c r="E29" s="19">
         <v>0.75</v>
       </c>
-      <c r="F29" s="49">
+      <c r="F29" s="50">
         <v>5</v>
       </c>
       <c r="G29" s="45" t="s">
@@ -2307,7 +2389,7 @@
       <c r="E30" s="5">
         <v>1</v>
       </c>
-      <c r="F30" s="49">
+      <c r="F30" s="46">
         <v>5</v>
       </c>
     </row>
@@ -2322,7 +2404,7 @@
       <c r="E31" s="5">
         <v>1</v>
       </c>
-      <c r="F31" s="49">
+      <c r="F31" s="46">
         <v>5</v>
       </c>
     </row>
@@ -2337,7 +2419,7 @@
       <c r="E32" s="5">
         <v>4</v>
       </c>
-      <c r="F32" s="49">
+      <c r="F32" s="46">
         <v>5</v>
       </c>
     </row>
@@ -3468,7 +3550,9 @@
       <c r="F134" s="42"/>
     </row>
     <row r="135" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B135" s="13"/>
+      <c r="B135" s="13" t="s">
+        <v>251</v>
+      </c>
       <c r="C135" s="10" t="s">
         <v>128</v>
       </c>
@@ -3684,7 +3768,7 @@
       <c r="B155" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="C155" s="46" t="s">
+      <c r="C155" s="47" t="s">
         <v>195</v>
       </c>
       <c r="F155" s="42"/>
@@ -3694,7 +3778,7 @@
       <c r="B156" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C156" s="47"/>
+      <c r="C156" s="48"/>
       <c r="F156" s="42"/>
     </row>
     <row r="157" spans="1:7" ht="72" x14ac:dyDescent="0.3">
@@ -3704,7 +3788,7 @@
       <c r="B157" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="C157" s="47"/>
+      <c r="C157" s="48"/>
       <c r="F157" s="42"/>
     </row>
     <row r="158" spans="1:7" ht="18" x14ac:dyDescent="0.3">
@@ -3712,7 +3796,7 @@
       <c r="B158" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="C158" s="47"/>
+      <c r="C158" s="48"/>
       <c r="F158" s="42"/>
     </row>
     <row r="159" spans="1:7" ht="18" x14ac:dyDescent="0.3">
@@ -3720,7 +3804,7 @@
       <c r="B159" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="C159" s="47"/>
+      <c r="C159" s="48"/>
       <c r="F159" s="42"/>
     </row>
     <row r="160" spans="1:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -3728,7 +3812,7 @@
       <c r="B160" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="C160" s="48"/>
+      <c r="C160" s="49"/>
       <c r="F160" s="42"/>
     </row>
     <row r="161" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -3738,7 +3822,7 @@
       <c r="B161" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="C161" s="46" t="s">
+      <c r="C161" s="47" t="s">
         <v>195</v>
       </c>
       <c r="F161" s="42"/>
@@ -3748,7 +3832,7 @@
       <c r="B162" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="C162" s="47"/>
+      <c r="C162" s="48"/>
       <c r="F162" s="42"/>
     </row>
     <row r="163" spans="1:6" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -3758,7 +3842,7 @@
       <c r="B163" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="C163" s="48"/>
+      <c r="C163" s="49"/>
       <c r="F163" s="42"/>
     </row>
     <row r="164" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -3768,7 +3852,7 @@
       <c r="B164" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="C164" s="46" t="s">
+      <c r="C164" s="47" t="s">
         <v>195</v>
       </c>
       <c r="F164" s="42"/>
@@ -3778,7 +3862,7 @@
       <c r="B165" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="C165" s="47"/>
+      <c r="C165" s="48"/>
       <c r="F165" s="42"/>
     </row>
     <row r="166" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -3788,7 +3872,7 @@
       <c r="B166" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="C166" s="48"/>
+      <c r="C166" s="49"/>
       <c r="F166" s="42"/>
     </row>
     <row r="167" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -3798,7 +3882,7 @@
       <c r="B167" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="C167" s="46" t="s">
+      <c r="C167" s="47" t="s">
         <v>211</v>
       </c>
       <c r="F167" s="42"/>
@@ -3808,7 +3892,7 @@
       <c r="B168" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="C168" s="47"/>
+      <c r="C168" s="48"/>
       <c r="F168" s="42"/>
     </row>
     <row r="169" spans="1:6" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -3818,7 +3902,7 @@
       <c r="B169" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="C169" s="48"/>
+      <c r="C169" s="49"/>
       <c r="F169" s="42"/>
     </row>
     <row r="170" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -3872,7 +3956,7 @@
       </c>
       <c r="C176"/>
     </row>
-    <row r="177" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="39" t="s">
         <v>218</v>
       </c>
@@ -3881,7 +3965,7 @@
       </c>
       <c r="C177"/>
     </row>
-    <row r="178" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="39" t="s">
         <v>219</v>
       </c>
@@ -3889,6 +3973,90 @@
         <v>215</v>
       </c>
       <c r="C178"/>
+    </row>
+    <row r="181" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B181" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G181" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B182" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D182" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E182" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B183" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D183" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E183" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B184" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C184" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D184" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="E184" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B185" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C185" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D185" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E185" s="10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B186" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C186" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E186" s="10" t="s">
+        <v>249</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/ML-DL-LLMs ver 0.2 - session progress.xlsx
+++ b/ML-DL-LLMs ver 0.2 - session progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gridflowAI\cgi-AI-ML-GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF739682-B7F6-4672-8085-7C56B3C65228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6FBF81-BA1D-4E82-8111-9FF839584889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5745" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36000" yWindow="-6885" windowWidth="18045" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1265,7 +1265,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1290,8 +1290,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1516,12 +1522,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1670,8 +1736,32 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1956,8 +2046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54:E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2173,7 +2263,7 @@
       <c r="E14" s="5">
         <v>0.5</v>
       </c>
-      <c r="F14" s="50">
+      <c r="F14" s="42">
         <v>5</v>
       </c>
     </row>
@@ -2186,7 +2276,7 @@
         <v>90</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="50">
+      <c r="F15" s="42">
         <v>5</v>
       </c>
     </row>
@@ -2201,7 +2291,7 @@
       <c r="E16" s="5">
         <v>0.5</v>
       </c>
-      <c r="F16" s="50">
+      <c r="F16" s="42">
         <v>5</v>
       </c>
     </row>
@@ -2216,7 +2306,7 @@
       <c r="E17" s="6">
         <v>0.5</v>
       </c>
-      <c r="F17" s="50">
+      <c r="F17" s="42">
         <v>5</v>
       </c>
     </row>
@@ -2371,7 +2461,7 @@
       <c r="E29" s="19">
         <v>0.75</v>
       </c>
-      <c r="F29" s="50">
+      <c r="F29" s="42">
         <v>5</v>
       </c>
       <c r="G29" s="45" t="s">
@@ -3974,17 +4064,18 @@
       </c>
       <c r="C178"/>
     </row>
+    <row r="180" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="181" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B181" s="1" t="s">
+      <c r="B181" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C181" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D181" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="E181" s="1" t="s">
+      <c r="E181" s="52" t="s">
         <v>230</v>
       </c>
       <c r="G181" s="10" t="s">
@@ -3992,69 +4083,70 @@
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B182" s="10" t="s">
+      <c r="B182" s="53" t="s">
         <v>232</v>
       </c>
-      <c r="C182" s="10" t="s">
+      <c r="C182" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="D182" s="10" t="s">
+      <c r="D182" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="E182" s="10" t="s">
+      <c r="E182" s="55" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B183" s="10" t="s">
+      <c r="B183" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="C183" s="10" t="s">
+      <c r="C183" s="54" t="s">
         <v>237</v>
       </c>
-      <c r="D183" s="10" t="s">
+      <c r="D183" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="E183" s="10" t="s">
+      <c r="E183" s="55" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B184" s="10" t="s">
+      <c r="B184" s="53" t="s">
         <v>240</v>
       </c>
-      <c r="C184" s="10" t="s">
+      <c r="C184" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="D184" s="10" t="s">
+      <c r="D184" s="54" t="s">
         <v>246</v>
       </c>
-      <c r="E184" s="10" t="s">
+      <c r="E184" s="55" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B185" s="10" t="s">
+      <c r="B185" s="53" t="s">
         <v>241</v>
       </c>
-      <c r="C185" s="10" t="s">
+      <c r="C185" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="D185" s="10" t="s">
+      <c r="D185" s="54" t="s">
         <v>247</v>
       </c>
-      <c r="E185" s="10" t="s">
+      <c r="E185" s="55" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B186" s="10" t="s">
+    <row r="186" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B186" s="56" t="s">
         <v>245</v>
       </c>
-      <c r="C186" s="10" t="s">
+      <c r="C186" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="E186" s="10" t="s">
+      <c r="D186" s="57"/>
+      <c r="E186" s="58" t="s">
         <v>249</v>
       </c>
     </row>

--- a/ML-DL-LLMs ver 0.2 - session progress.xlsx
+++ b/ML-DL-LLMs ver 0.2 - session progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gridflowAI\cgi-AI-ML-GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6FBF81-BA1D-4E82-8111-9FF839584889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18911E7F-887B-4819-AB17-936E62F5C3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="-6885" windowWidth="18045" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29955" yWindow="-8355" windowWidth="21345" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1587,7 +1587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1727,6 +1727,33 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1736,32 +1763,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2046,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54:E57"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2479,7 +2482,7 @@
       <c r="E30" s="5">
         <v>1</v>
       </c>
-      <c r="F30" s="46">
+      <c r="F30" s="59">
         <v>5</v>
       </c>
     </row>
@@ -2494,7 +2497,7 @@
       <c r="E31" s="5">
         <v>1</v>
       </c>
-      <c r="F31" s="46">
+      <c r="F31" s="59">
         <v>5</v>
       </c>
     </row>
@@ -2509,7 +2512,7 @@
       <c r="E32" s="5">
         <v>4</v>
       </c>
-      <c r="F32" s="46">
+      <c r="F32" s="59">
         <v>5</v>
       </c>
     </row>
@@ -2524,7 +2527,9 @@
       <c r="E33" s="5">
         <v>4</v>
       </c>
-      <c r="F33" s="42"/>
+      <c r="F33" s="42">
+        <v>7</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B34" s="15"/>
@@ -2537,7 +2542,9 @@
       <c r="E34" s="6">
         <v>2</v>
       </c>
-      <c r="F34" s="42"/>
+      <c r="F34" s="46">
+        <v>8</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B35" s="11" t="s">
@@ -2593,7 +2600,9 @@
       <c r="E39" s="5">
         <v>0.5</v>
       </c>
-      <c r="F39" s="42"/>
+      <c r="F39" s="46">
+        <v>8</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B40" s="4"/>
@@ -2677,7 +2686,9 @@
       <c r="E46" s="19">
         <v>1</v>
       </c>
-      <c r="F46" s="42"/>
+      <c r="F46" s="46">
+        <v>8</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B47" s="15"/>
@@ -2690,7 +2701,9 @@
       <c r="E47" s="6">
         <v>1</v>
       </c>
-      <c r="F47" s="42"/>
+      <c r="F47" s="46">
+        <v>9</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B48" s="11" t="s">
@@ -3858,7 +3871,7 @@
       <c r="B155" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="C155" s="47" t="s">
+      <c r="C155" s="56" t="s">
         <v>195</v>
       </c>
       <c r="F155" s="42"/>
@@ -3868,7 +3881,7 @@
       <c r="B156" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C156" s="48"/>
+      <c r="C156" s="57"/>
       <c r="F156" s="42"/>
     </row>
     <row r="157" spans="1:7" ht="72" x14ac:dyDescent="0.3">
@@ -3878,7 +3891,7 @@
       <c r="B157" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="C157" s="48"/>
+      <c r="C157" s="57"/>
       <c r="F157" s="42"/>
     </row>
     <row r="158" spans="1:7" ht="18" x14ac:dyDescent="0.3">
@@ -3886,7 +3899,7 @@
       <c r="B158" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="C158" s="48"/>
+      <c r="C158" s="57"/>
       <c r="F158" s="42"/>
     </row>
     <row r="159" spans="1:7" ht="18" x14ac:dyDescent="0.3">
@@ -3894,7 +3907,7 @@
       <c r="B159" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="C159" s="48"/>
+      <c r="C159" s="57"/>
       <c r="F159" s="42"/>
     </row>
     <row r="160" spans="1:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -3902,7 +3915,7 @@
       <c r="B160" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="C160" s="49"/>
+      <c r="C160" s="58"/>
       <c r="F160" s="42"/>
     </row>
     <row r="161" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -3912,7 +3925,7 @@
       <c r="B161" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="C161" s="47" t="s">
+      <c r="C161" s="56" t="s">
         <v>195</v>
       </c>
       <c r="F161" s="42"/>
@@ -3922,7 +3935,7 @@
       <c r="B162" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="C162" s="48"/>
+      <c r="C162" s="57"/>
       <c r="F162" s="42"/>
     </row>
     <row r="163" spans="1:6" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -3932,7 +3945,7 @@
       <c r="B163" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="C163" s="49"/>
+      <c r="C163" s="58"/>
       <c r="F163" s="42"/>
     </row>
     <row r="164" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -3942,7 +3955,7 @@
       <c r="B164" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="C164" s="47" t="s">
+      <c r="C164" s="56" t="s">
         <v>195</v>
       </c>
       <c r="F164" s="42"/>
@@ -3952,7 +3965,7 @@
       <c r="B165" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="C165" s="48"/>
+      <c r="C165" s="57"/>
       <c r="F165" s="42"/>
     </row>
     <row r="166" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -3962,7 +3975,7 @@
       <c r="B166" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="C166" s="49"/>
+      <c r="C166" s="58"/>
       <c r="F166" s="42"/>
     </row>
     <row r="167" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -3972,7 +3985,7 @@
       <c r="B167" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="C167" s="47" t="s">
+      <c r="C167" s="56" t="s">
         <v>211</v>
       </c>
       <c r="F167" s="42"/>
@@ -3982,7 +3995,7 @@
       <c r="B168" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="C168" s="48"/>
+      <c r="C168" s="57"/>
       <c r="F168" s="42"/>
     </row>
     <row r="169" spans="1:6" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -3992,7 +4005,7 @@
       <c r="B169" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="C169" s="49"/>
+      <c r="C169" s="58"/>
       <c r="F169" s="42"/>
     </row>
     <row r="170" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4066,16 +4079,16 @@
     </row>
     <row r="180" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="181" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B181" s="50" t="s">
+      <c r="B181" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="C181" s="51" t="s">
+      <c r="C181" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="D181" s="51" t="s">
+      <c r="D181" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="E181" s="52" t="s">
+      <c r="E181" s="49" t="s">
         <v>230</v>
       </c>
       <c r="G181" s="10" t="s">
@@ -4083,70 +4096,70 @@
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B182" s="53" t="s">
+      <c r="B182" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="C182" s="54" t="s">
+      <c r="C182" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="D182" s="54" t="s">
+      <c r="D182" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="E182" s="55" t="s">
+      <c r="E182" s="52" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B183" s="53" t="s">
+      <c r="B183" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="C183" s="54" t="s">
+      <c r="C183" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="D183" s="54" t="s">
+      <c r="D183" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="E183" s="55" t="s">
+      <c r="E183" s="52" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B184" s="53" t="s">
+      <c r="B184" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="C184" s="54" t="s">
+      <c r="C184" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="D184" s="54" t="s">
+      <c r="D184" s="51" t="s">
         <v>246</v>
       </c>
-      <c r="E184" s="55" t="s">
+      <c r="E184" s="52" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B185" s="53" t="s">
+      <c r="B185" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="C185" s="54" t="s">
+      <c r="C185" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="D185" s="54" t="s">
+      <c r="D185" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="E185" s="55" t="s">
+      <c r="E185" s="52" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B186" s="56" t="s">
+      <c r="B186" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="C186" s="57" t="s">
+      <c r="C186" s="54" t="s">
         <v>250</v>
       </c>
-      <c r="D186" s="57"/>
-      <c r="E186" s="58" t="s">
+      <c r="D186" s="54"/>
+      <c r="E186" s="55" t="s">
         <v>249</v>
       </c>
     </row>

--- a/ML-DL-LLMs ver 0.2 - session progress.xlsx
+++ b/ML-DL-LLMs ver 0.2 - session progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gridflowAI\cgi-AI-ML-GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18911E7F-887B-4819-AB17-936E62F5C3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F857E2A3-A643-4181-90D1-FC93C34C64E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29955" yWindow="-8355" windowWidth="21345" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="0" windowWidth="21576" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="255">
   <si>
     <t>AI Fundamentatals</t>
   </si>
@@ -1128,6 +1128,16 @@
   </si>
   <si>
     <t>include Graph RAG</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PL5Gg_pVF0IkJ3MJGbBG16IjDjv4z6eY8h</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Sdr4xFtyPYc&amp;list=PL5Gg_pVF0IkKsAxs7fEnUcAmThOQk0yPq</t>
+  </si>
+  <si>
+    <t>9
+(self read/watch)</t>
   </si>
 </sst>
 </file>
@@ -1587,7 +1597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1765,6 +1775,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2047,10 +2060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H186"/>
+  <dimension ref="A1:H188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38:C43"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2060,7 +2073,7 @@
     <col min="3" max="3" width="29.88671875" style="10" customWidth="1"/>
     <col min="4" max="4" width="23.88671875" style="10" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="44" customWidth="1"/>
+    <col min="6" max="6" width="13" style="44" customWidth="1"/>
     <col min="7" max="7" width="38" style="10" customWidth="1"/>
     <col min="8" max="8" width="48.5546875" style="10" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="10"/>
@@ -2482,7 +2495,7 @@
       <c r="E30" s="5">
         <v>1</v>
       </c>
-      <c r="F30" s="59">
+      <c r="F30" s="42">
         <v>5</v>
       </c>
     </row>
@@ -2497,9 +2510,10 @@
       <c r="E31" s="5">
         <v>1</v>
       </c>
-      <c r="F31" s="59">
+      <c r="F31" s="42">
         <v>5</v>
       </c>
+      <c r="G31" s="45"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="4"/>
@@ -2512,7 +2526,7 @@
       <c r="E32" s="5">
         <v>4</v>
       </c>
-      <c r="F32" s="59">
+      <c r="F32" s="42">
         <v>5</v>
       </c>
     </row>
@@ -2543,7 +2557,7 @@
         <v>2</v>
       </c>
       <c r="F34" s="46">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -2600,7 +2614,7 @@
       <c r="E39" s="5">
         <v>0.5</v>
       </c>
-      <c r="F39" s="46">
+      <c r="F39" s="59">
         <v>8</v>
       </c>
     </row>
@@ -2615,7 +2629,9 @@
       <c r="E40" s="5">
         <v>0.5</v>
       </c>
-      <c r="F40" s="42"/>
+      <c r="F40" s="42">
+        <v>9</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B41" s="4"/>
@@ -2673,7 +2689,7 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F45" s="42"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>97</v>
       </c>
@@ -2686,120 +2702,115 @@
       <c r="E46" s="19">
         <v>1</v>
       </c>
-      <c r="F46" s="46">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="15"/>
-      <c r="C47" s="16" t="s">
+      <c r="F46" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="G46" s="45" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B47" s="9"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="45" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="9"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="45"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="15"/>
+      <c r="C49" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E47" s="6">
+      <c r="D49" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="6">
         <v>1</v>
       </c>
-      <c r="F47" s="46">
+      <c r="F49" s="46">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="11" t="s">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="F48" s="43"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="42"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="3" t="s">
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F50" s="43"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="42"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C52" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D50" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E50" s="19">
+      <c r="D52" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" s="19">
         <v>0.75</v>
       </c>
-      <c r="F50" s="42"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="15"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="42"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="11" t="s">
+      <c r="F52" s="42"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="15"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="42"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="F52" s="43"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="42"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="3" t="s">
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F54" s="43"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="42"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C56" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D54" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E54" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="F54" s="42"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="9"/>
-      <c r="C55" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E55" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="F55" s="42"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="9"/>
-      <c r="C56" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E56" s="5">
+      <c r="D56" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E56" s="19">
         <v>0.5</v>
       </c>
       <c r="F56" s="42"/>
@@ -2807,84 +2818,84 @@
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="9"/>
       <c r="C57" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="F57" s="42"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="9"/>
+      <c r="C58" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F58" s="42"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="9"/>
+      <c r="C59" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D57" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E57" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F57" s="42"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="15"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="42"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D59" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0.5</v>
+      </c>
       <c r="F59" s="42"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="15"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="42"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F61" s="42"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C62" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D60" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E60" s="19">
+      <c r="D62" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E62" s="19">
         <v>0.75</v>
-      </c>
-      <c r="F60" s="42"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="4"/>
-      <c r="C61" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E61" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="F61" s="42"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="4"/>
-      <c r="C62" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E62" s="5">
-        <v>0.5</v>
       </c>
       <c r="F62" s="42"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="4"/>
       <c r="C63" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E63" s="5">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F63" s="42"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="4"/>
       <c r="C64" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>43</v>
@@ -2897,23 +2908,20 @@
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B65" s="4"/>
       <c r="C65" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E65" s="5">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F65" s="42"/>
-      <c r="G65" s="10" t="s">
-        <v>176</v>
-      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B66" s="4"/>
       <c r="C66" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>43</v>
@@ -2926,77 +2934,80 @@
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B67" s="4"/>
       <c r="C67" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E67" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="F67" s="42"/>
+      <c r="G67" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B68" s="4"/>
+      <c r="C68" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E68" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F68" s="42"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B69" s="4"/>
+      <c r="C69" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D67" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E67" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F67" s="42"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B68" s="15"/>
-      <c r="C68" s="16" t="s">
+      <c r="D69" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E69" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F69" s="42"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B70" s="15"/>
+      <c r="C70" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D68" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E68" s="6">
+      <c r="D70" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E70" s="6">
         <v>1</v>
       </c>
-      <c r="F68" s="42"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F69" s="42"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B70" s="3" t="s">
+      <c r="F70" s="42"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F71" s="42"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B72" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C72" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D70" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E70" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="F70" s="42"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B71" s="4"/>
-      <c r="C71" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E71" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F71" s="42"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B72" s="4"/>
-      <c r="C72" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E72" s="5">
+      <c r="D72" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E72" s="19">
         <v>0.5</v>
       </c>
       <c r="F72" s="42"/>
     </row>
-    <row r="73" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B73" s="4"/>
       <c r="C73" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>43</v>
@@ -3009,112 +3020,112 @@
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B74" s="4"/>
       <c r="C74" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E74" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F74" s="42"/>
+    </row>
+    <row r="75" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B75" s="4"/>
+      <c r="C75" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E75" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F75" s="42"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B76" s="4"/>
+      <c r="C76" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D74" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E74" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F74" s="42"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B75" s="15"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="42"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B76" s="11" t="s">
+      <c r="D76" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E76" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F76" s="42"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B77" s="15"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="42"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B78" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="F76" s="43"/>
-      <c r="G76" s="1">
-        <f>SUM(E38:E77)</f>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F78" s="43"/>
+      <c r="G78" s="1">
+        <f>SUM(E38:E79)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F77" s="42"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F79" s="42"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B80" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C80" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D78" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E78" s="19">
+      <c r="D80" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E80" s="19">
         <v>0.75</v>
       </c>
-      <c r="F78" s="42"/>
-    </row>
-    <row r="79" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B79" s="4"/>
-      <c r="C79" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E79" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="F79" s="42"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B80" s="4"/>
-      <c r="C80" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E80" s="5">
-        <v>0.75</v>
-      </c>
       <c r="F80" s="42"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B81" s="4"/>
       <c r="C81" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E81" s="5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F81" s="42"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B82" s="4"/>
       <c r="C82" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="E82" s="5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F82" s="42"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B83" s="4"/>
       <c r="C83" s="10" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>43</v>
@@ -3126,367 +3137,373 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B84" s="4"/>
-      <c r="E84" s="5"/>
+      <c r="C84" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E84" s="5">
+        <v>1</v>
+      </c>
       <c r="F84" s="42"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B85" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="B85" s="4"/>
       <c r="C85" s="10" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E85" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F85" s="42"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B86" s="4"/>
-      <c r="C86" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E86" s="5">
-        <v>0.5</v>
-      </c>
+      <c r="E86" s="5"/>
       <c r="F86" s="42"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B87" s="4"/>
+      <c r="B87" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="C87" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E87" s="5">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F87" s="42"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B88" s="4"/>
       <c r="C88" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E88" s="5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F88" s="42"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B89" s="4"/>
-      <c r="E89" s="5"/>
+      <c r="C89" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E89" s="5">
+        <v>0.75</v>
+      </c>
       <c r="F89" s="42"/>
     </row>
-    <row r="90" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B90" s="4" t="s">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B90" s="4"/>
+      <c r="C90" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E90" s="5">
+        <v>1</v>
+      </c>
+      <c r="F90" s="42"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B91" s="4"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="42"/>
+    </row>
+    <row r="92" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B92" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C92" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D90" s="10" t="s">
+      <c r="D92" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E90" s="5">
+      <c r="E92" s="5">
         <v>1.5</v>
       </c>
-      <c r="F90" s="42"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B91" s="15"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="42"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B92" s="11" t="s">
+      <c r="F92" s="42"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B93" s="15"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="42"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B94" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="F92" s="43"/>
-      <c r="G92" s="1">
-        <f>SUM(E78:E92)</f>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F94" s="43"/>
+      <c r="G94" s="1">
+        <f>SUM(E80:E94)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F93" s="42"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F95" s="42"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B96" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C94" s="14" t="s">
+      <c r="C96" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D94" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E94" s="19">
+      <c r="D96" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E96" s="19">
         <v>0.75</v>
       </c>
-      <c r="F94" s="42"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B95" s="4"/>
-      <c r="C95" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E95" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F95" s="42"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B96" s="4"/>
-      <c r="E96" s="5"/>
       <c r="F96" s="42"/>
     </row>
-    <row r="97" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B97" s="4"/>
       <c r="C97" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E97" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F97" s="42"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B98" s="4"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="42"/>
+    </row>
+    <row r="99" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B99" s="4"/>
+      <c r="C99" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E97" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F97" s="42"/>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B98" s="4"/>
-      <c r="C98" s="10" t="s">
+      <c r="E99" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F99" s="42"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B100" s="4"/>
+      <c r="C100" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="E98" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F98" s="42"/>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B99" s="4"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="42"/>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B100" s="4" t="s">
+      <c r="E100" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F100" s="42"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B101" s="4"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="42"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B102" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C100" s="10" t="s">
+      <c r="C102" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D100" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E100" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F100" s="42"/>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B101" s="4"/>
-      <c r="C101" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E101" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="F101" s="42"/>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B102" s="4"/>
-      <c r="C102" s="10" t="s">
-        <v>79</v>
-      </c>
       <c r="D102" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E102" s="5">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F102" s="42"/>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B103" s="4"/>
       <c r="C103" s="10" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D103" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E103" s="5">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F103" s="42"/>
     </row>
-    <row r="104" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B104" s="4"/>
       <c r="C104" s="10" t="s">
-        <v>113</v>
+        <v>79</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="E104" s="5">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F104" s="42"/>
     </row>
-    <row r="105" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B105" s="4"/>
       <c r="C105" s="10" t="s">
-        <v>101</v>
+        <v>89</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="E105" s="5">
         <v>0.5</v>
       </c>
       <c r="F105" s="42"/>
     </row>
-    <row r="106" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B106" s="4"/>
       <c r="C106" s="10" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="E106" s="5">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F106" s="42"/>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B107" s="4"/>
       <c r="C107" s="10" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="E107" s="5">
         <v>0.5</v>
       </c>
       <c r="F107" s="42"/>
     </row>
-    <row r="108" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B108" s="4"/>
       <c r="C108" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E108" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="F108" s="42"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B109" s="4"/>
+      <c r="C109" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E109" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F109" s="42"/>
+    </row>
+    <row r="110" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B110" s="4"/>
+      <c r="C110" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E108" s="5">
+      <c r="E110" s="5">
         <v>1</v>
       </c>
-      <c r="F108" s="42"/>
-    </row>
-    <row r="109" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B109" s="4" t="s">
+      <c r="F110" s="42"/>
+    </row>
+    <row r="111" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B111" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C111" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="E109" s="5">
+      <c r="E111" s="5">
         <v>1</v>
       </c>
-      <c r="F109" s="42"/>
-    </row>
-    <row r="110" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B110" s="4" t="s">
+      <c r="F111" s="42"/>
+    </row>
+    <row r="112" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B112" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="C112" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E110" s="5">
+      <c r="E112" s="5">
         <v>0.25</v>
       </c>
-      <c r="F110" s="42"/>
-    </row>
-    <row r="111" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B111" s="13"/>
-      <c r="C111" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E111" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="F111" s="42"/>
-    </row>
-    <row r="112" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B112" s="13"/>
-      <c r="C112" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E112" s="5">
-        <v>0.5</v>
-      </c>
       <c r="F112" s="42"/>
-      <c r="G112" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B113" s="13"/>
       <c r="C113" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E113" s="5">
         <v>0.25</v>
       </c>
       <c r="F113" s="42"/>
-      <c r="G113" s="10" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="114" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B114" s="13"/>
-      <c r="C114" s="21" t="s">
-        <v>109</v>
+      <c r="C114" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="E114" s="5">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F114" s="42"/>
-    </row>
-    <row r="115" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G114" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B115" s="13"/>
-      <c r="C115" s="21" t="s">
-        <v>114</v>
+      <c r="C115" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="E115" s="5">
         <v>0.25</v>
       </c>
       <c r="F115" s="42"/>
-    </row>
-    <row r="116" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G115" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B116" s="13"/>
       <c r="C116" s="21" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E116" s="5">
         <v>0.25</v>
       </c>
       <c r="F116" s="42"/>
     </row>
-    <row r="117" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B117" s="13"/>
       <c r="C117" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E117" s="5">
         <v>0.25</v>
@@ -3496,7 +3513,7 @@
     <row r="118" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B118" s="13"/>
       <c r="C118" s="21" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E118" s="5">
         <v>0.25</v>
@@ -3505,55 +3522,60 @@
     </row>
     <row r="119" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B119" s="13"/>
-      <c r="C119" s="10" t="s">
+      <c r="C119" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E119" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="F119" s="42"/>
+    </row>
+    <row r="120" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B120" s="13"/>
+      <c r="C120" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E120" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="F120" s="42"/>
+    </row>
+    <row r="121" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B121" s="13"/>
+      <c r="C121" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E119" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F119" s="42"/>
-    </row>
-    <row r="120" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B120" s="13"/>
-      <c r="C120" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E120" s="5">
-        <v>1</v>
-      </c>
-      <c r="F120" s="42"/>
-    </row>
-    <row r="121" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B121" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>118</v>
-      </c>
       <c r="E121" s="5">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F121" s="42"/>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B122" s="13"/>
       <c r="C122" s="10" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E122" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F122" s="42"/>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B123" s="13"/>
-      <c r="E123" s="5"/>
+    <row r="123" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B123" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E123" s="5">
+        <v>0.25</v>
+      </c>
       <c r="F123" s="42"/>
     </row>
-    <row r="124" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B124" s="13"/>
       <c r="C124" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E124" s="5">
         <v>0.5</v>
@@ -3562,230 +3584,223 @@
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B125" s="13"/>
-      <c r="C125" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E125" s="5">
-        <v>1</v>
-      </c>
+      <c r="E125" s="5"/>
       <c r="F125" s="42"/>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B126" s="13"/>
       <c r="C126" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E126" s="5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F126" s="42"/>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B127" s="13"/>
-      <c r="E127" s="5"/>
+      <c r="C127" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E127" s="5">
+        <v>1</v>
+      </c>
       <c r="F127" s="42"/>
     </row>
-    <row r="128" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B128" s="13"/>
       <c r="C128" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E128" s="5">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F128" s="42"/>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B129" s="13"/>
-      <c r="C129" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E129" s="5">
-        <v>1</v>
-      </c>
+      <c r="E129" s="5"/>
       <c r="F129" s="42"/>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B130" s="13"/>
       <c r="C130" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E130" s="5">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F130" s="42"/>
     </row>
-    <row r="131" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B131" s="13"/>
       <c r="C131" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E131" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F131" s="42"/>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B132" s="13"/>
       <c r="C132" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E132" s="5">
         <v>1</v>
       </c>
       <c r="F132" s="42"/>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B133" s="4"/>
-      <c r="E133" s="5"/>
+    <row r="133" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B133" s="13"/>
+      <c r="C133" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E133" s="5">
+        <v>0.5</v>
+      </c>
       <c r="F133" s="42"/>
     </row>
-    <row r="134" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B134" s="4" t="s">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B134" s="13"/>
+      <c r="C134" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E134" s="5">
+        <v>1</v>
+      </c>
+      <c r="F134" s="42"/>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B135" s="4"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="42"/>
+    </row>
+    <row r="136" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B136" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C134" s="10" t="s">
+      <c r="C136" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E134" s="5">
+      <c r="E136" s="5">
         <v>0.75</v>
       </c>
-      <c r="F134" s="42"/>
-    </row>
-    <row r="135" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B135" s="13" t="s">
+      <c r="F136" s="42"/>
+    </row>
+    <row r="137" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B137" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="C135" s="10" t="s">
+      <c r="C137" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E135" s="5">
+      <c r="E137" s="5">
         <v>1.5</v>
       </c>
-      <c r="F135" s="42"/>
-    </row>
-    <row r="136" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B136" s="13"/>
-      <c r="C136" s="10" t="s">
+      <c r="F137" s="42"/>
+    </row>
+    <row r="138" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B138" s="13"/>
+      <c r="C138" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E136" s="5">
+      <c r="E138" s="5">
         <v>1.5</v>
       </c>
-      <c r="F136" s="42"/>
-    </row>
-    <row r="137" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B137" s="13"/>
-      <c r="C137" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E137" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F137" s="42"/>
-    </row>
-    <row r="138" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B138" s="13"/>
-      <c r="C138" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="E138" s="5">
-        <v>0.5</v>
-      </c>
       <c r="F138" s="42"/>
     </row>
-    <row r="139" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B139" s="13"/>
       <c r="C139" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E139" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F139" s="42"/>
+    </row>
+    <row r="140" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B140" s="13"/>
+      <c r="C140" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E140" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F140" s="42"/>
+    </row>
+    <row r="141" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B141" s="13"/>
+      <c r="C141" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E139" s="5">
+      <c r="E141" s="5">
         <v>1.5</v>
       </c>
-      <c r="F139" s="42"/>
-    </row>
-    <row r="140" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B140" s="4" t="s">
+      <c r="F141" s="42"/>
+    </row>
+    <row r="142" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B142" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C140" s="10" t="s">
+      <c r="C142" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="E140" s="5">
-        <v>1</v>
-      </c>
-      <c r="F140" s="42"/>
-    </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B141" s="4"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="42"/>
-    </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B142" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C142" s="24" t="s">
-        <v>135</v>
       </c>
       <c r="E142" s="5">
         <v>1</v>
       </c>
       <c r="F142" s="42"/>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B143" s="15"/>
-      <c r="C143" s="26" t="s">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B143" s="4"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="42"/>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B144" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C144" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="E144" s="5">
+        <v>1</v>
+      </c>
+      <c r="F144" s="42"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B145" s="15"/>
+      <c r="C145" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="D143" s="16"/>
-      <c r="E143" s="6">
+      <c r="D145" s="16"/>
+      <c r="E145" s="6">
         <v>1</v>
       </c>
-      <c r="F143" s="42"/>
-    </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F144" s="42"/>
-      <c r="G144" s="1">
-        <f>SUM(E94:E143)</f>
+      <c r="F145" s="42"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F146" s="42"/>
+      <c r="G146" s="1">
+        <f>SUM(E96:E145)</f>
         <v>27.75</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A145" s="25" t="s">
+    <row r="147" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A147" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="B145" s="12" t="s">
+      <c r="B147" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C145" s="14" t="s">
+      <c r="C147" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="D145" s="14"/>
-      <c r="E145" s="19">
+      <c r="D147" s="14"/>
+      <c r="E147" s="19">
         <v>1</v>
-      </c>
-      <c r="F145" s="42"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A146" s="4"/>
-      <c r="B146" s="4"/>
-      <c r="C146" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E146" s="5">
-        <v>1</v>
-      </c>
-      <c r="F146" s="42"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="E147" s="5">
-        <v>0.5</v>
       </c>
       <c r="F147" s="42"/>
     </row>
@@ -3793,7 +3808,7 @@
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E148" s="5">
         <v>1</v>
@@ -3804,379 +3819,403 @@
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E149" s="5">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F149" s="42"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="4"/>
-      <c r="B150" s="4" t="s">
+      <c r="B150" s="4"/>
+      <c r="C150" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E150" s="5">
+        <v>1</v>
+      </c>
+      <c r="F150" s="42"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E151" s="5">
+        <v>2</v>
+      </c>
+      <c r="F151" s="42"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C150" s="10" t="s">
+      <c r="C152" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E150" s="5">
+      <c r="E152" s="5">
         <v>2</v>
       </c>
-      <c r="F150" s="42"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151" s="15"/>
-      <c r="B151" s="15" t="s">
+      <c r="F152" s="42"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" s="15"/>
+      <c r="B153" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="C151" s="16" t="s">
+      <c r="C153" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="D151" s="16"/>
-      <c r="E151" s="6">
+      <c r="D153" s="16"/>
+      <c r="E153" s="6">
         <v>1</v>
       </c>
-      <c r="F151" s="42"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F152" s="42"/>
-      <c r="G152" s="1">
-        <f>SUM(E145:E151)</f>
+      <c r="F153" s="42"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F154" s="42"/>
+      <c r="G154" s="1">
+        <f>SUM(E147:E153)</f>
         <v>8.5</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F153" s="42"/>
-      <c r="G153" s="1">
-        <f>SUM(G2:G152)</f>
+    <row r="155" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F155" s="42"/>
+      <c r="G155" s="1">
+        <f>SUM(G2:G154)</f>
         <v>83.75</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="27" t="s">
+    <row r="156" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="B154" s="28" t="s">
+      <c r="B156" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="C154" s="28" t="s">
+      <c r="C156" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="F154" s="42"/>
-    </row>
-    <row r="155" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A155" s="29" t="s">
+      <c r="F156" s="42"/>
+    </row>
+    <row r="157" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A157" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="B155" s="32" t="s">
+      <c r="B157" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="C155" s="56" t="s">
+      <c r="C157" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="F155" s="42"/>
-    </row>
-    <row r="156" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A156" s="29"/>
-      <c r="B156" s="32" t="s">
+      <c r="F157" s="42"/>
+    </row>
+    <row r="158" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A158" s="29"/>
+      <c r="B158" s="32" t="s">
         <v>190</v>
-      </c>
-      <c r="C156" s="57"/>
-      <c r="F156" s="42"/>
-    </row>
-    <row r="157" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A157" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="B157" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="C157" s="57"/>
-      <c r="F157" s="42"/>
-    </row>
-    <row r="158" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A158" s="30"/>
-      <c r="B158" s="32" t="s">
-        <v>192</v>
       </c>
       <c r="C158" s="57"/>
       <c r="F158" s="42"/>
     </row>
-    <row r="159" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A159" s="30"/>
+    <row r="159" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A159" s="29" t="s">
+        <v>188</v>
+      </c>
       <c r="B159" s="32" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C159" s="57"/>
       <c r="F159" s="42"/>
     </row>
-    <row r="160" spans="1:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="31"/>
-      <c r="B160" s="33" t="s">
+    <row r="160" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A160" s="30"/>
+      <c r="B160" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="C160" s="57"/>
+      <c r="F160" s="42"/>
+    </row>
+    <row r="161" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A161" s="30"/>
+      <c r="B161" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="C161" s="57"/>
+      <c r="F161" s="42"/>
+    </row>
+    <row r="162" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="31"/>
+      <c r="B162" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="C160" s="58"/>
-      <c r="F160" s="42"/>
-    </row>
-    <row r="161" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A161" s="29" t="s">
+      <c r="C162" s="58"/>
+      <c r="F162" s="42"/>
+    </row>
+    <row r="163" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A163" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="B161" s="32" t="s">
+      <c r="B163" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="C161" s="56" t="s">
+      <c r="C163" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="F161" s="42"/>
-    </row>
-    <row r="162" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A162" s="29"/>
-      <c r="B162" s="32" t="s">
+      <c r="F163" s="42"/>
+    </row>
+    <row r="164" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A164" s="29"/>
+      <c r="B164" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="C162" s="57"/>
-      <c r="F162" s="42"/>
-    </row>
-    <row r="163" spans="1:6" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="34" t="s">
+      <c r="C164" s="57"/>
+      <c r="F164" s="42"/>
+    </row>
+    <row r="165" spans="1:6" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="B163" s="33" t="s">
+      <c r="B165" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="C163" s="58"/>
-      <c r="F163" s="42"/>
-    </row>
-    <row r="164" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A164" s="29" t="s">
+      <c r="C165" s="58"/>
+      <c r="F165" s="42"/>
+    </row>
+    <row r="166" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A166" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="B164" s="32" t="s">
+      <c r="B166" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="C164" s="56" t="s">
+      <c r="C166" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="F164" s="42"/>
-    </row>
-    <row r="165" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A165" s="29"/>
-      <c r="B165" s="32" t="s">
+      <c r="F166" s="42"/>
+    </row>
+    <row r="167" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A167" s="29"/>
+      <c r="B167" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="C165" s="57"/>
-      <c r="F165" s="42"/>
-    </row>
-    <row r="166" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="34" t="s">
+      <c r="C167" s="57"/>
+      <c r="F167" s="42"/>
+    </row>
+    <row r="168" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="B166" s="33" t="s">
+      <c r="B168" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="C166" s="58"/>
-      <c r="F166" s="42"/>
-    </row>
-    <row r="167" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A167" s="29" t="s">
+      <c r="C168" s="58"/>
+      <c r="F168" s="42"/>
+    </row>
+    <row r="169" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A169" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="B167" s="32" t="s">
+      <c r="B169" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="C167" s="56" t="s">
+      <c r="C169" s="56" t="s">
         <v>211</v>
       </c>
-      <c r="F167" s="42"/>
-    </row>
-    <row r="168" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A168" s="29"/>
-      <c r="B168" s="32" t="s">
+      <c r="F169" s="42"/>
+    </row>
+    <row r="170" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A170" s="29"/>
+      <c r="B170" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="C168" s="57"/>
-      <c r="F168" s="42"/>
-    </row>
-    <row r="169" spans="1:6" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="34" t="s">
+      <c r="C170" s="57"/>
+      <c r="F170" s="42"/>
+    </row>
+    <row r="171" spans="1:6" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="B169" s="33" t="s">
+      <c r="B171" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="C169" s="58"/>
-      <c r="F169" s="42"/>
-    </row>
-    <row r="170" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A170" s="35"/>
-      <c r="B170"/>
-      <c r="C170"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="B171"/>
-      <c r="C171"/>
+      <c r="C171" s="58"/>
+      <c r="F171" s="42"/>
     </row>
     <row r="172" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A172" s="35" t="s">
-        <v>213</v>
-      </c>
+      <c r="A172" s="35"/>
       <c r="B172"/>
       <c r="C172"/>
     </row>
-    <row r="173" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="35"/>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="36" t="s">
+        <v>212</v>
+      </c>
       <c r="B173"/>
       <c r="C173"/>
     </row>
-    <row r="174" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="37" t="s">
+    <row r="174" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A174" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="B174"/>
+      <c r="C174"/>
+    </row>
+    <row r="175" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="35"/>
+      <c r="B175"/>
+      <c r="C175"/>
+    </row>
+    <row r="176" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="B174" s="38" t="s">
+      <c r="B176" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="C174"/>
-    </row>
-    <row r="175" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="39" t="s">
+      <c r="C176"/>
+    </row>
+    <row r="177" spans="1:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="B175" s="40" t="s">
+      <c r="B177" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="C175"/>
-    </row>
-    <row r="176" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="39" t="s">
+      <c r="C177"/>
+    </row>
+    <row r="178" spans="1:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="B176" s="40" t="s">
+      <c r="B178" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="C176"/>
-    </row>
-    <row r="177" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="39" t="s">
+      <c r="C178"/>
+    </row>
+    <row r="179" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="B177" s="40" t="s">
+      <c r="B179" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="C177"/>
-    </row>
-    <row r="178" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="39" t="s">
+      <c r="C179"/>
+    </row>
+    <row r="180" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="B178" s="40" t="s">
+      <c r="B180" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="C178"/>
-    </row>
-    <row r="180" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="181" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B181" s="47" t="s">
+      <c r="C180"/>
+    </row>
+    <row r="182" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="183" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B183" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="C181" s="48" t="s">
+      <c r="C183" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="D181" s="48" t="s">
+      <c r="D183" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="E181" s="49" t="s">
+      <c r="E183" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="G181" s="10" t="s">
+      <c r="G183" s="10" t="s">
         <v>231</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B182" s="50" t="s">
-        <v>232</v>
-      </c>
-      <c r="C182" s="51" t="s">
-        <v>233</v>
-      </c>
-      <c r="D182" s="51" t="s">
-        <v>234</v>
-      </c>
-      <c r="E182" s="52" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B183" s="50" t="s">
-        <v>236</v>
-      </c>
-      <c r="C183" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="D183" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="E183" s="52" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B184" s="50" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C184" s="51" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D184" s="51" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="E184" s="52" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B185" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="C185" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="D185" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="E185" s="52" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B186" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="C186" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="D186" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="E186" s="52" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B187" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="C185" s="51" t="s">
+      <c r="C187" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="D185" s="51" t="s">
+      <c r="D187" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="E185" s="52" t="s">
+      <c r="E187" s="52" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B186" s="53" t="s">
+    <row r="188" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B188" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="C186" s="54" t="s">
+      <c r="C188" s="54" t="s">
         <v>250</v>
       </c>
-      <c r="D186" s="54"/>
-      <c r="E186" s="55" t="s">
+      <c r="D188" s="54"/>
+      <c r="E188" s="55" t="s">
         <v>249</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C155:C160"/>
-    <mergeCell ref="C161:C163"/>
-    <mergeCell ref="C164:C166"/>
-    <mergeCell ref="C167:C169"/>
+    <mergeCell ref="C157:C162"/>
+    <mergeCell ref="C163:C165"/>
+    <mergeCell ref="C166:C168"/>
+    <mergeCell ref="C169:C171"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G20" r:id="rId1" xr:uid="{8E0293B7-93B8-4EB1-A0D2-43896432E6DF}"/>
     <hyperlink ref="G10" r:id="rId2" xr:uid="{39E4BDE5-30CD-4DC0-A1D7-1C29F6A4F891}"/>
     <hyperlink ref="G29" r:id="rId3" xr:uid="{F079AFBB-415D-4EA3-944F-3494D265CAB1}"/>
+    <hyperlink ref="G46" r:id="rId4" xr:uid="{1064F469-B7C8-4D16-BD64-8F41BD9470B2}"/>
+    <hyperlink ref="G47" r:id="rId5" xr:uid="{DC9B39C9-3C45-405D-AE7D-1D5E16B5F60F}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/ML-DL-LLMs ver 0.2 - session progress.xlsx
+++ b/ML-DL-LLMs ver 0.2 - session progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gridflowAI\cgi-AI-ML-GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F857E2A3-A643-4181-90D1-FC93C34C64E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E3C79A-831A-4688-9D60-F2E54A7534B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="0" windowWidth="21576" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30885" yWindow="-8730" windowWidth="20025" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="256">
   <si>
     <t>AI Fundamentatals</t>
   </si>
@@ -1136,8 +1136,11 @@
     <t>https://www.youtube.com/watch?v=Sdr4xFtyPYc&amp;list=PL5Gg_pVF0IkKsAxs7fEnUcAmThOQk0yPq</t>
   </si>
   <si>
-    <t>9
+    <t>10
 (self read/watch)</t>
+  </si>
+  <si>
+    <t>09 and 10th</t>
   </si>
 </sst>
 </file>
@@ -1773,11 +1776,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2062,8 +2065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2556,8 +2559,8 @@
       <c r="E34" s="6">
         <v>2</v>
       </c>
-      <c r="F34" s="46">
-        <v>9</v>
+      <c r="F34" s="59" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -2614,7 +2617,7 @@
       <c r="E39" s="5">
         <v>0.5</v>
       </c>
-      <c r="F39" s="59">
+      <c r="F39" s="42">
         <v>8</v>
       </c>
     </row>
@@ -2629,8 +2632,8 @@
       <c r="E40" s="5">
         <v>0.5</v>
       </c>
-      <c r="F40" s="42">
-        <v>9</v>
+      <c r="F40" s="60">
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2689,7 +2692,7 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F45" s="42"/>
     </row>
-    <row r="46" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>97</v>
       </c>
@@ -2711,8 +2714,6 @@
     </row>
     <row r="47" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B47" s="9"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
       <c r="E47" s="5"/>
       <c r="F47" s="46"/>
       <c r="G47" s="45" t="s">
@@ -2721,8 +2722,6 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B48" s="9"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
       <c r="E48" s="5"/>
       <c r="F48" s="46"/>
       <c r="G48" s="45"/>
@@ -2739,7 +2738,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="46">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">

--- a/ML-DL-LLMs ver 0.2 - session progress.xlsx
+++ b/ML-DL-LLMs ver 0.2 - session progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gridflowAI\cgi-AI-ML-GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E3C79A-831A-4688-9D60-F2E54A7534B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C562B1A-8444-413F-B9E1-7B8DF4A7DDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30885" yWindow="-8730" windowWidth="20025" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30885" yWindow="-7200" windowWidth="16095" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="261">
   <si>
     <t>AI Fundamentatals</t>
   </si>
@@ -1141,6 +1141,21 @@
   </si>
   <si>
     <t>09 and 10th</t>
+  </si>
+  <si>
+    <t>EDA</t>
+  </si>
+  <si>
+    <t>Choice of ML</t>
+  </si>
+  <si>
+    <t>CV/ Tuning</t>
+  </si>
+  <si>
+    <t>2. Merc dataset - regression</t>
+  </si>
+  <si>
+    <t>1. CA housing - regression (Group 2)</t>
   </si>
 </sst>
 </file>
@@ -1600,7 +1615,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1767,6 +1782,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1775,12 +1793,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2063,17 +2075,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H188"/>
+  <dimension ref="A1:H195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D202" sqref="D202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" style="10" customWidth="1"/>
     <col min="2" max="2" width="25.77734375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="35.44140625" style="10" customWidth="1"/>
     <col min="4" max="4" width="23.88671875" style="10" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" style="10" customWidth="1"/>
     <col min="6" max="6" width="13" style="44" customWidth="1"/>
@@ -2559,7 +2571,7 @@
       <c r="E34" s="6">
         <v>2</v>
       </c>
-      <c r="F34" s="59" t="s">
+      <c r="F34" s="56" t="s">
         <v>255</v>
       </c>
     </row>
@@ -2632,7 +2644,7 @@
       <c r="E40" s="5">
         <v>0.5</v>
       </c>
-      <c r="F40" s="60">
+      <c r="F40" s="42">
         <v>10</v>
       </c>
     </row>
@@ -3907,7 +3919,7 @@
       <c r="B157" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="C157" s="56" t="s">
+      <c r="C157" s="57" t="s">
         <v>195</v>
       </c>
       <c r="F157" s="42"/>
@@ -3917,7 +3929,7 @@
       <c r="B158" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C158" s="57"/>
+      <c r="C158" s="58"/>
       <c r="F158" s="42"/>
     </row>
     <row r="159" spans="1:7" ht="72" x14ac:dyDescent="0.3">
@@ -3927,7 +3939,7 @@
       <c r="B159" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="C159" s="57"/>
+      <c r="C159" s="58"/>
       <c r="F159" s="42"/>
     </row>
     <row r="160" spans="1:7" ht="18" x14ac:dyDescent="0.3">
@@ -3935,7 +3947,7 @@
       <c r="B160" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="C160" s="57"/>
+      <c r="C160" s="58"/>
       <c r="F160" s="42"/>
     </row>
     <row r="161" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -3943,7 +3955,7 @@
       <c r="B161" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="C161" s="57"/>
+      <c r="C161" s="58"/>
       <c r="F161" s="42"/>
     </row>
     <row r="162" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -3951,7 +3963,7 @@
       <c r="B162" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="C162" s="58"/>
+      <c r="C162" s="59"/>
       <c r="F162" s="42"/>
     </row>
     <row r="163" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -3961,7 +3973,7 @@
       <c r="B163" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="C163" s="56" t="s">
+      <c r="C163" s="57" t="s">
         <v>195</v>
       </c>
       <c r="F163" s="42"/>
@@ -3971,7 +3983,7 @@
       <c r="B164" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="C164" s="57"/>
+      <c r="C164" s="58"/>
       <c r="F164" s="42"/>
     </row>
     <row r="165" spans="1:6" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -3981,7 +3993,7 @@
       <c r="B165" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="C165" s="58"/>
+      <c r="C165" s="59"/>
       <c r="F165" s="42"/>
     </row>
     <row r="166" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -3991,7 +4003,7 @@
       <c r="B166" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="C166" s="56" t="s">
+      <c r="C166" s="57" t="s">
         <v>195</v>
       </c>
       <c r="F166" s="42"/>
@@ -4001,7 +4013,7 @@
       <c r="B167" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="C167" s="57"/>
+      <c r="C167" s="58"/>
       <c r="F167" s="42"/>
     </row>
     <row r="168" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4011,7 +4023,7 @@
       <c r="B168" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="C168" s="58"/>
+      <c r="C168" s="59"/>
       <c r="F168" s="42"/>
     </row>
     <row r="169" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4021,7 +4033,7 @@
       <c r="B169" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="C169" s="56" t="s">
+      <c r="C169" s="57" t="s">
         <v>211</v>
       </c>
       <c r="F169" s="42"/>
@@ -4031,7 +4043,7 @@
       <c r="B170" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="C170" s="57"/>
+      <c r="C170" s="58"/>
       <c r="F170" s="42"/>
     </row>
     <row r="171" spans="1:6" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -4041,7 +4053,7 @@
       <c r="B171" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="C171" s="58"/>
+      <c r="C171" s="59"/>
       <c r="F171" s="42"/>
     </row>
     <row r="172" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4197,6 +4209,40 @@
       <c r="D188" s="54"/>
       <c r="E188" s="55" t="s">
         <v>249</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B191" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C191" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B192" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C192" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B193" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B194" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C194" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B195" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/ML-DL-LLMs ver 0.2 - session progress.xlsx
+++ b/ML-DL-LLMs ver 0.2 - session progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gridflowAI\cgi-AI-ML-GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C562B1A-8444-413F-B9E1-7B8DF4A7DDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D5FFAF-88E1-4BDD-B35B-2E1A529B1D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30885" yWindow="-7200" windowWidth="16095" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="19284" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2077,8 +2077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D202" sqref="D202"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2750,7 +2750,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="46">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
@@ -3465,7 +3465,7 @@
       </c>
       <c r="F112" s="42"/>
     </row>
-    <row r="113" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B113" s="13"/>
       <c r="C113" s="10" t="s">
         <v>106</v>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="F116" s="42"/>
     </row>
-    <row r="117" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B117" s="13"/>
       <c r="C117" s="21" t="s">
         <v>114</v>

--- a/ML-DL-LLMs ver 0.2 - session progress.xlsx
+++ b/ML-DL-LLMs ver 0.2 - session progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gridflowAI\cgi-AI-ML-GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D5FFAF-88E1-4BDD-B35B-2E1A529B1D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1AD13E-03BD-4F39-B1E5-F240332EDFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="19284" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30990" yWindow="-5985" windowWidth="19290" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="263">
   <si>
     <t>AI Fundamentatals</t>
   </si>
@@ -1152,10 +1152,16 @@
     <t>CV/ Tuning</t>
   </si>
   <si>
-    <t>2. Merc dataset - regression</t>
-  </si>
-  <si>
     <t>1. CA housing - regression (Group 2)</t>
+  </si>
+  <si>
+    <t>2. Merc dataset - regression (Group 1)</t>
+  </si>
+  <si>
+    <t>classifcation</t>
+  </si>
+  <si>
+    <t>Anomaly</t>
   </si>
 </sst>
 </file>
@@ -2077,8 +2083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2659,7 +2665,9 @@
       <c r="E41" s="5">
         <v>0.25</v>
       </c>
-      <c r="F41" s="42"/>
+      <c r="F41" s="46">
+        <v>11</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B42" s="4"/>
@@ -2688,7 +2696,9 @@
       <c r="E43" s="6">
         <v>0.5</v>
       </c>
-      <c r="F43" s="42"/>
+      <c r="F43" s="46">
+        <v>11</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
@@ -3041,7 +3051,7 @@
       </c>
       <c r="F74" s="42"/>
     </row>
-    <row r="75" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B75" s="4"/>
       <c r="C75" s="10" t="s">
         <v>65</v>
@@ -3110,7 +3120,7 @@
       </c>
       <c r="F80" s="42"/>
     </row>
-    <row r="81" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B81" s="4"/>
       <c r="C81" s="10" t="s">
         <v>73</v>
@@ -3401,7 +3411,7 @@
       </c>
       <c r="F106" s="42"/>
     </row>
-    <row r="107" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B107" s="4"/>
       <c r="C107" s="10" t="s">
         <v>101</v>
@@ -3501,7 +3511,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="116" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B116" s="13"/>
       <c r="C116" s="21" t="s">
         <v>109</v>
@@ -3521,7 +3531,7 @@
       </c>
       <c r="F117" s="42"/>
     </row>
-    <row r="118" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B118" s="13"/>
       <c r="C118" s="21" t="s">
         <v>115</v>
@@ -3663,7 +3673,7 @@
       </c>
       <c r="F132" s="42"/>
     </row>
-    <row r="133" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B133" s="13"/>
       <c r="C133" s="10" t="s">
         <v>124</v>
@@ -3732,7 +3742,7 @@
       </c>
       <c r="F139" s="42"/>
     </row>
-    <row r="140" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B140" s="13"/>
       <c r="C140" s="23" t="s">
         <v>131</v>
@@ -4211,12 +4221,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B191" s="10" t="s">
         <v>256</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
@@ -4224,20 +4234,23 @@
         <v>144</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B193" s="10" t="s">
         <v>257</v>
       </c>
+      <c r="C193" s="10" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B194" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C194" s="10">
-        <v>3</v>
+      <c r="C194" s="10" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.3">

--- a/ML-DL-LLMs ver 0.2 - session progress.xlsx
+++ b/ML-DL-LLMs ver 0.2 - session progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gridflowAI\cgi-AI-ML-GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1AD13E-03BD-4F39-B1E5-F240332EDFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B69A91-12C4-4D9E-84E5-07DBF4E2F26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30990" yWindow="-5985" windowWidth="19290" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30990" yWindow="-7905" windowWidth="21735" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1299,7 +1299,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1330,6 +1330,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="26">
     <border>
@@ -1621,7 +1627,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1799,6 +1805,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2083,8 +2095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2622,7 +2634,9 @@
       <c r="E38" s="19">
         <v>0.5</v>
       </c>
-      <c r="F38" s="42"/>
+      <c r="F38" s="46">
+        <v>12</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B39" s="4"/>
@@ -2666,7 +2680,7 @@
         <v>0.25</v>
       </c>
       <c r="F41" s="46">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2697,7 +2711,7 @@
         <v>0.5</v>
       </c>
       <c r="F43" s="46">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -2727,7 +2741,7 @@
       <c r="E46" s="19">
         <v>1</v>
       </c>
-      <c r="F46" s="46" t="s">
+      <c r="F46" s="61" t="s">
         <v>254</v>
       </c>
       <c r="G46" s="45" t="s">
@@ -2737,7 +2751,7 @@
     <row r="47" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B47" s="9"/>
       <c r="E47" s="5"/>
-      <c r="F47" s="46"/>
+      <c r="F47" s="61"/>
       <c r="G47" s="45" t="s">
         <v>253</v>
       </c>
@@ -2745,7 +2759,7 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B48" s="9"/>
       <c r="E48" s="5"/>
-      <c r="F48" s="46"/>
+      <c r="F48" s="61"/>
       <c r="G48" s="45"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
@@ -2759,7 +2773,7 @@
       <c r="E49" s="6">
         <v>1</v>
       </c>
-      <c r="F49" s="46">
+      <c r="F49" s="60">
         <v>11</v>
       </c>
     </row>
@@ -2834,7 +2848,9 @@
       <c r="E56" s="19">
         <v>0.5</v>
       </c>
-      <c r="F56" s="42"/>
+      <c r="F56" s="46">
+        <v>12</v>
+      </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="9"/>

--- a/ML-DL-LLMs ver 0.2 - session progress.xlsx
+++ b/ML-DL-LLMs ver 0.2 - session progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gridflowAI\cgi-AI-ML-GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B69A91-12C4-4D9E-84E5-07DBF4E2F26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF92CA32-4F38-42BD-A784-988FB06822D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30990" yWindow="-7905" windowWidth="21735" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1284" yWindow="0" windowWidth="21756" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1158,10 +1158,10 @@
     <t>2. Merc dataset - regression (Group 1)</t>
   </si>
   <si>
-    <t>classifcation</t>
-  </si>
-  <si>
-    <t>Anomaly</t>
+    <t>3. credit score classification (Group 3)</t>
+  </si>
+  <si>
+    <t>4. credit card fraud data - classification , as well as anomaly detection (Group 4)</t>
   </si>
 </sst>
 </file>
@@ -1627,7 +1627,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1797,6 +1797,9 @@
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1805,12 +1808,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2095,8 +2092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A183" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B196" sqref="B196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2741,7 +2738,7 @@
       <c r="E46" s="19">
         <v>1</v>
       </c>
-      <c r="F46" s="61" t="s">
+      <c r="F46" s="42" t="s">
         <v>254</v>
       </c>
       <c r="G46" s="45" t="s">
@@ -2751,7 +2748,7 @@
     <row r="47" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B47" s="9"/>
       <c r="E47" s="5"/>
-      <c r="F47" s="61"/>
+      <c r="F47" s="42"/>
       <c r="G47" s="45" t="s">
         <v>253</v>
       </c>
@@ -2759,7 +2756,7 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B48" s="9"/>
       <c r="E48" s="5"/>
-      <c r="F48" s="61"/>
+      <c r="F48" s="42"/>
       <c r="G48" s="45"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
@@ -2773,7 +2770,7 @@
       <c r="E49" s="6">
         <v>1</v>
       </c>
-      <c r="F49" s="60">
+      <c r="F49" s="57">
         <v>11</v>
       </c>
     </row>
@@ -3945,7 +3942,7 @@
       <c r="B157" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="C157" s="57" t="s">
+      <c r="C157" s="58" t="s">
         <v>195</v>
       </c>
       <c r="F157" s="42"/>
@@ -3955,7 +3952,7 @@
       <c r="B158" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C158" s="58"/>
+      <c r="C158" s="59"/>
       <c r="F158" s="42"/>
     </row>
     <row r="159" spans="1:7" ht="72" x14ac:dyDescent="0.3">
@@ -3965,7 +3962,7 @@
       <c r="B159" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="C159" s="58"/>
+      <c r="C159" s="59"/>
       <c r="F159" s="42"/>
     </row>
     <row r="160" spans="1:7" ht="18" x14ac:dyDescent="0.3">
@@ -3973,7 +3970,7 @@
       <c r="B160" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="C160" s="58"/>
+      <c r="C160" s="59"/>
       <c r="F160" s="42"/>
     </row>
     <row r="161" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -3981,7 +3978,7 @@
       <c r="B161" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="C161" s="58"/>
+      <c r="C161" s="59"/>
       <c r="F161" s="42"/>
     </row>
     <row r="162" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -3989,7 +3986,7 @@
       <c r="B162" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="C162" s="59"/>
+      <c r="C162" s="60"/>
       <c r="F162" s="42"/>
     </row>
     <row r="163" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -3999,7 +3996,7 @@
       <c r="B163" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="C163" s="57" t="s">
+      <c r="C163" s="58" t="s">
         <v>195</v>
       </c>
       <c r="F163" s="42"/>
@@ -4009,7 +4006,7 @@
       <c r="B164" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="C164" s="58"/>
+      <c r="C164" s="59"/>
       <c r="F164" s="42"/>
     </row>
     <row r="165" spans="1:6" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4019,7 +4016,7 @@
       <c r="B165" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="C165" s="59"/>
+      <c r="C165" s="60"/>
       <c r="F165" s="42"/>
     </row>
     <row r="166" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4029,7 +4026,7 @@
       <c r="B166" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="C166" s="57" t="s">
+      <c r="C166" s="58" t="s">
         <v>195</v>
       </c>
       <c r="F166" s="42"/>
@@ -4039,7 +4036,7 @@
       <c r="B167" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="C167" s="58"/>
+      <c r="C167" s="59"/>
       <c r="F167" s="42"/>
     </row>
     <row r="168" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4049,7 +4046,7 @@
       <c r="B168" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="C168" s="59"/>
+      <c r="C168" s="60"/>
       <c r="F168" s="42"/>
     </row>
     <row r="169" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4059,7 +4056,7 @@
       <c r="B169" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="C169" s="57" t="s">
+      <c r="C169" s="58" t="s">
         <v>211</v>
       </c>
       <c r="F169" s="42"/>
@@ -4069,7 +4066,7 @@
       <c r="B170" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="C170" s="58"/>
+      <c r="C170" s="59"/>
       <c r="F170" s="42"/>
     </row>
     <row r="171" spans="1:6" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -4079,7 +4076,7 @@
       <c r="B171" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="C171" s="59"/>
+      <c r="C171" s="60"/>
       <c r="F171" s="42"/>
     </row>
     <row r="172" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4258,15 +4255,15 @@
         <v>257</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B194" s="10" t="s">
         <v>258</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.3">

--- a/ML-DL-LLMs ver 0.2 - session progress.xlsx
+++ b/ML-DL-LLMs ver 0.2 - session progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gridflowAI\cgi-AI-ML-GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF92CA32-4F38-42BD-A784-988FB06822D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F3BE3B-8984-4F94-8196-F2724AC9DE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1284" yWindow="0" windowWidth="21756" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30360" yWindow="-8505" windowWidth="20745" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="266">
   <si>
     <t>AI Fundamentatals</t>
   </si>
@@ -1163,12 +1163,21 @@
   <si>
     <t>4. credit card fraud data - classification , as well as anomaly detection (Group 4)</t>
   </si>
+  <si>
+    <t>Week2-3 (use cases)</t>
+  </si>
+  <si>
+    <t>Save/load models</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/datasets/mlg-ulb/creditcardfraud</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1298,8 +1307,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1330,12 +1354,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="26">
     <border>
@@ -1627,7 +1645,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1767,39 +1785,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1808,6 +1796,63 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2090,10 +2135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H195"/>
+  <dimension ref="A1:H196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B196" sqref="B196"/>
+    <sheetView tabSelected="1" topLeftCell="A177" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G153" sqref="G153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2586,7 +2631,7 @@
       <c r="E34" s="6">
         <v>2</v>
       </c>
-      <c r="F34" s="56" t="s">
+      <c r="F34" s="47" t="s">
         <v>255</v>
       </c>
     </row>
@@ -2722,20 +2767,20 @@
       </c>
       <c r="F44" s="43"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F45" s="42"/>
     </row>
     <row r="46" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E46" s="19">
+      <c r="D46" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="64">
         <v>1</v>
       </c>
       <c r="F46" s="42" t="s">
@@ -2746,31 +2791,35 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B47" s="9"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="42"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="61"/>
       <c r="G47" s="45" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="9"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="42"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="61"/>
       <c r="G48" s="45"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="15"/>
-      <c r="C49" s="16" t="s">
+    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="67"/>
+      <c r="C49" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E49" s="6">
+      <c r="D49" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="69">
         <v>1</v>
       </c>
-      <c r="F49" s="57">
+      <c r="F49" s="61">
         <v>11</v>
       </c>
     </row>
@@ -3942,7 +3991,7 @@
       <c r="B157" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="C157" s="58" t="s">
+      <c r="C157" s="48" t="s">
         <v>195</v>
       </c>
       <c r="F157" s="42"/>
@@ -3952,7 +4001,7 @@
       <c r="B158" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C158" s="59"/>
+      <c r="C158" s="49"/>
       <c r="F158" s="42"/>
     </row>
     <row r="159" spans="1:7" ht="72" x14ac:dyDescent="0.3">
@@ -3962,7 +4011,7 @@
       <c r="B159" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="C159" s="59"/>
+      <c r="C159" s="49"/>
       <c r="F159" s="42"/>
     </row>
     <row r="160" spans="1:7" ht="18" x14ac:dyDescent="0.3">
@@ -3970,7 +4019,7 @@
       <c r="B160" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="C160" s="59"/>
+      <c r="C160" s="49"/>
       <c r="F160" s="42"/>
     </row>
     <row r="161" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -3978,7 +4027,7 @@
       <c r="B161" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="C161" s="59"/>
+      <c r="C161" s="49"/>
       <c r="F161" s="42"/>
     </row>
     <row r="162" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -3986,7 +4035,7 @@
       <c r="B162" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="C162" s="60"/>
+      <c r="C162" s="50"/>
       <c r="F162" s="42"/>
     </row>
     <row r="163" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -3996,7 +4045,7 @@
       <c r="B163" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="C163" s="58" t="s">
+      <c r="C163" s="48" t="s">
         <v>195</v>
       </c>
       <c r="F163" s="42"/>
@@ -4006,7 +4055,7 @@
       <c r="B164" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="C164" s="59"/>
+      <c r="C164" s="49"/>
       <c r="F164" s="42"/>
     </row>
     <row r="165" spans="1:6" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4016,7 +4065,7 @@
       <c r="B165" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="C165" s="60"/>
+      <c r="C165" s="50"/>
       <c r="F165" s="42"/>
     </row>
     <row r="166" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4026,7 +4075,7 @@
       <c r="B166" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="C166" s="58" t="s">
+      <c r="C166" s="48" t="s">
         <v>195</v>
       </c>
       <c r="F166" s="42"/>
@@ -4036,7 +4085,7 @@
       <c r="B167" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="C167" s="59"/>
+      <c r="C167" s="49"/>
       <c r="F167" s="42"/>
     </row>
     <row r="168" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4046,7 +4095,7 @@
       <c r="B168" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="C168" s="60"/>
+      <c r="C168" s="50"/>
       <c r="F168" s="42"/>
     </row>
     <row r="169" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4056,7 +4105,7 @@
       <c r="B169" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="C169" s="58" t="s">
+      <c r="C169" s="48" t="s">
         <v>211</v>
       </c>
       <c r="F169" s="42"/>
@@ -4066,7 +4115,7 @@
       <c r="B170" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="C170" s="59"/>
+      <c r="C170" s="49"/>
       <c r="F170" s="42"/>
     </row>
     <row r="171" spans="1:6" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -4076,7 +4125,7 @@
       <c r="B171" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="C171" s="60"/>
+      <c r="C171" s="50"/>
       <c r="F171" s="42"/>
     </row>
     <row r="172" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4150,88 +4199,93 @@
     </row>
     <row r="182" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="183" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B183" s="47" t="s">
+      <c r="B183" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="C183" s="48" t="s">
+      <c r="C183" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="D183" s="48" t="s">
+      <c r="D183" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="E183" s="49" t="s">
+      <c r="E183" s="53" t="s">
         <v>230</v>
       </c>
       <c r="G183" s="10" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B184" s="50" t="s">
+    <row r="184" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="B184" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="C184" s="51" t="s">
+      <c r="C184" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="D184" s="51" t="s">
+      <c r="D184" s="55" t="s">
         <v>234</v>
       </c>
-      <c r="E184" s="52" t="s">
+      <c r="E184" s="56" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B185" s="50" t="s">
+    <row r="185" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="B185" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="C185" s="51" t="s">
+      <c r="C185" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="D185" s="51" t="s">
+      <c r="D185" s="55" t="s">
         <v>238</v>
       </c>
-      <c r="E185" s="52" t="s">
+      <c r="E185" s="56" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B186" s="50" t="s">
+    <row r="186" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="B186" s="54" t="s">
         <v>240</v>
       </c>
-      <c r="C186" s="51" t="s">
+      <c r="C186" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="D186" s="51" t="s">
+      <c r="D186" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="E186" s="52" t="s">
+      <c r="E186" s="56" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B187" s="50" t="s">
+    <row r="187" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="B187" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="C187" s="51" t="s">
+      <c r="C187" s="55" t="s">
         <v>248</v>
       </c>
-      <c r="D187" s="51" t="s">
+      <c r="D187" s="55" t="s">
         <v>247</v>
       </c>
-      <c r="E187" s="52" t="s">
+      <c r="E187" s="56" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B188" s="53" t="s">
+    <row r="188" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B188" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="C188" s="54" t="s">
+      <c r="C188" s="58" t="s">
         <v>250</v>
       </c>
-      <c r="D188" s="54"/>
-      <c r="E188" s="55" t="s">
+      <c r="D188" s="58"/>
+      <c r="E188" s="59" t="s">
         <v>249</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C190" s="1" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
@@ -4250,7 +4304,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B193" s="10" t="s">
         <v>257</v>
       </c>
@@ -4258,17 +4312,25 @@
         <v>261</v>
       </c>
     </row>
-    <row r="194" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B194" s="10" t="s">
         <v>258</v>
       </c>
       <c r="C194" s="10" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D194" s="45" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B195" s="10" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B196" s="10" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -4284,9 +4346,10 @@
     <hyperlink ref="G29" r:id="rId3" xr:uid="{F079AFBB-415D-4EA3-944F-3494D265CAB1}"/>
     <hyperlink ref="G46" r:id="rId4" xr:uid="{1064F469-B7C8-4D16-BD64-8F41BD9470B2}"/>
     <hyperlink ref="G47" r:id="rId5" xr:uid="{DC9B39C9-3C45-405D-AE7D-1D5E16B5F60F}"/>
+    <hyperlink ref="D194" r:id="rId6" xr:uid="{7D0C916F-9D79-46BB-91AB-8D082F732B82}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/ML-DL-LLMs ver 0.2 - session progress.xlsx
+++ b/ML-DL-LLMs ver 0.2 - session progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gridflowAI\cgi-AI-ML-GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F3BE3B-8984-4F94-8196-F2724AC9DE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3C95D3-3DC5-4B97-BA23-D8A4E1888359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30360" yWindow="-8505" windowWidth="20745" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1645,7 +1645,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1788,6 +1788,57 @@
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1797,62 +1848,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2137,8 +2134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G153" sqref="G153"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2676,7 +2673,7 @@
       <c r="E38" s="19">
         <v>0.5</v>
       </c>
-      <c r="F38" s="46">
+      <c r="F38" s="68">
         <v>12</v>
       </c>
     </row>
@@ -2721,7 +2718,7 @@
       <c r="E41" s="5">
         <v>0.25</v>
       </c>
-      <c r="F41" s="46">
+      <c r="F41" s="68">
         <v>12</v>
       </c>
     </row>
@@ -2771,16 +2768,16 @@
       <c r="F45" s="42"/>
     </row>
     <row r="46" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B46" s="62" t="s">
+      <c r="B46" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="63" t="s">
+      <c r="C46" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="E46" s="64">
+      <c r="D46" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="59">
         <v>1</v>
       </c>
       <c r="F46" s="42" t="s">
@@ -2791,35 +2788,31 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B47" s="65"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="61"/>
+      <c r="B47" s="60"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="42"/>
       <c r="G47" s="45" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="65"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="61"/>
+      <c r="B48" s="60"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="42"/>
       <c r="G48" s="45"/>
     </row>
     <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="67"/>
-      <c r="C49" s="68" t="s">
+      <c r="B49" s="62"/>
+      <c r="C49" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="E49" s="69">
+      <c r="D49" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="64">
         <v>1</v>
       </c>
-      <c r="F49" s="61">
+      <c r="F49" s="42">
         <v>11</v>
       </c>
     </row>
@@ -3991,7 +3984,7 @@
       <c r="B157" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="C157" s="48" t="s">
+      <c r="C157" s="65" t="s">
         <v>195</v>
       </c>
       <c r="F157" s="42"/>
@@ -4001,7 +3994,7 @@
       <c r="B158" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C158" s="49"/>
+      <c r="C158" s="66"/>
       <c r="F158" s="42"/>
     </row>
     <row r="159" spans="1:7" ht="72" x14ac:dyDescent="0.3">
@@ -4011,7 +4004,7 @@
       <c r="B159" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="C159" s="49"/>
+      <c r="C159" s="66"/>
       <c r="F159" s="42"/>
     </row>
     <row r="160" spans="1:7" ht="18" x14ac:dyDescent="0.3">
@@ -4019,7 +4012,7 @@
       <c r="B160" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="C160" s="49"/>
+      <c r="C160" s="66"/>
       <c r="F160" s="42"/>
     </row>
     <row r="161" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4027,7 +4020,7 @@
       <c r="B161" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="C161" s="49"/>
+      <c r="C161" s="66"/>
       <c r="F161" s="42"/>
     </row>
     <row r="162" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4035,7 +4028,7 @@
       <c r="B162" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="C162" s="50"/>
+      <c r="C162" s="67"/>
       <c r="F162" s="42"/>
     </row>
     <row r="163" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4045,7 +4038,7 @@
       <c r="B163" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="C163" s="48" t="s">
+      <c r="C163" s="65" t="s">
         <v>195</v>
       </c>
       <c r="F163" s="42"/>
@@ -4055,7 +4048,7 @@
       <c r="B164" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="C164" s="49"/>
+      <c r="C164" s="66"/>
       <c r="F164" s="42"/>
     </row>
     <row r="165" spans="1:6" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4065,7 +4058,7 @@
       <c r="B165" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="C165" s="50"/>
+      <c r="C165" s="67"/>
       <c r="F165" s="42"/>
     </row>
     <row r="166" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4075,7 +4068,7 @@
       <c r="B166" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="C166" s="48" t="s">
+      <c r="C166" s="65" t="s">
         <v>195</v>
       </c>
       <c r="F166" s="42"/>
@@ -4085,7 +4078,7 @@
       <c r="B167" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="C167" s="49"/>
+      <c r="C167" s="66"/>
       <c r="F167" s="42"/>
     </row>
     <row r="168" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4095,7 +4088,7 @@
       <c r="B168" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="C168" s="50"/>
+      <c r="C168" s="67"/>
       <c r="F168" s="42"/>
     </row>
     <row r="169" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4105,7 +4098,7 @@
       <c r="B169" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="C169" s="48" t="s">
+      <c r="C169" s="65" t="s">
         <v>211</v>
       </c>
       <c r="F169" s="42"/>
@@ -4115,7 +4108,7 @@
       <c r="B170" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="C170" s="49"/>
+      <c r="C170" s="66"/>
       <c r="F170" s="42"/>
     </row>
     <row r="171" spans="1:6" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -4125,7 +4118,7 @@
       <c r="B171" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="C171" s="50"/>
+      <c r="C171" s="67"/>
       <c r="F171" s="42"/>
     </row>
     <row r="172" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4199,16 +4192,16 @@
     </row>
     <row r="182" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="183" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B183" s="51" t="s">
+      <c r="B183" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="C183" s="52" t="s">
+      <c r="C183" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="D183" s="52" t="s">
+      <c r="D183" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="E183" s="53" t="s">
+      <c r="E183" s="50" t="s">
         <v>230</v>
       </c>
       <c r="G183" s="10" t="s">
@@ -4216,70 +4209,70 @@
       </c>
     </row>
     <row r="184" spans="1:7" ht="21" x14ac:dyDescent="0.3">
-      <c r="B184" s="54" t="s">
+      <c r="B184" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="C184" s="55" t="s">
+      <c r="C184" s="52" t="s">
         <v>233</v>
       </c>
-      <c r="D184" s="55" t="s">
+      <c r="D184" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="E184" s="56" t="s">
+      <c r="E184" s="53" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="21" x14ac:dyDescent="0.3">
-      <c r="B185" s="54" t="s">
+      <c r="B185" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="C185" s="55" t="s">
+      <c r="C185" s="52" t="s">
         <v>237</v>
       </c>
-      <c r="D185" s="55" t="s">
+      <c r="D185" s="52" t="s">
         <v>238</v>
       </c>
-      <c r="E185" s="56" t="s">
+      <c r="E185" s="53" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="21" x14ac:dyDescent="0.3">
-      <c r="B186" s="54" t="s">
+      <c r="B186" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="C186" s="55" t="s">
+      <c r="C186" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="D186" s="55" t="s">
+      <c r="D186" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="E186" s="56" t="s">
+      <c r="E186" s="53" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="21" x14ac:dyDescent="0.3">
-      <c r="B187" s="54" t="s">
+      <c r="B187" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="C187" s="55" t="s">
+      <c r="C187" s="52" t="s">
         <v>248</v>
       </c>
-      <c r="D187" s="55" t="s">
+      <c r="D187" s="52" t="s">
         <v>247</v>
       </c>
-      <c r="E187" s="56" t="s">
+      <c r="E187" s="53" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B188" s="57" t="s">
+      <c r="B188" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="C188" s="58" t="s">
+      <c r="C188" s="55" t="s">
         <v>250</v>
       </c>
-      <c r="D188" s="58"/>
-      <c r="E188" s="59" t="s">
+      <c r="D188" s="55"/>
+      <c r="E188" s="56" t="s">
         <v>249</v>
       </c>
     </row>

--- a/ML-DL-LLMs ver 0.2 - session progress.xlsx
+++ b/ML-DL-LLMs ver 0.2 - session progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gridflowAI\cgi-AI-ML-GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3C95D3-3DC5-4B97-BA23-D8A4E1888359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF7F2CD-9377-4A5D-8C1E-4B0B7B9423AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30360" yWindow="-8505" windowWidth="20745" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1248" yWindow="312" windowWidth="21804" windowHeight="11916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="269">
   <si>
     <t>AI Fundamentatals</t>
   </si>
@@ -1171,6 +1171,15 @@
   </si>
   <si>
     <t>https://www.kaggle.com/datasets/mlg-ulb/creditcardfraud</t>
+  </si>
+  <si>
+    <t>Pending topics</t>
+  </si>
+  <si>
+    <t>KD-tree and ball tree (KNN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regularization </t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1332,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1354,6 +1363,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="26">
     <border>
@@ -1645,7 +1660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1839,6 +1854,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1847,9 +1868,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2134,8 +2152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2673,7 +2691,7 @@
       <c r="E38" s="19">
         <v>0.5</v>
       </c>
-      <c r="F38" s="68">
+      <c r="F38" s="42">
         <v>12</v>
       </c>
     </row>
@@ -2718,13 +2736,13 @@
       <c r="E41" s="5">
         <v>0.25</v>
       </c>
-      <c r="F41" s="68">
+      <c r="F41" s="42">
         <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B42" s="4"/>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="66" t="s">
         <v>41</v>
       </c>
       <c r="D42" s="10" t="s">
@@ -2749,7 +2767,7 @@
       <c r="E43" s="6">
         <v>0.5</v>
       </c>
-      <c r="F43" s="46">
+      <c r="F43" s="65">
         <v>12</v>
       </c>
     </row>
@@ -2801,7 +2819,7 @@
       <c r="F48" s="42"/>
       <c r="G48" s="45"/>
     </row>
-    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="62"/>
       <c r="C49" s="63" t="s">
         <v>46</v>
@@ -2816,7 +2834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="11" t="s">
         <v>94</v>
       </c>
@@ -2826,15 +2844,21 @@
         <v>0.5</v>
       </c>
       <c r="F50" s="43"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G50" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
       <c r="F51" s="42"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G51" s="10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
         <v>95</v>
       </c>
@@ -2848,15 +2872,21 @@
         <v>0.75</v>
       </c>
       <c r="F52" s="42"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G52" s="10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="15"/>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
       <c r="E53" s="6"/>
       <c r="F53" s="42"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G53" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
         <v>94</v>
       </c>
@@ -2867,14 +2897,14 @@
       </c>
       <c r="F54" s="43"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
       <c r="E55" s="20"/>
       <c r="F55" s="42"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
         <v>47</v>
       </c>
@@ -2888,10 +2918,10 @@
         <v>0.5</v>
       </c>
       <c r="F56" s="46">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="9"/>
       <c r="C57" s="10" t="s">
         <v>49</v>
@@ -2902,9 +2932,11 @@
       <c r="E57" s="5">
         <v>0.75</v>
       </c>
-      <c r="F57" s="42"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F57" s="46">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" s="9"/>
       <c r="C58" s="10" t="s">
         <v>50</v>
@@ -2915,9 +2947,11 @@
       <c r="E58" s="5">
         <v>0.5</v>
       </c>
-      <c r="F58" s="42"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F58" s="46">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="9"/>
       <c r="C59" s="10" t="s">
         <v>99</v>
@@ -2928,19 +2962,21 @@
       <c r="E59" s="5">
         <v>0.5</v>
       </c>
-      <c r="F59" s="42"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F59" s="46">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="15"/>
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
       <c r="E60" s="6"/>
       <c r="F60" s="42"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F61" s="42"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62" s="3" t="s">
         <v>51</v>
       </c>
@@ -2955,7 +2991,7 @@
       </c>
       <c r="F62" s="42"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="4"/>
       <c r="C63" s="10" t="s">
         <v>53</v>
@@ -2968,7 +3004,7 @@
       </c>
       <c r="F63" s="42"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="4"/>
       <c r="C64" s="10" t="s">
         <v>54</v>
@@ -3984,7 +4020,7 @@
       <c r="B157" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="C157" s="65" t="s">
+      <c r="C157" s="67" t="s">
         <v>195</v>
       </c>
       <c r="F157" s="42"/>
@@ -3994,7 +4030,7 @@
       <c r="B158" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C158" s="66"/>
+      <c r="C158" s="68"/>
       <c r="F158" s="42"/>
     </row>
     <row r="159" spans="1:7" ht="72" x14ac:dyDescent="0.3">
@@ -4004,7 +4040,7 @@
       <c r="B159" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="C159" s="66"/>
+      <c r="C159" s="68"/>
       <c r="F159" s="42"/>
     </row>
     <row r="160" spans="1:7" ht="18" x14ac:dyDescent="0.3">
@@ -4012,7 +4048,7 @@
       <c r="B160" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="C160" s="66"/>
+      <c r="C160" s="68"/>
       <c r="F160" s="42"/>
     </row>
     <row r="161" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4020,7 +4056,7 @@
       <c r="B161" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="C161" s="66"/>
+      <c r="C161" s="68"/>
       <c r="F161" s="42"/>
     </row>
     <row r="162" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4028,7 +4064,7 @@
       <c r="B162" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="C162" s="67"/>
+      <c r="C162" s="69"/>
       <c r="F162" s="42"/>
     </row>
     <row r="163" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4038,7 +4074,7 @@
       <c r="B163" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="C163" s="65" t="s">
+      <c r="C163" s="67" t="s">
         <v>195</v>
       </c>
       <c r="F163" s="42"/>
@@ -4048,7 +4084,7 @@
       <c r="B164" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="C164" s="66"/>
+      <c r="C164" s="68"/>
       <c r="F164" s="42"/>
     </row>
     <row r="165" spans="1:6" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4058,7 +4094,7 @@
       <c r="B165" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="C165" s="67"/>
+      <c r="C165" s="69"/>
       <c r="F165" s="42"/>
     </row>
     <row r="166" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4068,7 +4104,7 @@
       <c r="B166" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="C166" s="65" t="s">
+      <c r="C166" s="67" t="s">
         <v>195</v>
       </c>
       <c r="F166" s="42"/>
@@ -4078,7 +4114,7 @@
       <c r="B167" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="C167" s="66"/>
+      <c r="C167" s="68"/>
       <c r="F167" s="42"/>
     </row>
     <row r="168" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4088,7 +4124,7 @@
       <c r="B168" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="C168" s="67"/>
+      <c r="C168" s="69"/>
       <c r="F168" s="42"/>
     </row>
     <row r="169" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4098,7 +4134,7 @@
       <c r="B169" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="C169" s="65" t="s">
+      <c r="C169" s="67" t="s">
         <v>211</v>
       </c>
       <c r="F169" s="42"/>
@@ -4108,7 +4144,7 @@
       <c r="B170" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="C170" s="66"/>
+      <c r="C170" s="68"/>
       <c r="F170" s="42"/>
     </row>
     <row r="171" spans="1:6" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -4118,7 +4154,7 @@
       <c r="B171" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="C171" s="67"/>
+      <c r="C171" s="69"/>
       <c r="F171" s="42"/>
     </row>
     <row r="172" spans="1:6" ht="18" x14ac:dyDescent="0.3">

--- a/ML-DL-LLMs ver 0.2 - session progress.xlsx
+++ b/ML-DL-LLMs ver 0.2 - session progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gridflowAI\cgi-AI-ML-GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF7F2CD-9377-4A5D-8C1E-4B0B7B9423AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B453CE-C8DF-41BA-9067-1EC99E11E6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1248" yWindow="312" windowWidth="21804" windowHeight="11916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17745" yWindow="-15060" windowWidth="22575" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1660,7 +1660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1868,6 +1868,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2152,8 +2155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H196"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C193" sqref="C193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2844,7 +2847,7 @@
         <v>0.5</v>
       </c>
       <c r="F50" s="43"/>
-      <c r="G50" s="2" t="s">
+      <c r="G50" s="70" t="s">
         <v>266</v>
       </c>
     </row>

--- a/ML-DL-LLMs ver 0.2 - session progress.xlsx
+++ b/ML-DL-LLMs ver 0.2 - session progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gridflowAI\cgi-AI-ML-GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B453CE-C8DF-41BA-9067-1EC99E11E6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A9075A-06EA-4C65-B5AB-B99FF0C8085E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17745" yWindow="-15060" windowWidth="22575" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13065" yWindow="-16395" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="286">
   <si>
     <t>AI Fundamentatals</t>
   </si>
@@ -1180,6 +1180,57 @@
   </si>
   <si>
     <t xml:space="preserve">Regularization </t>
+  </si>
+  <si>
+    <t>dtypes, view each type (describe)</t>
+  </si>
+  <si>
+    <t>missing value (justify)</t>
+  </si>
+  <si>
+    <t>general issues with data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scaling </t>
+  </si>
+  <si>
+    <t>encoding (justify) - OHE, Label, frequency, target enc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your EDA items -&gt; ML </t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>use ML for DP (feature engg)</t>
+  </si>
+  <si>
+    <t>Model build (baseline model) - metrics, evaluation (learning curve, CV, dec boundary)</t>
+  </si>
+  <si>
+    <t>Model selection process (many other models)</t>
+  </si>
+  <si>
+    <t>Tuning parameters (best setting)</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>Model saving</t>
+  </si>
+  <si>
+    <t>load, inferencing</t>
+  </si>
+  <si>
+    <t>Post deployment</t>
+  </si>
+  <si>
+    <t>Start from here , 29th July</t>
   </si>
 </sst>
 </file>
@@ -1660,7 +1711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1860,6 +1911,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1869,8 +1923,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2153,10 +2210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H196"/>
+  <dimension ref="A1:H220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C193" sqref="C193"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2847,7 +2904,7 @@
         <v>0.5</v>
       </c>
       <c r="F50" s="43"/>
-      <c r="G50" s="70" t="s">
+      <c r="G50" s="67" t="s">
         <v>266</v>
       </c>
     </row>
@@ -2917,10 +2974,10 @@
       <c r="D56" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E56" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="F56" s="46">
+      <c r="E56" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F56" s="72">
         <v>13</v>
       </c>
     </row>
@@ -2932,10 +2989,10 @@
       <c r="D57" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="71">
         <v>0.75</v>
       </c>
-      <c r="F57" s="46">
+      <c r="F57" s="72">
         <v>13</v>
       </c>
     </row>
@@ -2947,11 +3004,14 @@
       <c r="D58" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E58" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F58" s="46">
+      <c r="E58" s="71">
+        <v>0.5</v>
+      </c>
+      <c r="F58" s="72">
         <v>13</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.3">
@@ -2962,10 +3022,10 @@
       <c r="D59" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E59" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F59" s="46">
+      <c r="E59" s="71">
+        <v>0.5</v>
+      </c>
+      <c r="F59" s="72">
         <v>13</v>
       </c>
     </row>
@@ -2973,8 +3033,8 @@
       <c r="B60" s="15"/>
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="42"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="72"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F61" s="42"/>
@@ -2992,7 +3052,9 @@
       <c r="E62" s="19">
         <v>0.75</v>
       </c>
-      <c r="F62" s="42"/>
+      <c r="F62" s="46">
+        <v>14</v>
+      </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="4"/>
@@ -3005,7 +3067,9 @@
       <c r="E63" s="5">
         <v>0.75</v>
       </c>
-      <c r="F63" s="42"/>
+      <c r="F63" s="46">
+        <v>14</v>
+      </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="4"/>
@@ -3018,7 +3082,9 @@
       <c r="E64" s="5">
         <v>0.5</v>
       </c>
-      <c r="F64" s="42"/>
+      <c r="F64" s="46">
+        <v>14</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B65" s="4"/>
@@ -3031,7 +3097,9 @@
       <c r="E65" s="5">
         <v>0.5</v>
       </c>
-      <c r="F65" s="42"/>
+      <c r="F65" s="46">
+        <v>14</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B66" s="4"/>
@@ -3044,7 +3112,9 @@
       <c r="E66" s="5">
         <v>0.5</v>
       </c>
-      <c r="F66" s="42"/>
+      <c r="F66" s="46">
+        <v>14</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B67" s="4"/>
@@ -3057,7 +3127,9 @@
       <c r="E67" s="5">
         <v>0.75</v>
       </c>
-      <c r="F67" s="42"/>
+      <c r="F67" s="46">
+        <v>14</v>
+      </c>
       <c r="G67" s="10" t="s">
         <v>176</v>
       </c>
@@ -3073,7 +3145,9 @@
       <c r="E68" s="5">
         <v>0.5</v>
       </c>
-      <c r="F68" s="42"/>
+      <c r="F68" s="46">
+        <v>14</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B69" s="4"/>
@@ -3086,7 +3160,9 @@
       <c r="E69" s="5">
         <v>0.5</v>
       </c>
-      <c r="F69" s="42"/>
+      <c r="F69" s="46">
+        <v>14</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B70" s="15"/>
@@ -3099,7 +3175,7 @@
       <c r="E70" s="6">
         <v>1</v>
       </c>
-      <c r="F70" s="42"/>
+      <c r="F70" s="46"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F71" s="42"/>
@@ -4023,7 +4099,7 @@
       <c r="B157" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="C157" s="67" t="s">
+      <c r="C157" s="68" t="s">
         <v>195</v>
       </c>
       <c r="F157" s="42"/>
@@ -4033,7 +4109,7 @@
       <c r="B158" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C158" s="68"/>
+      <c r="C158" s="69"/>
       <c r="F158" s="42"/>
     </row>
     <row r="159" spans="1:7" ht="72" x14ac:dyDescent="0.3">
@@ -4043,7 +4119,7 @@
       <c r="B159" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="C159" s="68"/>
+      <c r="C159" s="69"/>
       <c r="F159" s="42"/>
     </row>
     <row r="160" spans="1:7" ht="18" x14ac:dyDescent="0.3">
@@ -4051,7 +4127,7 @@
       <c r="B160" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="C160" s="68"/>
+      <c r="C160" s="69"/>
       <c r="F160" s="42"/>
     </row>
     <row r="161" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4059,7 +4135,7 @@
       <c r="B161" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="C161" s="68"/>
+      <c r="C161" s="69"/>
       <c r="F161" s="42"/>
     </row>
     <row r="162" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4067,7 +4143,7 @@
       <c r="B162" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="C162" s="69"/>
+      <c r="C162" s="70"/>
       <c r="F162" s="42"/>
     </row>
     <row r="163" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4077,7 +4153,7 @@
       <c r="B163" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="C163" s="67" t="s">
+      <c r="C163" s="68" t="s">
         <v>195</v>
       </c>
       <c r="F163" s="42"/>
@@ -4087,7 +4163,7 @@
       <c r="B164" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="C164" s="68"/>
+      <c r="C164" s="69"/>
       <c r="F164" s="42"/>
     </row>
     <row r="165" spans="1:6" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4097,7 +4173,7 @@
       <c r="B165" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="C165" s="69"/>
+      <c r="C165" s="70"/>
       <c r="F165" s="42"/>
     </row>
     <row r="166" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4107,7 +4183,7 @@
       <c r="B166" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="C166" s="67" t="s">
+      <c r="C166" s="68" t="s">
         <v>195</v>
       </c>
       <c r="F166" s="42"/>
@@ -4117,7 +4193,7 @@
       <c r="B167" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="C167" s="68"/>
+      <c r="C167" s="69"/>
       <c r="F167" s="42"/>
     </row>
     <row r="168" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4127,7 +4203,7 @@
       <c r="B168" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="C168" s="69"/>
+      <c r="C168" s="70"/>
       <c r="F168" s="42"/>
     </row>
     <row r="169" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4137,7 +4213,7 @@
       <c r="B169" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="C169" s="67" t="s">
+      <c r="C169" s="68" t="s">
         <v>211</v>
       </c>
       <c r="F169" s="42"/>
@@ -4147,7 +4223,7 @@
       <c r="B170" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="C170" s="68"/>
+      <c r="C170" s="69"/>
       <c r="F170" s="42"/>
     </row>
     <row r="171" spans="1:6" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -4157,7 +4233,7 @@
       <c r="B171" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="C171" s="69"/>
+      <c r="C171" s="70"/>
       <c r="F171" s="42"/>
     </row>
     <row r="172" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4363,6 +4439,88 @@
     <row r="196" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B196" s="10" t="s">
         <v>264</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B200" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C200" s="10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C201" s="10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C202" s="10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C203" s="10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C204" s="10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B206" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C206" s="10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C208" s="10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B210" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C210" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C212" s="10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C214" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C215" s="10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B217" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C217" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C218" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B220" s="66" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/ML-DL-LLMs ver 0.2 - session progress.xlsx
+++ b/ML-DL-LLMs ver 0.2 - session progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gridflowAI\cgi-AI-ML-GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A9075A-06EA-4C65-B5AB-B99FF0C8085E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61CEFC8-E3BA-4710-94AC-6522AC5EB8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13065" yWindow="-16395" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33885" yWindow="-7770" windowWidth="22575" windowHeight="14475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1711,7 +1711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1923,10 +1923,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2213,7 +2210,7 @@
   <dimension ref="A1:H220"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+      <selection activeCell="C64" sqref="C64:F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2977,7 +2974,7 @@
       <c r="E56" s="14">
         <v>0.5</v>
       </c>
-      <c r="F56" s="72">
+      <c r="F56" s="42">
         <v>13</v>
       </c>
     </row>
@@ -2989,10 +2986,10 @@
       <c r="D57" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E57" s="71">
+      <c r="E57" s="10">
         <v>0.75</v>
       </c>
-      <c r="F57" s="72">
+      <c r="F57" s="42">
         <v>13</v>
       </c>
     </row>
@@ -3004,10 +3001,10 @@
       <c r="D58" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E58" s="71">
-        <v>0.5</v>
-      </c>
-      <c r="F58" s="72">
+      <c r="E58" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F58" s="42">
         <v>13</v>
       </c>
       <c r="G58" s="10" t="s">
@@ -3022,10 +3019,10 @@
       <c r="D59" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E59" s="71">
-        <v>0.5</v>
-      </c>
-      <c r="F59" s="72">
+      <c r="E59" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F59" s="42">
         <v>13</v>
       </c>
     </row>
@@ -3034,7 +3031,7 @@
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
-      <c r="F60" s="72"/>
+      <c r="F60" s="42"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F61" s="42"/>
@@ -3067,7 +3064,7 @@
       <c r="E63" s="5">
         <v>0.75</v>
       </c>
-      <c r="F63" s="46">
+      <c r="F63" s="71">
         <v>14</v>
       </c>
     </row>

--- a/ML-DL-LLMs ver 0.2 - session progress.xlsx
+++ b/ML-DL-LLMs ver 0.2 - session progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gridflowAI\cgi-AI-ML-GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61CEFC8-E3BA-4710-94AC-6522AC5EB8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCBE65C-1519-4386-A4AF-F77EAA4D3D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33885" yWindow="-7770" windowWidth="22575" windowHeight="14475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -202,9 +202,6 @@
   </si>
   <si>
     <t>TF/Keras - layers</t>
-  </si>
-  <si>
-    <t>Data loading</t>
   </si>
   <si>
     <t>Metrics</t>
@@ -1231,6 +1228,9 @@
   </si>
   <si>
     <t>Start from here , 29th July</t>
+  </si>
+  <si>
+    <t>Data loading (generations)</t>
   </si>
 </sst>
 </file>
@@ -2210,7 +2210,7 @@
   <dimension ref="A1:H220"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64:F64"/>
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2243,7 +2243,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2257,14 +2257,14 @@
         <v>4</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="42">
         <v>1</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -2273,7 +2273,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="42">
@@ -2286,7 +2286,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="42">
@@ -2299,36 +2299,36 @@
         <v>10</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="42">
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="15"/>
       <c r="C6" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="42">
         <v>3</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F7" s="42"/>
       <c r="H7" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2336,10 +2336,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>92</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>93</v>
       </c>
       <c r="E8" s="18">
         <v>0.5</v>
@@ -2348,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -2362,7 +2362,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10" s="19">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2395,7 +2395,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="42">
@@ -2408,7 +2408,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="42">
@@ -2436,7 +2436,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="42">
@@ -2475,7 +2475,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -2504,7 +2504,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="45" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
@@ -2599,7 +2599,7 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -2628,7 +2628,7 @@
         <v>5</v>
       </c>
       <c r="G29" s="45" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
@@ -2704,12 +2704,12 @@
         <v>2</v>
       </c>
       <c r="F34" s="47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B35" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -2810,7 +2810,7 @@
       </c>
       <c r="F42" s="42"/>
       <c r="G42" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -2830,7 +2830,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="46" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B46" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C46" s="58" t="s">
         <v>45</v>
@@ -2856,10 +2856,10 @@
         <v>1</v>
       </c>
       <c r="F46" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G46" s="45" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -2867,7 +2867,7 @@
       <c r="E47" s="61"/>
       <c r="F47" s="42"/>
       <c r="G47" s="45" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -2893,7 +2893,7 @@
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="F50" s="43"/>
       <c r="G50" s="67" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.3">
@@ -2912,15 +2912,15 @@
       <c r="E51" s="20"/>
       <c r="F51" s="42"/>
       <c r="G51" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>43</v>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="F52" s="42"/>
       <c r="G52" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.3">
@@ -2945,7 +2945,7 @@
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -3008,13 +3008,13 @@
         <v>13</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="9"/>
       <c r="C59" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>43</v>
@@ -3064,7 +3064,7 @@
       <c r="E63" s="5">
         <v>0.75</v>
       </c>
-      <c r="F63" s="71">
+      <c r="F63" s="42">
         <v>14</v>
       </c>
     </row>
@@ -3079,14 +3079,14 @@
       <c r="E64" s="5">
         <v>0.5</v>
       </c>
-      <c r="F64" s="46">
+      <c r="F64" s="71">
         <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B65" s="4"/>
       <c r="C65" s="10" t="s">
-        <v>55</v>
+        <v>285</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>43</v>
@@ -3101,7 +3101,7 @@
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B66" s="4"/>
       <c r="C66" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>43</v>
@@ -3109,14 +3109,14 @@
       <c r="E66" s="5">
         <v>0.5</v>
       </c>
-      <c r="F66" s="46">
+      <c r="F66" s="71">
         <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B67" s="4"/>
       <c r="C67" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>43</v>
@@ -3128,13 +3128,13 @@
         <v>14</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B68" s="4"/>
       <c r="C68" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>43</v>
@@ -3149,7 +3149,7 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B69" s="4"/>
       <c r="C69" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>43</v>
@@ -3164,7 +3164,7 @@
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B70" s="15"/>
       <c r="C70" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>43</v>
@@ -3172,30 +3172,32 @@
       <c r="E70" s="6">
         <v>1</v>
       </c>
-      <c r="F70" s="46"/>
+      <c r="F70" s="71"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F71" s="42"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B72" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C72" s="14" t="s">
-        <v>62</v>
-      </c>
       <c r="D72" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E72" s="19">
         <v>0.5</v>
       </c>
-      <c r="F72" s="42"/>
+      <c r="F72" s="42">
+        <v>15</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B73" s="4"/>
       <c r="C73" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>43</v>
@@ -3203,12 +3205,14 @@
       <c r="E73" s="5">
         <v>0.5</v>
       </c>
-      <c r="F73" s="42"/>
+      <c r="F73" s="42">
+        <v>15</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B74" s="4"/>
       <c r="C74" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>43</v>
@@ -3216,12 +3220,14 @@
       <c r="E74" s="5">
         <v>0.5</v>
       </c>
-      <c r="F74" s="42"/>
+      <c r="F74" s="42">
+        <v>15</v>
+      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B75" s="4"/>
       <c r="C75" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>43</v>
@@ -3229,12 +3235,14 @@
       <c r="E75" s="5">
         <v>0.5</v>
       </c>
-      <c r="F75" s="42"/>
+      <c r="F75" s="42">
+        <v>15</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
       <c r="C76" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D76" s="10" t="s">
         <v>43</v>
@@ -3253,7 +3261,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B78" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
@@ -3271,13 +3279,13 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B80" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C80" s="14" t="s">
         <v>71</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>72</v>
       </c>
       <c r="D80" s="14" t="s">
         <v>43</v>
@@ -3290,7 +3298,7 @@
     <row r="81" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B81" s="4"/>
       <c r="C81" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>43</v>
@@ -3303,7 +3311,7 @@
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B82" s="4"/>
       <c r="C82" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E82" s="5">
         <v>0.75</v>
@@ -3313,7 +3321,7 @@
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B83" s="4"/>
       <c r="C83" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>43</v>
@@ -3326,7 +3334,7 @@
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B84" s="4"/>
       <c r="C84" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>43</v>
@@ -3339,7 +3347,7 @@
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B85" s="4"/>
       <c r="C85" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>43</v>
@@ -3356,10 +3364,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B87" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C87" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>81</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>43</v>
@@ -3372,7 +3380,7 @@
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B88" s="4"/>
       <c r="C88" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>43</v>
@@ -3385,7 +3393,7 @@
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B89" s="4"/>
       <c r="C89" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>43</v>
@@ -3398,7 +3406,7 @@
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B90" s="4"/>
       <c r="C90" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>43</v>
@@ -3415,13 +3423,13 @@
     </row>
     <row r="92" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B92" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C92" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="D92" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>87</v>
       </c>
       <c r="E92" s="5">
         <v>1.5</v>
@@ -3437,7 +3445,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B94" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
@@ -3455,13 +3463,13 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C96" s="14" t="s">
         <v>68</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>69</v>
       </c>
       <c r="D96" s="14" t="s">
         <v>43</v>
@@ -3474,7 +3482,7 @@
     <row r="97" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B97" s="4"/>
       <c r="C97" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D97" s="10" t="s">
         <v>43</v>
@@ -3492,7 +3500,7 @@
     <row r="99" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B99" s="4"/>
       <c r="C99" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E99" s="5">
         <v>0.5</v>
@@ -3502,7 +3510,7 @@
     <row r="100" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B100" s="4"/>
       <c r="C100" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E100" s="5">
         <v>0.5</v>
@@ -3516,10 +3524,10 @@
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B102" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C102" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>77</v>
       </c>
       <c r="D102" s="10" t="s">
         <v>43</v>
@@ -3532,7 +3540,7 @@
     <row r="103" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B103" s="4"/>
       <c r="C103" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D103" s="10" t="s">
         <v>43</v>
@@ -3545,7 +3553,7 @@
     <row r="104" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B104" s="4"/>
       <c r="C104" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D104" s="10" t="s">
         <v>43</v>
@@ -3558,7 +3566,7 @@
     <row r="105" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B105" s="4"/>
       <c r="C105" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D105" s="10" t="s">
         <v>43</v>
@@ -3571,7 +3579,7 @@
     <row r="106" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B106" s="4"/>
       <c r="C106" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E106" s="5">
         <v>0.5</v>
@@ -3581,7 +3589,7 @@
     <row r="107" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B107" s="4"/>
       <c r="C107" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E107" s="5">
         <v>0.5</v>
@@ -3591,7 +3599,7 @@
     <row r="108" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B108" s="4"/>
       <c r="C108" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E108" s="5">
         <v>0.25</v>
@@ -3601,7 +3609,7 @@
     <row r="109" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B109" s="4"/>
       <c r="C109" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E109" s="5">
         <v>0.5</v>
@@ -3611,7 +3619,7 @@
     <row r="110" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B110" s="4"/>
       <c r="C110" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E110" s="5">
         <v>1</v>
@@ -3620,10 +3628,10 @@
     </row>
     <row r="111" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B111" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E111" s="5">
         <v>1</v>
@@ -3632,10 +3640,10 @@
     </row>
     <row r="112" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B112" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C112" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>105</v>
       </c>
       <c r="E112" s="5">
         <v>0.25</v>
@@ -3645,7 +3653,7 @@
     <row r="113" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B113" s="13"/>
       <c r="C113" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E113" s="5">
         <v>0.25</v>
@@ -3655,33 +3663,33 @@
     <row r="114" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B114" s="13"/>
       <c r="C114" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E114" s="5">
         <v>0.5</v>
       </c>
       <c r="F114" s="42"/>
       <c r="G114" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="115" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B115" s="13"/>
       <c r="C115" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E115" s="5">
         <v>0.25</v>
       </c>
       <c r="F115" s="42"/>
       <c r="G115" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B116" s="13"/>
       <c r="C116" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E116" s="5">
         <v>0.25</v>
@@ -3691,7 +3699,7 @@
     <row r="117" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B117" s="13"/>
       <c r="C117" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E117" s="5">
         <v>0.25</v>
@@ -3701,7 +3709,7 @@
     <row r="118" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B118" s="13"/>
       <c r="C118" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E118" s="5">
         <v>0.25</v>
@@ -3711,7 +3719,7 @@
     <row r="119" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B119" s="13"/>
       <c r="C119" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E119" s="5">
         <v>0.25</v>
@@ -3721,7 +3729,7 @@
     <row r="120" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B120" s="13"/>
       <c r="C120" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E120" s="5">
         <v>0.25</v>
@@ -3731,7 +3739,7 @@
     <row r="121" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B121" s="13"/>
       <c r="C121" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E121" s="5">
         <v>0.5</v>
@@ -3741,7 +3749,7 @@
     <row r="122" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B122" s="13"/>
       <c r="C122" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E122" s="5">
         <v>1</v>
@@ -3750,10 +3758,10 @@
     </row>
     <row r="123" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B123" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C123" s="10" t="s">
         <v>117</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>118</v>
       </c>
       <c r="E123" s="5">
         <v>0.25</v>
@@ -3763,7 +3771,7 @@
     <row r="124" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B124" s="13"/>
       <c r="C124" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E124" s="5">
         <v>0.5</v>
@@ -3778,7 +3786,7 @@
     <row r="126" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B126" s="13"/>
       <c r="C126" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E126" s="5">
         <v>0.5</v>
@@ -3788,7 +3796,7 @@
     <row r="127" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B127" s="13"/>
       <c r="C127" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E127" s="5">
         <v>1</v>
@@ -3798,7 +3806,7 @@
     <row r="128" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B128" s="13"/>
       <c r="C128" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E128" s="5">
         <v>1</v>
@@ -3813,7 +3821,7 @@
     <row r="130" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B130" s="13"/>
       <c r="C130" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E130" s="5">
         <v>0.25</v>
@@ -3823,7 +3831,7 @@
     <row r="131" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B131" s="13"/>
       <c r="C131" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E131" s="5">
         <v>1</v>
@@ -3833,7 +3841,7 @@
     <row r="132" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B132" s="13"/>
       <c r="C132" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E132" s="5">
         <v>1</v>
@@ -3843,7 +3851,7 @@
     <row r="133" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B133" s="13"/>
       <c r="C133" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E133" s="5">
         <v>0.5</v>
@@ -3853,7 +3861,7 @@
     <row r="134" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B134" s="13"/>
       <c r="C134" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E134" s="5">
         <v>1</v>
@@ -3867,10 +3875,10 @@
     </row>
     <row r="136" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B136" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C136" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="C136" s="10" t="s">
-        <v>127</v>
       </c>
       <c r="E136" s="5">
         <v>0.75</v>
@@ -3879,10 +3887,10 @@
     </row>
     <row r="137" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B137" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E137" s="5">
         <v>1.5</v>
@@ -3892,7 +3900,7 @@
     <row r="138" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B138" s="13"/>
       <c r="C138" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E138" s="5">
         <v>1.5</v>
@@ -3902,7 +3910,7 @@
     <row r="139" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B139" s="13"/>
       <c r="C139" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E139" s="5">
         <v>0.5</v>
@@ -3912,7 +3920,7 @@
     <row r="140" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B140" s="13"/>
       <c r="C140" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E140" s="5">
         <v>0.5</v>
@@ -3922,7 +3930,7 @@
     <row r="141" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B141" s="13"/>
       <c r="C141" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E141" s="5">
         <v>1.5</v>
@@ -3931,10 +3939,10 @@
     </row>
     <row r="142" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B142" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C142" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>134</v>
       </c>
       <c r="E142" s="5">
         <v>1</v>
@@ -3948,10 +3956,10 @@
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B144" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C144" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E144" s="5">
         <v>1</v>
@@ -3961,7 +3969,7 @@
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B145" s="15"/>
       <c r="C145" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D145" s="16"/>
       <c r="E145" s="6">
@@ -3978,13 +3986,13 @@
     </row>
     <row r="147" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B147" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B147" s="12" t="s">
+      <c r="C147" s="14" t="s">
         <v>141</v>
-      </c>
-      <c r="C147" s="14" t="s">
-        <v>142</v>
       </c>
       <c r="D147" s="14"/>
       <c r="E147" s="19">
@@ -3996,7 +4004,7 @@
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E148" s="5">
         <v>1</v>
@@ -4007,7 +4015,7 @@
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E149" s="5">
         <v>0.5</v>
@@ -4018,7 +4026,7 @@
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E150" s="5">
         <v>1</v>
@@ -4029,7 +4037,7 @@
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E151" s="5">
         <v>2</v>
@@ -4039,10 +4047,10 @@
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="4"/>
       <c r="B152" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C152" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="C152" s="10" t="s">
-        <v>148</v>
       </c>
       <c r="E152" s="5">
         <v>2</v>
@@ -4052,10 +4060,10 @@
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="15"/>
       <c r="B153" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C153" s="16" t="s">
         <v>149</v>
-      </c>
-      <c r="C153" s="16" t="s">
-        <v>150</v>
       </c>
       <c r="D153" s="16"/>
       <c r="E153" s="6">
@@ -4079,42 +4087,42 @@
     </row>
     <row r="156" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="B156" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="B156" s="28" t="s">
+      <c r="C156" s="28" t="s">
         <v>185</v>
-      </c>
-      <c r="C156" s="28" t="s">
-        <v>186</v>
       </c>
       <c r="F156" s="42"/>
     </row>
     <row r="157" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A157" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B157" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C157" s="68" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F157" s="42"/>
     </row>
     <row r="158" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A158" s="29"/>
       <c r="B158" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C158" s="69"/>
       <c r="F158" s="42"/>
     </row>
     <row r="159" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A159" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B159" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C159" s="69"/>
       <c r="F159" s="42"/>
@@ -4122,7 +4130,7 @@
     <row r="160" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A160" s="30"/>
       <c r="B160" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C160" s="69"/>
       <c r="F160" s="42"/>
@@ -4130,7 +4138,7 @@
     <row r="161" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A161" s="30"/>
       <c r="B161" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C161" s="69"/>
       <c r="F161" s="42"/>
@@ -4138,97 +4146,97 @@
     <row r="162" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="31"/>
       <c r="B162" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C162" s="70"/>
       <c r="F162" s="42"/>
     </row>
     <row r="163" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A163" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B163" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C163" s="68" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F163" s="42"/>
     </row>
     <row r="164" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A164" s="29"/>
       <c r="B164" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C164" s="69"/>
       <c r="F164" s="42"/>
     </row>
     <row r="165" spans="1:6" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B165" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C165" s="70"/>
       <c r="F165" s="42"/>
     </row>
     <row r="166" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A166" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B166" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C166" s="68" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F166" s="42"/>
     </row>
     <row r="167" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A167" s="29"/>
       <c r="B167" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C167" s="69"/>
       <c r="F167" s="42"/>
     </row>
     <row r="168" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B168" s="33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C168" s="70"/>
       <c r="F168" s="42"/>
     </row>
     <row r="169" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A169" s="29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B169" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C169" s="68" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F169" s="42"/>
     </row>
     <row r="170" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A170" s="29"/>
       <c r="B170" s="32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C170" s="69"/>
       <c r="F170" s="42"/>
     </row>
     <row r="171" spans="1:6" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B171" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C171" s="70"/>
       <c r="F171" s="42"/>
@@ -4240,14 +4248,14 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B173"/>
       <c r="C173"/>
     </row>
     <row r="174" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A174" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B174"/>
       <c r="C174"/>
@@ -4259,265 +4267,265 @@
     </row>
     <row r="176" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B176" s="38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C176"/>
     </row>
     <row r="177" spans="1:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B177" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C177"/>
     </row>
     <row r="178" spans="1:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B178" s="40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C178"/>
     </row>
     <row r="179" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B179" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C179"/>
     </row>
     <row r="180" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B180" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C180"/>
     </row>
     <row r="182" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="183" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B183" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="C183" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="C183" s="49" t="s">
+      <c r="D183" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="D183" s="49" t="s">
+      <c r="E183" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="E183" s="50" t="s">
+      <c r="G183" s="10" t="s">
         <v>230</v>
-      </c>
-      <c r="G183" s="10" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B184" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="C184" s="52" t="s">
         <v>232</v>
       </c>
-      <c r="C184" s="52" t="s">
+      <c r="D184" s="52" t="s">
         <v>233</v>
       </c>
-      <c r="D184" s="52" t="s">
+      <c r="E184" s="53" t="s">
         <v>234</v>
-      </c>
-      <c r="E184" s="53" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B185" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="C185" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="C185" s="52" t="s">
+      <c r="D185" s="52" t="s">
         <v>237</v>
       </c>
-      <c r="D185" s="52" t="s">
+      <c r="E185" s="53" t="s">
         <v>238</v>
-      </c>
-      <c r="E185" s="53" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B186" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C186" s="52" t="s">
+        <v>241</v>
+      </c>
+      <c r="D186" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="E186" s="53" t="s">
         <v>242</v>
-      </c>
-      <c r="D186" s="52" t="s">
-        <v>246</v>
-      </c>
-      <c r="E186" s="53" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B187" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C187" s="52" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D187" s="52" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E187" s="53" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B188" s="54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C188" s="55" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D188" s="55"/>
       <c r="E188" s="56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C190" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B191" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B192" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B193" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="194" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B194" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D194" s="45" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B195" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B196" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B200" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C201" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C202" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C203" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="204" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C204" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B206" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C208" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B210" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C210" s="10" t="s">
         <v>276</v>
-      </c>
-      <c r="C210" s="10" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="212" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C212" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="214" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C214" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C215" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B217" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C217" s="10" t="s">
         <v>281</v>
-      </c>
-      <c r="C217" s="10" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C218" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B220" s="66" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -4557,162 +4565,162 @@
   <sheetData>
     <row r="2" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D18" t="s">
         <v>170</v>
-      </c>
-      <c r="D18" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/ML-DL-LLMs ver 0.2 - session progress.xlsx
+++ b/ML-DL-LLMs ver 0.2 - session progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gridflowAI\cgi-AI-ML-GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCBE65C-1519-4386-A4AF-F77EAA4D3D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036F48F3-2D4D-40DE-B638-794BBC82B955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33885" yWindow="-7770" windowWidth="22575" windowHeight="14475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="168" yWindow="-13068" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2209,8 +2209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3079,7 +3079,7 @@
       <c r="E64" s="5">
         <v>0.5</v>
       </c>
-      <c r="F64" s="71">
+      <c r="F64" s="42">
         <v>14</v>
       </c>
     </row>
@@ -3109,7 +3109,7 @@
       <c r="E66" s="5">
         <v>0.5</v>
       </c>
-      <c r="F66" s="71">
+      <c r="F66" s="42">
         <v>14</v>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       <c r="E67" s="5">
         <v>0.75</v>
       </c>
-      <c r="F67" s="46">
+      <c r="F67" s="71">
         <v>14</v>
       </c>
       <c r="G67" s="10" t="s">
@@ -3142,7 +3142,7 @@
       <c r="E68" s="5">
         <v>0.5</v>
       </c>
-      <c r="F68" s="46">
+      <c r="F68" s="71">
         <v>14</v>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       <c r="E69" s="5">
         <v>0.5</v>
       </c>
-      <c r="F69" s="46">
+      <c r="F69" s="71">
         <v>14</v>
       </c>
     </row>
@@ -3172,7 +3172,7 @@
       <c r="E70" s="6">
         <v>1</v>
       </c>
-      <c r="F70" s="71"/>
+      <c r="F70" s="42"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F71" s="42"/>
@@ -3190,7 +3190,7 @@
       <c r="E72" s="19">
         <v>0.5</v>
       </c>
-      <c r="F72" s="42">
+      <c r="F72" s="71">
         <v>15</v>
       </c>
     </row>
@@ -3205,7 +3205,7 @@
       <c r="E73" s="5">
         <v>0.5</v>
       </c>
-      <c r="F73" s="42">
+      <c r="F73" s="71">
         <v>15</v>
       </c>
     </row>
@@ -3220,7 +3220,7 @@
       <c r="E74" s="5">
         <v>0.5</v>
       </c>
-      <c r="F74" s="42">
+      <c r="F74" s="71">
         <v>15</v>
       </c>
     </row>
@@ -3235,7 +3235,7 @@
       <c r="E75" s="5">
         <v>0.5</v>
       </c>
-      <c r="F75" s="42">
+      <c r="F75" s="71">
         <v>15</v>
       </c>
     </row>
@@ -3250,7 +3250,9 @@
       <c r="E76" s="5">
         <v>0.5</v>
       </c>
-      <c r="F76" s="42"/>
+      <c r="F76" s="46">
+        <v>16</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B77" s="15"/>

--- a/ML-DL-LLMs ver 0.2 - session progress.xlsx
+++ b/ML-DL-LLMs ver 0.2 - session progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gridflowAI\cgi-AI-ML-GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036F48F3-2D4D-40DE-B638-794BBC82B955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2221A41-FD87-4359-8A6B-B9CD76BC1598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="168" yWindow="-13068" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4872" yWindow="-12504" windowWidth="18624" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="293">
   <si>
     <t>AI Fundamentatals</t>
   </si>
@@ -1231,6 +1231,27 @@
   </si>
   <si>
     <t>Data loading (generations)</t>
+  </si>
+  <si>
+    <t>Use cases for last week (week 4) - to be formalized on 1st Aug 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use of PTM and TL for images </t>
+  </si>
+  <si>
+    <t>NLP - sentiment analysis</t>
+  </si>
+  <si>
+    <t>NLP - Resume scanning</t>
+  </si>
+  <si>
+    <t>Noun phrase, RAKE , NER, Package based extraction,  BERT embeddings , GPT embeddings</t>
+  </si>
+  <si>
+    <t>basic, DT, RF, Word2vec, RNN/LSTM/ BERT models</t>
+  </si>
+  <si>
+    <t>change of data and some more fine tuning</t>
   </si>
 </sst>
 </file>
@@ -1923,7 +1944,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2209,8 +2230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97:C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3050,7 +3071,7 @@
         <v>0.75</v>
       </c>
       <c r="F62" s="46">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.3">
@@ -3095,7 +3116,7 @@
         <v>0.5</v>
       </c>
       <c r="F65" s="46">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -3124,7 +3145,7 @@
       <c r="E67" s="5">
         <v>0.75</v>
       </c>
-      <c r="F67" s="71">
+      <c r="F67" s="42">
         <v>14</v>
       </c>
       <c r="G67" s="10" t="s">
@@ -3142,7 +3163,7 @@
       <c r="E68" s="5">
         <v>0.5</v>
       </c>
-      <c r="F68" s="71">
+      <c r="F68" s="42">
         <v>14</v>
       </c>
     </row>
@@ -3157,7 +3178,7 @@
       <c r="E69" s="5">
         <v>0.5</v>
       </c>
-      <c r="F69" s="71">
+      <c r="F69" s="42">
         <v>14</v>
       </c>
     </row>
@@ -3190,7 +3211,7 @@
       <c r="E72" s="19">
         <v>0.5</v>
       </c>
-      <c r="F72" s="71">
+      <c r="F72" s="42">
         <v>15</v>
       </c>
     </row>
@@ -3205,7 +3226,7 @@
       <c r="E73" s="5">
         <v>0.5</v>
       </c>
-      <c r="F73" s="71">
+      <c r="F73" s="42">
         <v>15</v>
       </c>
     </row>
@@ -3220,7 +3241,7 @@
       <c r="E74" s="5">
         <v>0.5</v>
       </c>
-      <c r="F74" s="71">
+      <c r="F74" s="42">
         <v>15</v>
       </c>
     </row>
@@ -3235,7 +3256,7 @@
       <c r="E75" s="5">
         <v>0.5</v>
       </c>
-      <c r="F75" s="71">
+      <c r="F75" s="42">
         <v>15</v>
       </c>
     </row>
@@ -4419,7 +4440,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B193" s="10" t="s">
         <v>256</v>
       </c>
@@ -4427,7 +4448,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="194" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B194" s="10" t="s">
         <v>257</v>
       </c>
@@ -4438,17 +4459,17 @@
         <v>264</v>
       </c>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B195" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B196" s="10" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B200" s="10" t="s">
         <v>143</v>
       </c>
@@ -4456,63 +4477,102 @@
         <v>268</v>
       </c>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C201" s="10" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C202" s="10" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C203" s="10" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="204" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C204" s="10" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="G204" s="10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="206" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B206" s="10" t="s">
         <v>255</v>
       </c>
       <c r="C206" s="10" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F206" s="44">
+        <v>1</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H206" s="10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="207" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F207" s="44">
+        <v>2</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H207" s="10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="208" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C208" s="10" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="F208" s="71">
+        <v>3</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H208" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="209" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F209" s="44">
+        <v>4</v>
+      </c>
+      <c r="G209" s="1"/>
+    </row>
+    <row r="210" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B210" s="10" t="s">
         <v>275</v>
       </c>
       <c r="C210" s="10" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="212" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G210" s="1"/>
+    </row>
+    <row r="212" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C212" s="10" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="214" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C214" s="10" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C215" s="10" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B217" s="10" t="s">
         <v>280</v>
       </c>
@@ -4520,12 +4580,12 @@
         <v>281</v>
       </c>
     </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C218" s="10" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B220" s="66" t="s">
         <v>283</v>
       </c>

--- a/ML-DL-LLMs ver 0.2 - session progress.xlsx
+++ b/ML-DL-LLMs ver 0.2 - session progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gridflowAI\cgi-AI-ML-GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2221A41-FD87-4359-8A6B-B9CD76BC1598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26863A8A-926A-4F28-996F-68BB73E0D6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4872" yWindow="-12504" windowWidth="18624" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36420" yWindow="-7635" windowWidth="21195" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -334,9 +334,6 @@
   </si>
   <si>
     <t>regression - ML with grad</t>
-  </si>
-  <si>
-    <t>regex &amp; pattern matching</t>
   </si>
   <si>
     <t>Embeddings - Word2vec and sent2vec
@@ -1236,9 +1233,6 @@
     <t>Use cases for last week (week 4) - to be formalized on 1st Aug 2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Use of PTM and TL for images </t>
-  </si>
-  <si>
     <t>NLP - sentiment analysis</t>
   </si>
   <si>
@@ -1252,6 +1246,31 @@
   </si>
   <si>
     <t>change of data and some more fine tuning</t>
+  </si>
+  <si>
+    <t>Use of PTM (inception v3) and TL for human faces</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>regex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &amp; pattern matching</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1869,9 +1888,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1932,8 +1948,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1944,8 +1960,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2230,13 +2249,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97:C100"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="25.77734375" style="10" customWidth="1"/>
     <col min="3" max="3" width="35.44140625" style="10" customWidth="1"/>
     <col min="4" max="4" width="23.88671875" style="10" customWidth="1"/>
@@ -2264,7 +2283,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2285,7 +2304,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -2327,7 +2346,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2343,13 +2362,13 @@
         <v>3</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F7" s="42"/>
       <c r="H7" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2369,7 +2388,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -2392,7 +2411,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2525,7 +2544,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
@@ -2649,7 +2668,7 @@
         <v>5</v>
       </c>
       <c r="G29" s="45" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
@@ -2724,8 +2743,8 @@
       <c r="E34" s="6">
         <v>2</v>
       </c>
-      <c r="F34" s="47" t="s">
-        <v>254</v>
+      <c r="F34" s="46" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -2820,7 +2839,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B42" s="4"/>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="65" t="s">
         <v>41</v>
       </c>
       <c r="D42" s="10" t="s">
@@ -2831,7 +2850,7 @@
       </c>
       <c r="F42" s="42"/>
       <c r="G42" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -2845,7 +2864,7 @@
       <c r="E43" s="6">
         <v>0.5</v>
       </c>
-      <c r="F43" s="65">
+      <c r="F43" s="64">
         <v>12</v>
       </c>
     </row>
@@ -2864,48 +2883,48 @@
       <c r="F45" s="42"/>
     </row>
     <row r="46" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B46" s="57" t="s">
+      <c r="B46" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="58" t="s">
+      <c r="C46" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="E46" s="59">
+      <c r="D46" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="58">
         <v>1</v>
       </c>
       <c r="F46" s="42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G46" s="45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B47" s="60"/>
-      <c r="E47" s="61"/>
+      <c r="B47" s="59"/>
+      <c r="E47" s="60"/>
       <c r="F47" s="42"/>
       <c r="G47" s="45" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="60"/>
-      <c r="E48" s="61"/>
+      <c r="B48" s="59"/>
+      <c r="E48" s="60"/>
       <c r="F48" s="42"/>
       <c r="G48" s="45"/>
     </row>
     <row r="49" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="62"/>
-      <c r="C49" s="63" t="s">
+      <c r="B49" s="61"/>
+      <c r="C49" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="E49" s="64">
+      <c r="D49" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="63">
         <v>1</v>
       </c>
       <c r="F49" s="42">
@@ -2922,8 +2941,8 @@
         <v>0.5</v>
       </c>
       <c r="F50" s="43"/>
-      <c r="G50" s="67" t="s">
-        <v>265</v>
+      <c r="G50" s="71" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.3">
@@ -2932,8 +2951,8 @@
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
       <c r="F51" s="42"/>
-      <c r="G51" s="10" t="s">
-        <v>266</v>
+      <c r="G51" s="30" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.3">
@@ -2950,17 +2969,17 @@
         <v>0.75</v>
       </c>
       <c r="F52" s="42"/>
-      <c r="G52" s="10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G52" s="30" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="15"/>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
       <c r="E53" s="6"/>
       <c r="F53" s="42"/>
-      <c r="G53" s="10" t="s">
+      <c r="G53" s="31" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3029,7 +3048,7 @@
         <v>13</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.3">
@@ -3070,7 +3089,7 @@
       <c r="E62" s="19">
         <v>0.75</v>
       </c>
-      <c r="F62" s="46">
+      <c r="F62" s="70">
         <v>16</v>
       </c>
     </row>
@@ -3107,7 +3126,7 @@
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B65" s="4"/>
       <c r="C65" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>43</v>
@@ -3115,7 +3134,7 @@
       <c r="E65" s="5">
         <v>0.5</v>
       </c>
-      <c r="F65" s="46">
+      <c r="F65" s="70">
         <v>16</v>
       </c>
     </row>
@@ -3149,7 +3168,7 @@
         <v>14</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -3271,7 +3290,7 @@
       <c r="E76" s="5">
         <v>0.5</v>
       </c>
-      <c r="F76" s="46">
+      <c r="F76" s="70">
         <v>16</v>
       </c>
     </row>
@@ -3316,7 +3335,9 @@
       <c r="E80" s="19">
         <v>0.75</v>
       </c>
-      <c r="F80" s="42"/>
+      <c r="F80" s="42">
+        <v>16</v>
+      </c>
     </row>
     <row r="81" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B81" s="4"/>
@@ -3329,12 +3350,14 @@
       <c r="E81" s="5">
         <v>0.75</v>
       </c>
-      <c r="F81" s="42"/>
+      <c r="F81" s="42">
+        <v>16</v>
+      </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B82" s="4"/>
       <c r="C82" s="10" t="s">
-        <v>99</v>
+        <v>292</v>
       </c>
       <c r="E82" s="5">
         <v>0.75</v>
@@ -3523,7 +3546,7 @@
     <row r="99" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B99" s="4"/>
       <c r="C99" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E99" s="5">
         <v>0.5</v>
@@ -3533,7 +3556,7 @@
     <row r="100" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B100" s="4"/>
       <c r="C100" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E100" s="5">
         <v>0.5</v>
@@ -3602,7 +3625,7 @@
     <row r="106" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B106" s="4"/>
       <c r="C106" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E106" s="5">
         <v>0.5</v>
@@ -3612,7 +3635,7 @@
     <row r="107" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B107" s="4"/>
       <c r="C107" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E107" s="5">
         <v>0.5</v>
@@ -3622,7 +3645,7 @@
     <row r="108" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B108" s="4"/>
       <c r="C108" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E108" s="5">
         <v>0.25</v>
@@ -3632,7 +3655,7 @@
     <row r="109" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B109" s="4"/>
       <c r="C109" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E109" s="5">
         <v>0.5</v>
@@ -3642,7 +3665,7 @@
     <row r="110" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B110" s="4"/>
       <c r="C110" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E110" s="5">
         <v>1</v>
@@ -3651,10 +3674,10 @@
     </row>
     <row r="111" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B111" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E111" s="5">
         <v>1</v>
@@ -3663,10 +3686,10 @@
     </row>
     <row r="112" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B112" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C112" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>104</v>
       </c>
       <c r="E112" s="5">
         <v>0.25</v>
@@ -3676,7 +3699,7 @@
     <row r="113" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B113" s="13"/>
       <c r="C113" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E113" s="5">
         <v>0.25</v>
@@ -3686,33 +3709,33 @@
     <row r="114" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B114" s="13"/>
       <c r="C114" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E114" s="5">
         <v>0.5</v>
       </c>
       <c r="F114" s="42"/>
       <c r="G114" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="115" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B115" s="13"/>
       <c r="C115" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E115" s="5">
         <v>0.25</v>
       </c>
       <c r="F115" s="42"/>
       <c r="G115" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B116" s="13"/>
       <c r="C116" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E116" s="5">
         <v>0.25</v>
@@ -3722,7 +3745,7 @@
     <row r="117" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B117" s="13"/>
       <c r="C117" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E117" s="5">
         <v>0.25</v>
@@ -3732,7 +3755,7 @@
     <row r="118" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B118" s="13"/>
       <c r="C118" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E118" s="5">
         <v>0.25</v>
@@ -3742,7 +3765,7 @@
     <row r="119" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B119" s="13"/>
       <c r="C119" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E119" s="5">
         <v>0.25</v>
@@ -3752,7 +3775,7 @@
     <row r="120" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B120" s="13"/>
       <c r="C120" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E120" s="5">
         <v>0.25</v>
@@ -3762,7 +3785,7 @@
     <row r="121" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B121" s="13"/>
       <c r="C121" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E121" s="5">
         <v>0.5</v>
@@ -3772,7 +3795,7 @@
     <row r="122" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B122" s="13"/>
       <c r="C122" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E122" s="5">
         <v>1</v>
@@ -3781,10 +3804,10 @@
     </row>
     <row r="123" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B123" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C123" s="10" t="s">
         <v>116</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>117</v>
       </c>
       <c r="E123" s="5">
         <v>0.25</v>
@@ -3794,7 +3817,7 @@
     <row r="124" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B124" s="13"/>
       <c r="C124" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E124" s="5">
         <v>0.5</v>
@@ -3809,7 +3832,7 @@
     <row r="126" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B126" s="13"/>
       <c r="C126" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E126" s="5">
         <v>0.5</v>
@@ -3819,7 +3842,7 @@
     <row r="127" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B127" s="13"/>
       <c r="C127" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E127" s="5">
         <v>1</v>
@@ -3829,7 +3852,7 @@
     <row r="128" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B128" s="13"/>
       <c r="C128" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E128" s="5">
         <v>1</v>
@@ -3844,7 +3867,7 @@
     <row r="130" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B130" s="13"/>
       <c r="C130" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E130" s="5">
         <v>0.25</v>
@@ -3854,7 +3877,7 @@
     <row r="131" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B131" s="13"/>
       <c r="C131" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E131" s="5">
         <v>1</v>
@@ -3864,7 +3887,7 @@
     <row r="132" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B132" s="13"/>
       <c r="C132" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E132" s="5">
         <v>1</v>
@@ -3874,7 +3897,7 @@
     <row r="133" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B133" s="13"/>
       <c r="C133" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E133" s="5">
         <v>0.5</v>
@@ -3884,7 +3907,7 @@
     <row r="134" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B134" s="13"/>
       <c r="C134" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E134" s="5">
         <v>1</v>
@@ -3898,10 +3921,10 @@
     </row>
     <row r="136" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B136" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C136" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="C136" s="10" t="s">
-        <v>126</v>
       </c>
       <c r="E136" s="5">
         <v>0.75</v>
@@ -3910,10 +3933,10 @@
     </row>
     <row r="137" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B137" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E137" s="5">
         <v>1.5</v>
@@ -3923,7 +3946,7 @@
     <row r="138" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B138" s="13"/>
       <c r="C138" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E138" s="5">
         <v>1.5</v>
@@ -3933,7 +3956,7 @@
     <row r="139" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B139" s="13"/>
       <c r="C139" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E139" s="5">
         <v>0.5</v>
@@ -3943,7 +3966,7 @@
     <row r="140" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B140" s="13"/>
       <c r="C140" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E140" s="5">
         <v>0.5</v>
@@ -3953,7 +3976,7 @@
     <row r="141" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B141" s="13"/>
       <c r="C141" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E141" s="5">
         <v>1.5</v>
@@ -3962,10 +3985,10 @@
     </row>
     <row r="142" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B142" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C142" s="10" t="s">
         <v>132</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>133</v>
       </c>
       <c r="E142" s="5">
         <v>1</v>
@@ -3979,10 +4002,10 @@
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B144" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C144" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E144" s="5">
         <v>1</v>
@@ -3992,7 +4015,7 @@
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B145" s="15"/>
       <c r="C145" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D145" s="16"/>
       <c r="E145" s="6">
@@ -4009,13 +4032,13 @@
     </row>
     <row r="147" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B147" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B147" s="12" t="s">
+      <c r="C147" s="14" t="s">
         <v>140</v>
-      </c>
-      <c r="C147" s="14" t="s">
-        <v>141</v>
       </c>
       <c r="D147" s="14"/>
       <c r="E147" s="19">
@@ -4027,7 +4050,7 @@
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E148" s="5">
         <v>1</v>
@@ -4038,7 +4061,7 @@
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E149" s="5">
         <v>0.5</v>
@@ -4049,7 +4072,7 @@
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E150" s="5">
         <v>1</v>
@@ -4060,7 +4083,7 @@
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E151" s="5">
         <v>2</v>
@@ -4070,10 +4093,10 @@
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="4"/>
       <c r="B152" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C152" s="10" t="s">
         <v>146</v>
-      </c>
-      <c r="C152" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="E152" s="5">
         <v>2</v>
@@ -4083,10 +4106,10 @@
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="15"/>
       <c r="B153" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C153" s="16" t="s">
         <v>148</v>
-      </c>
-      <c r="C153" s="16" t="s">
-        <v>149</v>
       </c>
       <c r="D153" s="16"/>
       <c r="E153" s="6">
@@ -4110,158 +4133,158 @@
     </row>
     <row r="156" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="B156" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="B156" s="28" t="s">
+      <c r="C156" s="28" t="s">
         <v>184</v>
-      </c>
-      <c r="C156" s="28" t="s">
-        <v>185</v>
       </c>
       <c r="F156" s="42"/>
     </row>
     <row r="157" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A157" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B157" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="C157" s="68" t="s">
-        <v>194</v>
+        <v>187</v>
+      </c>
+      <c r="C157" s="67" t="s">
+        <v>193</v>
       </c>
       <c r="F157" s="42"/>
     </row>
     <row r="158" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A158" s="29"/>
       <c r="B158" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="C158" s="69"/>
+        <v>188</v>
+      </c>
+      <c r="C158" s="68"/>
       <c r="F158" s="42"/>
     </row>
     <row r="159" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A159" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B159" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="C159" s="69"/>
+        <v>189</v>
+      </c>
+      <c r="C159" s="68"/>
       <c r="F159" s="42"/>
     </row>
     <row r="160" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A160" s="30"/>
       <c r="B160" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="C160" s="69"/>
+        <v>190</v>
+      </c>
+      <c r="C160" s="68"/>
       <c r="F160" s="42"/>
     </row>
     <row r="161" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A161" s="30"/>
       <c r="B161" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="C161" s="69"/>
+        <v>191</v>
+      </c>
+      <c r="C161" s="68"/>
       <c r="F161" s="42"/>
     </row>
     <row r="162" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="31"/>
       <c r="B162" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="C162" s="70"/>
+        <v>192</v>
+      </c>
+      <c r="C162" s="69"/>
       <c r="F162" s="42"/>
     </row>
     <row r="163" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A163" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B163" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="C163" s="68" t="s">
-        <v>194</v>
+        <v>196</v>
+      </c>
+      <c r="C163" s="67" t="s">
+        <v>193</v>
       </c>
       <c r="F163" s="42"/>
     </row>
     <row r="164" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A164" s="29"/>
       <c r="B164" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="C164" s="69"/>
+        <v>197</v>
+      </c>
+      <c r="C164" s="68"/>
       <c r="F164" s="42"/>
     </row>
     <row r="165" spans="1:6" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B165" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="C165" s="70"/>
+        <v>198</v>
+      </c>
+      <c r="C165" s="69"/>
       <c r="F165" s="42"/>
     </row>
     <row r="166" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A166" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B166" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="C166" s="68" t="s">
-        <v>194</v>
+        <v>201</v>
+      </c>
+      <c r="C166" s="67" t="s">
+        <v>193</v>
       </c>
       <c r="F166" s="42"/>
     </row>
     <row r="167" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A167" s="29"/>
       <c r="B167" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="C167" s="69"/>
+        <v>202</v>
+      </c>
+      <c r="C167" s="68"/>
       <c r="F167" s="42"/>
     </row>
     <row r="168" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B168" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="C168" s="70"/>
+        <v>203</v>
+      </c>
+      <c r="C168" s="69"/>
       <c r="F168" s="42"/>
     </row>
     <row r="169" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A169" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B169" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="C169" s="68" t="s">
-        <v>210</v>
+        <v>206</v>
+      </c>
+      <c r="C169" s="67" t="s">
+        <v>209</v>
       </c>
       <c r="F169" s="42"/>
     </row>
     <row r="170" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A170" s="29"/>
       <c r="B170" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="C170" s="69"/>
+        <v>207</v>
+      </c>
+      <c r="C170" s="68"/>
       <c r="F170" s="42"/>
     </row>
     <row r="171" spans="1:6" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B171" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="C171" s="70"/>
+        <v>208</v>
+      </c>
+      <c r="C171" s="69"/>
       <c r="F171" s="42"/>
     </row>
     <row r="172" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4271,14 +4294,14 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B173"/>
       <c r="C173"/>
     </row>
     <row r="174" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A174" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B174"/>
       <c r="C174"/>
@@ -4290,173 +4313,173 @@
     </row>
     <row r="176" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B176" s="38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C176"/>
     </row>
     <row r="177" spans="1:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B177" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C177"/>
     </row>
     <row r="178" spans="1:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B178" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C178"/>
     </row>
     <row r="179" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B179" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C179"/>
     </row>
     <row r="180" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B180" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C180"/>
     </row>
     <row r="182" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="183" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B183" s="48" t="s">
+      <c r="B183" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="C183" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="C183" s="49" t="s">
+      <c r="D183" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="D183" s="49" t="s">
+      <c r="E183" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="E183" s="50" t="s">
+      <c r="G183" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="G183" s="10" t="s">
+    </row>
+    <row r="184" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="B184" s="50" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" ht="21" x14ac:dyDescent="0.3">
-      <c r="B184" s="51" t="s">
+      <c r="C184" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="C184" s="52" t="s">
+      <c r="D184" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="D184" s="52" t="s">
+      <c r="E184" s="52" t="s">
         <v>233</v>
       </c>
-      <c r="E184" s="53" t="s">
+    </row>
+    <row r="185" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="B185" s="50" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" ht="21" x14ac:dyDescent="0.3">
-      <c r="B185" s="51" t="s">
+      <c r="C185" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="C185" s="52" t="s">
+      <c r="D185" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="D185" s="52" t="s">
+      <c r="E185" s="52" t="s">
         <v>237</v>
       </c>
-      <c r="E185" s="53" t="s">
+    </row>
+    <row r="186" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="B186" s="50" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" ht="21" x14ac:dyDescent="0.3">
-      <c r="B186" s="51" t="s">
+      <c r="C186" s="51" t="s">
+        <v>240</v>
+      </c>
+      <c r="D186" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="E186" s="52" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="B187" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="C186" s="52" t="s">
-        <v>241</v>
-      </c>
-      <c r="D186" s="52" t="s">
+      <c r="C187" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="D187" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="E186" s="53" t="s">
+      <c r="E187" s="52" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="21" x14ac:dyDescent="0.3">
-      <c r="B187" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="C187" s="52" t="s">
+    <row r="188" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B188" s="53" t="s">
+        <v>243</v>
+      </c>
+      <c r="C188" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="D188" s="54"/>
+      <c r="E188" s="55" t="s">
         <v>247</v>
-      </c>
-      <c r="D187" s="52" t="s">
-        <v>246</v>
-      </c>
-      <c r="E187" s="53" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B188" s="54" t="s">
-        <v>244</v>
-      </c>
-      <c r="C188" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="D188" s="55"/>
-      <c r="E188" s="56" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C190" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B191" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B192" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B193" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="194" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B194" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D194" s="45" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.3">
@@ -4466,55 +4489,55 @@
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B196" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B200" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C201" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C202" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C203" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="204" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C204" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="G204" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="206" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B206" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C206" s="10" t="s">
         <v>272</v>
-      </c>
-      <c r="G204" s="10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B206" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C206" s="10" t="s">
-        <v>273</v>
       </c>
       <c r="F206" s="44">
         <v>1</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H206" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.3">
@@ -4522,24 +4545,24 @@
         <v>2</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H207" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="208" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C208" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="F208" s="71">
+        <v>273</v>
+      </c>
+      <c r="F208" s="66">
         <v>3</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H208" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="209" spans="2:7" x14ac:dyDescent="0.3">
@@ -4550,44 +4573,44 @@
     </row>
     <row r="210" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B210" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C210" s="10" t="s">
         <v>275</v>
-      </c>
-      <c r="C210" s="10" t="s">
-        <v>276</v>
       </c>
       <c r="G210" s="1"/>
     </row>
     <row r="212" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C212" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="214" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C214" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="215" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C215" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="217" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B217" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C217" s="10" t="s">
         <v>280</v>
-      </c>
-      <c r="C217" s="10" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="218" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C218" s="10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="220" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B220" s="65" t="s">
         <v>282</v>
-      </c>
-    </row>
-    <row r="220" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B220" s="66" t="s">
-        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -4627,162 +4650,162 @@
   <sheetData>
     <row r="2" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" t="s">
         <v>169</v>
-      </c>
-      <c r="D18" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/ML-DL-LLMs ver 0.2 - session progress.xlsx
+++ b/ML-DL-LLMs ver 0.2 - session progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gridflowAI\cgi-AI-ML-GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26863A8A-926A-4F28-996F-68BB73E0D6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9AEABA-71A5-4CB6-802D-51C6F51C3975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36420" yWindow="-7635" windowWidth="21195" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1776" yWindow="-12840" windowWidth="20052" windowHeight="11904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1751,7 +1751,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1951,6 +1951,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1959,12 +1962,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2249,8 +2246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F147" sqref="F147"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2941,7 +2938,7 @@
         <v>0.5</v>
       </c>
       <c r="F50" s="43"/>
-      <c r="G50" s="71" t="s">
+      <c r="G50" s="67" t="s">
         <v>264</v>
       </c>
     </row>
@@ -3089,7 +3086,7 @@
       <c r="E62" s="19">
         <v>0.75</v>
       </c>
-      <c r="F62" s="70">
+      <c r="F62" s="42">
         <v>16</v>
       </c>
     </row>
@@ -3134,7 +3131,7 @@
       <c r="E65" s="5">
         <v>0.5</v>
       </c>
-      <c r="F65" s="70">
+      <c r="F65" s="42">
         <v>16</v>
       </c>
     </row>
@@ -3290,7 +3287,7 @@
       <c r="E76" s="5">
         <v>0.5</v>
       </c>
-      <c r="F76" s="70">
+      <c r="F76" s="42">
         <v>16</v>
       </c>
     </row>
@@ -3336,7 +3333,7 @@
         <v>0.75</v>
       </c>
       <c r="F80" s="42">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -3351,7 +3348,7 @@
         <v>0.75</v>
       </c>
       <c r="F81" s="42">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -4150,7 +4147,7 @@
       <c r="B157" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="C157" s="67" t="s">
+      <c r="C157" s="68" t="s">
         <v>193</v>
       </c>
       <c r="F157" s="42"/>
@@ -4160,17 +4157,17 @@
       <c r="B158" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="C158" s="68"/>
+      <c r="C158" s="69"/>
       <c r="F158" s="42"/>
     </row>
-    <row r="159" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A159" s="29" t="s">
         <v>186</v>
       </c>
       <c r="B159" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="C159" s="68"/>
+      <c r="C159" s="69"/>
       <c r="F159" s="42"/>
     </row>
     <row r="160" spans="1:7" ht="18" x14ac:dyDescent="0.3">
@@ -4178,7 +4175,7 @@
       <c r="B160" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C160" s="68"/>
+      <c r="C160" s="69"/>
       <c r="F160" s="42"/>
     </row>
     <row r="161" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4186,7 +4183,7 @@
       <c r="B161" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="C161" s="68"/>
+      <c r="C161" s="69"/>
       <c r="F161" s="42"/>
     </row>
     <row r="162" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4194,7 +4191,7 @@
       <c r="B162" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="C162" s="69"/>
+      <c r="C162" s="70"/>
       <c r="F162" s="42"/>
     </row>
     <row r="163" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4204,7 +4201,7 @@
       <c r="B163" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="C163" s="67" t="s">
+      <c r="C163" s="68" t="s">
         <v>193</v>
       </c>
       <c r="F163" s="42"/>
@@ -4214,7 +4211,7 @@
       <c r="B164" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="C164" s="68"/>
+      <c r="C164" s="69"/>
       <c r="F164" s="42"/>
     </row>
     <row r="165" spans="1:6" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4224,7 +4221,7 @@
       <c r="B165" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="C165" s="69"/>
+      <c r="C165" s="70"/>
       <c r="F165" s="42"/>
     </row>
     <row r="166" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4234,7 +4231,7 @@
       <c r="B166" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="C166" s="67" t="s">
+      <c r="C166" s="68" t="s">
         <v>193</v>
       </c>
       <c r="F166" s="42"/>
@@ -4244,7 +4241,7 @@
       <c r="B167" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="C167" s="68"/>
+      <c r="C167" s="69"/>
       <c r="F167" s="42"/>
     </row>
     <row r="168" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4254,7 +4251,7 @@
       <c r="B168" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="C168" s="69"/>
+      <c r="C168" s="70"/>
       <c r="F168" s="42"/>
     </row>
     <row r="169" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4264,7 +4261,7 @@
       <c r="B169" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="C169" s="67" t="s">
+      <c r="C169" s="68" t="s">
         <v>209</v>
       </c>
       <c r="F169" s="42"/>
@@ -4274,17 +4271,17 @@
       <c r="B170" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="C170" s="68"/>
+      <c r="C170" s="69"/>
       <c r="F170" s="42"/>
     </row>
-    <row r="171" spans="1:6" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="34" t="s">
         <v>205</v>
       </c>
       <c r="B171" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="C171" s="69"/>
+      <c r="C171" s="70"/>
       <c r="F171" s="42"/>
     </row>
     <row r="172" spans="1:6" ht="18" x14ac:dyDescent="0.3">

--- a/ML-DL-LLMs ver 0.2 - session progress.xlsx
+++ b/ML-DL-LLMs ver 0.2 - session progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gridflowAI\cgi-AI-ML-GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9AEABA-71A5-4CB6-802D-51C6F51C3975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CD0D0A-ECC3-4E5D-BFB5-1CCB895343DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1776" yWindow="-12840" windowWidth="20052" windowHeight="11904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21045" yWindow="-15765" windowWidth="22815" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="300">
   <si>
     <t>AI Fundamentatals</t>
   </si>
@@ -1233,9 +1233,6 @@
     <t>Use cases for last week (week 4) - to be formalized on 1st Aug 2024</t>
   </si>
   <si>
-    <t>NLP - sentiment analysis</t>
-  </si>
-  <si>
     <t>NLP - Resume scanning</t>
   </si>
   <si>
@@ -1271,6 +1268,31 @@
       </rPr>
       <t xml:space="preserve"> &amp; pattern matching</t>
     </r>
+  </si>
+  <si>
+    <t>NLP - sentiment analysis (custom , preprocess)</t>
+  </si>
+  <si>
+    <t>NLP - sentiment analysis (curated data, Seauence models)</t>
+  </si>
+  <si>
+    <t>Image gen, Anomaly detection (AE, VAE, GAN)</t>
+  </si>
+  <si>
+    <t>AE/VAE/GAN</t>
+  </si>
+  <si>
+    <t>KPE</t>
+  </si>
+  <si>
+    <t>SA (Keras, DL models)</t>
+  </si>
+  <si>
+    <t>Lakshmi</t>
+  </si>
+  <si>
+    <t>SA (Custom)
+Use of PTM (inception v3)</t>
   </si>
 </sst>
 </file>
@@ -1751,7 +1773,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1962,6 +1984,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2244,10 +2269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView tabSelected="1" topLeftCell="A213" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D222" sqref="D222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2258,7 +2283,7 @@
     <col min="4" max="4" width="23.88671875" style="10" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" style="10" customWidth="1"/>
     <col min="6" max="6" width="13" style="44" customWidth="1"/>
-    <col min="7" max="7" width="38" style="10" customWidth="1"/>
+    <col min="7" max="7" width="42.77734375" style="10" customWidth="1"/>
     <col min="8" max="8" width="48.5546875" style="10" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="10"/>
   </cols>
@@ -3354,7 +3379,7 @@
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B82" s="4"/>
       <c r="C82" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E82" s="5">
         <v>0.75</v>
@@ -4520,32 +4545,26 @@
         <v>285</v>
       </c>
     </row>
-    <row r="206" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B206" s="10" t="s">
         <v>254</v>
       </c>
       <c r="C206" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="F206" s="44">
-        <v>1</v>
-      </c>
-      <c r="G206" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="H206" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F207" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="H207" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="208" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4553,20 +4572,22 @@
         <v>273</v>
       </c>
       <c r="F208" s="66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G208" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H208" s="10" t="s">
         <v>287</v>
-      </c>
-      <c r="H208" s="10" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="209" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F209" s="44">
-        <v>4</v>
-      </c>
-      <c r="G209" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="210" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B210" s="10" t="s">
@@ -4575,7 +4596,20 @@
       <c r="C210" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="G210" s="1"/>
+      <c r="F210" s="66">
+        <v>4</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="211" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F211" s="44">
+        <v>5</v>
+      </c>
+      <c r="G211" s="71" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="212" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C212" s="10" t="s">
@@ -4608,6 +4642,102 @@
     <row r="220" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B220" s="65" t="s">
         <v>282</v>
+      </c>
+    </row>
+    <row r="222" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B222" s="71" t="s">
+        <v>299</v>
+      </c>
+      <c r="C222" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="D222" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="E222" s="71" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="223" spans="2:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="B223" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="C223" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="D223" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="E223" s="49" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="224" spans="2:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="B224" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="C224" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="D224" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="E224" s="52" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="B225" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="C225" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="D225" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="E225" s="52" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="B226" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="C226" s="51" t="s">
+        <v>240</v>
+      </c>
+      <c r="D226" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="E226" s="52" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="227" spans="2:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="B227" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="C227" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="D227" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="E227" s="52" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="228" spans="2:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B228" s="53" t="s">
+        <v>243</v>
+      </c>
+      <c r="C228" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="D228" s="50"/>
+      <c r="E228" s="55" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/ML-DL-LLMs ver 0.2 - session progress.xlsx
+++ b/ML-DL-LLMs ver 0.2 - session progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gridflowAI\cgi-AI-ML-GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CD0D0A-ECC3-4E5D-BFB5-1CCB895343DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D779EA1-AE7A-4D1F-BC57-EA20D377E963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21045" yWindow="-15765" windowWidth="22815" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17430" yWindow="-16395" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1248,10 +1248,35 @@
     <t>Use of PTM (inception v3) and TL for human faces</t>
   </si>
   <si>
+    <t>NLP - sentiment analysis (custom , preprocess)</t>
+  </si>
+  <si>
+    <t>NLP - sentiment analysis (curated data, Seauence models)</t>
+  </si>
+  <si>
+    <t>Image gen, Anomaly detection (AE, VAE, GAN)</t>
+  </si>
+  <si>
+    <t>AE/VAE/GAN</t>
+  </si>
+  <si>
+    <t>KPE</t>
+  </si>
+  <si>
+    <t>SA (Keras, DL models)</t>
+  </si>
+  <si>
+    <t>Lakshmi</t>
+  </si>
+  <si>
+    <t>SA (Custom)
+Use of PTM (inception v3)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-0.499984740745262"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1269,37 +1294,12 @@
       <t xml:space="preserve"> &amp; pattern matching</t>
     </r>
   </si>
-  <si>
-    <t>NLP - sentiment analysis (custom , preprocess)</t>
-  </si>
-  <si>
-    <t>NLP - sentiment analysis (curated data, Seauence models)</t>
-  </si>
-  <si>
-    <t>Image gen, Anomaly detection (AE, VAE, GAN)</t>
-  </si>
-  <si>
-    <t>AE/VAE/GAN</t>
-  </si>
-  <si>
-    <t>KPE</t>
-  </si>
-  <si>
-    <t>SA (Keras, DL models)</t>
-  </si>
-  <si>
-    <t>Lakshmi</t>
-  </si>
-  <si>
-    <t>SA (Custom)
-Use of PTM (inception v3)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1444,6 +1444,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1976,6 +1983,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1984,9 +1994,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2271,8 +2278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D222" sqref="D222"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3379,12 +3386,14 @@
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B82" s="4"/>
       <c r="C82" s="10" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="E82" s="5">
         <v>0.75</v>
       </c>
-      <c r="F82" s="42"/>
+      <c r="F82" s="42">
+        <v>18</v>
+      </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B83" s="4"/>
@@ -3397,7 +3406,9 @@
       <c r="E83" s="5">
         <v>1</v>
       </c>
-      <c r="F83" s="42"/>
+      <c r="F83" s="42">
+        <v>18</v>
+      </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B84" s="4"/>
@@ -3423,7 +3434,9 @@
       <c r="E85" s="5">
         <v>1</v>
       </c>
-      <c r="F85" s="42"/>
+      <c r="F85" s="42">
+        <v>18</v>
+      </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B86" s="4"/>
@@ -4172,7 +4185,7 @@
       <c r="B157" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="C157" s="68" t="s">
+      <c r="C157" s="69" t="s">
         <v>193</v>
       </c>
       <c r="F157" s="42"/>
@@ -4182,7 +4195,7 @@
       <c r="B158" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="C158" s="69"/>
+      <c r="C158" s="70"/>
       <c r="F158" s="42"/>
     </row>
     <row r="159" spans="1:7" ht="54" x14ac:dyDescent="0.3">
@@ -4192,7 +4205,7 @@
       <c r="B159" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="C159" s="69"/>
+      <c r="C159" s="70"/>
       <c r="F159" s="42"/>
     </row>
     <row r="160" spans="1:7" ht="18" x14ac:dyDescent="0.3">
@@ -4200,7 +4213,7 @@
       <c r="B160" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C160" s="69"/>
+      <c r="C160" s="70"/>
       <c r="F160" s="42"/>
     </row>
     <row r="161" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4208,7 +4221,7 @@
       <c r="B161" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="C161" s="69"/>
+      <c r="C161" s="70"/>
       <c r="F161" s="42"/>
     </row>
     <row r="162" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4216,7 +4229,7 @@
       <c r="B162" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="C162" s="70"/>
+      <c r="C162" s="71"/>
       <c r="F162" s="42"/>
     </row>
     <row r="163" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4226,7 +4239,7 @@
       <c r="B163" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="C163" s="68" t="s">
+      <c r="C163" s="69" t="s">
         <v>193</v>
       </c>
       <c r="F163" s="42"/>
@@ -4236,7 +4249,7 @@
       <c r="B164" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="C164" s="69"/>
+      <c r="C164" s="70"/>
       <c r="F164" s="42"/>
     </row>
     <row r="165" spans="1:6" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4246,7 +4259,7 @@
       <c r="B165" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="C165" s="70"/>
+      <c r="C165" s="71"/>
       <c r="F165" s="42"/>
     </row>
     <row r="166" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4256,7 +4269,7 @@
       <c r="B166" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="C166" s="68" t="s">
+      <c r="C166" s="69" t="s">
         <v>193</v>
       </c>
       <c r="F166" s="42"/>
@@ -4266,7 +4279,7 @@
       <c r="B167" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="C167" s="69"/>
+      <c r="C167" s="70"/>
       <c r="F167" s="42"/>
     </row>
     <row r="168" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4276,7 +4289,7 @@
       <c r="B168" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="C168" s="70"/>
+      <c r="C168" s="71"/>
       <c r="F168" s="42"/>
     </row>
     <row r="169" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4286,7 +4299,7 @@
       <c r="B169" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="C169" s="68" t="s">
+      <c r="C169" s="69" t="s">
         <v>209</v>
       </c>
       <c r="F169" s="42"/>
@@ -4296,7 +4309,7 @@
       <c r="B170" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="C170" s="69"/>
+      <c r="C170" s="70"/>
       <c r="F170" s="42"/>
     </row>
     <row r="171" spans="1:6" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4306,7 +4319,7 @@
       <c r="B171" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="C171" s="70"/>
+      <c r="C171" s="71"/>
       <c r="F171" s="42"/>
     </row>
     <row r="172" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4561,7 +4574,7 @@
         <v>1</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H207" s="10" t="s">
         <v>288</v>
@@ -4575,7 +4588,7 @@
         <v>2</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H208" s="10" t="s">
         <v>287</v>
@@ -4600,14 +4613,14 @@
         <v>4</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="211" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F211" s="44">
         <v>5</v>
       </c>
-      <c r="G211" s="71" t="s">
+      <c r="G211" s="68" t="s">
         <v>290</v>
       </c>
     </row>
@@ -4645,17 +4658,17 @@
       </c>
     </row>
     <row r="222" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B222" s="71" t="s">
-        <v>299</v>
-      </c>
-      <c r="C222" s="71" t="s">
+      <c r="B222" s="68" t="s">
+        <v>298</v>
+      </c>
+      <c r="C222" s="68" t="s">
+        <v>295</v>
+      </c>
+      <c r="D222" s="68" t="s">
+        <v>294</v>
+      </c>
+      <c r="E222" s="68" t="s">
         <v>296</v>
-      </c>
-      <c r="D222" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="E222" s="71" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="223" spans="2:7" ht="21" x14ac:dyDescent="0.3">
@@ -4716,7 +4729,7 @@
     </row>
     <row r="227" spans="2:5" ht="21" x14ac:dyDescent="0.3">
       <c r="B227" s="50" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C227" s="51" t="s">
         <v>246</v>

--- a/ML-DL-LLMs ver 0.2 - session progress.xlsx
+++ b/ML-DL-LLMs ver 0.2 - session progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gridflowAI\cgi-AI-ML-GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D779EA1-AE7A-4D1F-BC57-EA20D377E963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC147EB-9BF3-457F-95DD-3B5199940FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17430" yWindow="-16395" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-4680" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="303">
   <si>
     <t>AI Fundamentatals</t>
   </si>
@@ -298,9 +298,6 @@
   </si>
   <si>
     <t>Using AWS</t>
-  </si>
-  <si>
-    <t>Vectorization</t>
   </si>
   <si>
     <t>Applications</t>
@@ -1294,12 +1291,29 @@
       <t xml:space="preserve"> &amp; pattern matching</t>
     </r>
   </si>
+  <si>
+    <t>Vectorization &amp; embeddings</t>
+  </si>
+  <si>
+    <t>Using embedding layer in Keras</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vanilla inception
+- Optimization (drop out, es, validation)
+- augmentation
+- Full TL
+- Fine tuning (specific layers of inception)
+- Metric for evaluation (new) </t>
+  </si>
+  <si>
+    <t>Key Phrase extraction (method)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1447,6 +1461,14 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1780,7 +1802,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1986,6 +2008,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1994,6 +2019,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2276,10 +2304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H84" sqref="H84"/>
+    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G214" sqref="G214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2312,7 +2340,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2326,14 +2354,14 @@
         <v>4</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="42">
         <v>1</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -2342,7 +2370,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="42">
@@ -2355,7 +2383,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="42">
@@ -2368,36 +2396,36 @@
         <v>10</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="42">
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="15"/>
       <c r="C6" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="42">
         <v>3</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F7" s="42"/>
       <c r="H7" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2405,10 +2433,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>91</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>92</v>
       </c>
       <c r="E8" s="18">
         <v>0.5</v>
@@ -2417,7 +2445,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -2431,7 +2459,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="19">
         <v>0</v>
@@ -2440,7 +2468,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2464,7 +2492,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="42">
@@ -2477,7 +2505,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="42">
@@ -2505,7 +2533,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="42">
@@ -2544,7 +2572,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -2573,7 +2601,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
@@ -2668,7 +2696,7 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -2697,7 +2725,7 @@
         <v>5</v>
       </c>
       <c r="G29" s="45" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
@@ -2773,12 +2801,12 @@
         <v>2</v>
       </c>
       <c r="F34" s="46" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B35" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -2879,7 +2907,7 @@
       </c>
       <c r="F42" s="42"/>
       <c r="G42" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -2899,7 +2927,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -2913,7 +2941,7 @@
     </row>
     <row r="46" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B46" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C46" s="57" t="s">
         <v>45</v>
@@ -2925,10 +2953,10 @@
         <v>1</v>
       </c>
       <c r="F46" s="42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G46" s="45" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -2936,7 +2964,7 @@
       <c r="E47" s="60"/>
       <c r="F47" s="42"/>
       <c r="G47" s="45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -2962,7 +2990,7 @@
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -2971,7 +2999,7 @@
       </c>
       <c r="F50" s="43"/>
       <c r="G50" s="67" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.3">
@@ -2981,15 +3009,15 @@
       <c r="E51" s="20"/>
       <c r="F51" s="42"/>
       <c r="G51" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>43</v>
@@ -2999,7 +3027,7 @@
       </c>
       <c r="F52" s="42"/>
       <c r="G52" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="53" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3014,7 +3042,7 @@
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -3077,13 +3105,13 @@
         <v>13</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="9"/>
       <c r="C59" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>43</v>
@@ -3155,7 +3183,7 @@
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B65" s="4"/>
       <c r="C65" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>43</v>
@@ -3197,7 +3225,7 @@
         <v>14</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -3332,7 +3360,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B78" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
@@ -3368,7 +3396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B81" s="4"/>
       <c r="C81" s="10" t="s">
         <v>72</v>
@@ -3383,10 +3411,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="4"/>
       <c r="C82" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E82" s="5">
         <v>0.75</v>
@@ -3395,7 +3423,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="4"/>
       <c r="C83" s="10" t="s">
         <v>73</v>
@@ -3410,23 +3438,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B84" s="4"/>
-      <c r="C84" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E84" s="5">
-        <v>1</v>
-      </c>
-      <c r="F84" s="42"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="4"/>
       <c r="C85" s="10" t="s">
-        <v>87</v>
+        <v>299</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>43</v>
@@ -3438,216 +3453,212 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" s="4"/>
+      <c r="C86" s="10" t="s">
+        <v>300</v>
+      </c>
       <c r="E86" s="5"/>
-      <c r="F86" s="42"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B87" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="F86" s="69">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B87" s="4"/>
       <c r="C87" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E87" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F87" s="42"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="E87" s="5"/>
+      <c r="F87" s="69">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="4"/>
       <c r="C88" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E88" s="5">
+        <v>1</v>
+      </c>
+      <c r="F88" s="69">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B89" s="4"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="64"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B90" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E90" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F90" s="42"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B91" s="4"/>
+      <c r="C91" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D88" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E88" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F88" s="42"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B89" s="4"/>
-      <c r="C89" s="10" t="s">
+      <c r="D91" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E91" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F91" s="42"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B92" s="4"/>
+      <c r="C92" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D89" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E89" s="5">
+      <c r="D92" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E92" s="5">
         <v>0.75</v>
       </c>
-      <c r="F89" s="42"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B90" s="4"/>
-      <c r="C90" s="10" t="s">
+      <c r="F92" s="42"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B93" s="4"/>
+      <c r="C93" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D90" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E90" s="5">
+      <c r="D93" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E93" s="5">
         <v>1</v>
       </c>
-      <c r="F90" s="42"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B91" s="4"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="42"/>
-    </row>
-    <row r="92" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B92" s="4" t="s">
+      <c r="F93" s="42"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B94" s="4"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="42"/>
+    </row>
+    <row r="95" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B95" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C95" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="D95" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E92" s="5">
+      <c r="E95" s="5">
         <v>1.5</v>
       </c>
-      <c r="F92" s="42"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B93" s="15"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="42"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B94" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="F94" s="43"/>
-      <c r="G94" s="1">
-        <f>SUM(E80:E94)</f>
+      <c r="F95" s="42"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B96" s="15"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="42"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B97" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F97" s="43"/>
+      <c r="G97" s="1">
+        <f>SUM(E80:E97)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F95" s="42"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B96" s="12" t="s">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F98" s="42"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B99" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C96" s="14" t="s">
+      <c r="C99" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D96" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E96" s="19">
+      <c r="D99" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E99" s="19">
         <v>0.75</v>
       </c>
-      <c r="F96" s="42"/>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B97" s="4"/>
-      <c r="C97" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D97" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E97" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F97" s="42"/>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B98" s="4"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="42"/>
-    </row>
-    <row r="99" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B99" s="4"/>
-      <c r="C99" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E99" s="5">
-        <v>0.5</v>
-      </c>
       <c r="F99" s="42"/>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B100" s="4"/>
       <c r="C100" s="10" t="s">
-        <v>137</v>
+        <v>69</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="E100" s="5">
         <v>0.5</v>
       </c>
       <c r="F100" s="42"/>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B101" s="4"/>
       <c r="E101" s="5"/>
       <c r="F101" s="42"/>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B102" s="4" t="s">
-        <v>75</v>
-      </c>
+    <row r="102" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B102" s="4"/>
       <c r="C102" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D102" s="10" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="E102" s="5">
         <v>0.5</v>
       </c>
       <c r="F102" s="42"/>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B103" s="4"/>
       <c r="C103" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="E103" s="5">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F103" s="42"/>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B104" s="4"/>
-      <c r="C104" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D104" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E104" s="5">
-        <v>0.25</v>
-      </c>
+      <c r="E104" s="5"/>
       <c r="F104" s="42"/>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B105" s="4"/>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B105" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="C105" s="10" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D105" s="10" t="s">
         <v>43</v>
@@ -3655,122 +3666,135 @@
       <c r="E105" s="5">
         <v>0.5</v>
       </c>
-      <c r="F105" s="42"/>
-    </row>
-    <row r="106" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F105" s="69">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B106" s="4"/>
       <c r="C106" s="10" t="s">
-        <v>111</v>
+        <v>77</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="E106" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F106" s="42"/>
-    </row>
-    <row r="107" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>0.25</v>
+      </c>
+      <c r="F106" s="69">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B107" s="4"/>
       <c r="C107" s="10" t="s">
-        <v>99</v>
+        <v>78</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="E107" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F107" s="42"/>
-    </row>
-    <row r="108" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0.25</v>
+      </c>
+      <c r="F107" s="69">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B108" s="4"/>
       <c r="C108" s="10" t="s">
-        <v>150</v>
+        <v>87</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="E108" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="F108" s="42"/>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="F108" s="69">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B109" s="4"/>
       <c r="C109" s="10" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="E109" s="5">
         <v>0.5</v>
       </c>
       <c r="F109" s="42"/>
     </row>
-    <row r="110" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B110" s="4"/>
       <c r="C110" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E110" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F110" s="42"/>
+    </row>
+    <row r="111" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B111" s="4"/>
+      <c r="C111" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E111" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="F111" s="42"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B112" s="4"/>
+      <c r="C112" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E112" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F112" s="69">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B113" s="4"/>
+      <c r="C113" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E113" s="5">
+        <v>1</v>
+      </c>
+      <c r="F113" s="42"/>
+    </row>
+    <row r="114" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B114" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E110" s="5">
+      <c r="C114" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E114" s="5">
         <v>1</v>
       </c>
-      <c r="F110" s="42"/>
-    </row>
-    <row r="111" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B111" s="4" t="s">
+      <c r="F114" s="42"/>
+    </row>
+    <row r="115" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B115" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C111" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E111" s="5">
-        <v>1</v>
-      </c>
-      <c r="F111" s="42"/>
-    </row>
-    <row r="112" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B112" s="4" t="s">
+      <c r="C115" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E112" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="F112" s="42"/>
-    </row>
-    <row r="113" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B113" s="13"/>
-      <c r="C113" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E113" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="F113" s="42"/>
-    </row>
-    <row r="114" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B114" s="13"/>
-      <c r="C114" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E114" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F114" s="42"/>
-      <c r="G114" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="115" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B115" s="13"/>
-      <c r="C115" s="10" t="s">
-        <v>106</v>
       </c>
       <c r="E115" s="5">
         <v>0.25</v>
       </c>
       <c r="F115" s="42"/>
-      <c r="G115" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B116" s="13"/>
-      <c r="C116" s="21" t="s">
-        <v>107</v>
+      <c r="C116" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="E116" s="5">
         <v>0.25</v>
@@ -3779,38 +3803,44 @@
     </row>
     <row r="117" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B117" s="13"/>
-      <c r="C117" s="21" t="s">
-        <v>112</v>
+      <c r="C117" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="E117" s="5">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F117" s="42"/>
+      <c r="G117" s="10" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="118" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B118" s="13"/>
-      <c r="C118" s="21" t="s">
-        <v>113</v>
+      <c r="C118" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="E118" s="5">
         <v>0.25</v>
       </c>
       <c r="F118" s="42"/>
-    </row>
-    <row r="119" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G118" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B119" s="13"/>
       <c r="C119" s="21" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E119" s="5">
         <v>0.25</v>
       </c>
       <c r="F119" s="42"/>
     </row>
-    <row r="120" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B120" s="13"/>
       <c r="C120" s="21" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E120" s="5">
         <v>0.25</v>
@@ -3819,100 +3849,105 @@
     </row>
     <row r="121" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B121" s="13"/>
-      <c r="C121" s="10" t="s">
-        <v>109</v>
+      <c r="C121" s="21" t="s">
+        <v>112</v>
       </c>
       <c r="E121" s="5">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F121" s="42"/>
     </row>
-    <row r="122" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B122" s="13"/>
-      <c r="C122" s="10" t="s">
-        <v>110</v>
+      <c r="C122" s="21" t="s">
+        <v>113</v>
       </c>
       <c r="E122" s="5">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F122" s="42"/>
     </row>
-    <row r="123" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B123" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>116</v>
+    <row r="123" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B123" s="13"/>
+      <c r="C123" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="E123" s="5">
         <v>0.25</v>
       </c>
       <c r="F123" s="42"/>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B124" s="13"/>
       <c r="C124" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E124" s="5">
         <v>0.5</v>
       </c>
       <c r="F124" s="42"/>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B125" s="13"/>
-      <c r="E125" s="5"/>
+      <c r="C125" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E125" s="5">
+        <v>1</v>
+      </c>
       <c r="F125" s="42"/>
     </row>
     <row r="126" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B126" s="13"/>
+      <c r="B126" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="C126" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E126" s="5">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F126" s="42"/>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B127" s="13"/>
       <c r="C127" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E127" s="5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F127" s="42"/>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B128" s="13"/>
-      <c r="C128" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E128" s="5">
-        <v>1</v>
-      </c>
+      <c r="E128" s="5"/>
       <c r="F128" s="42"/>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B129" s="13"/>
-      <c r="E129" s="5"/>
+      <c r="C129" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E129" s="5">
+        <v>0.5</v>
+      </c>
       <c r="F129" s="42"/>
     </row>
-    <row r="130" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B130" s="13"/>
       <c r="C130" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E130" s="5">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F130" s="42"/>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B131" s="13"/>
       <c r="C131" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E131" s="5">
         <v>1</v>
@@ -3921,28 +3956,23 @@
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B132" s="13"/>
-      <c r="C132" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E132" s="5">
-        <v>1</v>
-      </c>
+      <c r="E132" s="5"/>
       <c r="F132" s="42"/>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B133" s="13"/>
       <c r="C133" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E133" s="5">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F133" s="42"/>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B134" s="13"/>
       <c r="C134" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E134" s="5">
         <v>1</v>
@@ -3950,68 +3980,68 @@
       <c r="F134" s="42"/>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B135" s="4"/>
-      <c r="E135" s="5"/>
+      <c r="B135" s="13"/>
+      <c r="C135" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E135" s="5">
+        <v>1</v>
+      </c>
       <c r="F135" s="42"/>
     </row>
-    <row r="136" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B136" s="4" t="s">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B136" s="13"/>
+      <c r="C136" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E136" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F136" s="42"/>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B137" s="13"/>
+      <c r="C137" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E137" s="5">
+        <v>1</v>
+      </c>
+      <c r="F137" s="42"/>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B138" s="4"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="42"/>
+    </row>
+    <row r="139" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B139" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C139" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C136" s="10" t="s">
+      <c r="E139" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="F139" s="42"/>
+    </row>
+    <row r="140" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B140" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="C140" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E136" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="F136" s="42"/>
-    </row>
-    <row r="137" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B137" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="E137" s="5">
+      <c r="E140" s="5">
         <v>1.5</v>
-      </c>
-      <c r="F137" s="42"/>
-    </row>
-    <row r="138" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B138" s="13"/>
-      <c r="C138" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E138" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="F138" s="42"/>
-    </row>
-    <row r="139" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B139" s="13"/>
-      <c r="C139" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E139" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F139" s="42"/>
-    </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B140" s="13"/>
-      <c r="C140" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="E140" s="5">
-        <v>0.5</v>
       </c>
       <c r="F140" s="42"/>
     </row>
     <row r="141" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B141" s="13"/>
       <c r="C141" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E141" s="5">
         <v>1.5</v>
@@ -4019,97 +4049,94 @@
       <c r="F141" s="42"/>
     </row>
     <row r="142" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="13"/>
+      <c r="C142" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E142" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F142" s="42"/>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B143" s="13"/>
+      <c r="C143" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E143" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F143" s="42"/>
+    </row>
+    <row r="144" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B144" s="13"/>
+      <c r="C144" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E144" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F144" s="42"/>
+    </row>
+    <row r="145" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B145" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C145" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C142" s="10" t="s">
+      <c r="E145" s="5">
+        <v>1</v>
+      </c>
+      <c r="F145" s="42"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B146" s="4"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="42"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B147" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C147" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E142" s="5">
+      <c r="E147" s="5">
         <v>1</v>
       </c>
-      <c r="F142" s="42"/>
-    </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B143" s="4"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="42"/>
-    </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B144" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C144" s="24" t="s">
+      <c r="F147" s="42"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B148" s="15"/>
+      <c r="C148" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="E144" s="5">
+      <c r="D148" s="16"/>
+      <c r="E148" s="6">
         <v>1</v>
       </c>
-      <c r="F144" s="42"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B145" s="15"/>
-      <c r="C145" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="D145" s="16"/>
-      <c r="E145" s="6">
-        <v>1</v>
-      </c>
-      <c r="F145" s="42"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F146" s="42"/>
-      <c r="G146" s="1">
-        <f>SUM(E96:E145)</f>
+      <c r="F148" s="42"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F149" s="42"/>
+      <c r="G149" s="1">
+        <f>SUM(E99:E148)</f>
         <v>27.75</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A147" s="25" t="s">
+    <row r="150" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A150" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B150" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B147" s="12" t="s">
+      <c r="C150" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="C147" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D147" s="14"/>
-      <c r="E147" s="19">
-        <v>1</v>
-      </c>
-      <c r="F147" s="42"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E148" s="5">
-        <v>1</v>
-      </c>
-      <c r="F148" s="42"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E149" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F149" s="42"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A150" s="4"/>
-      <c r="B150" s="4"/>
-      <c r="C150" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E150" s="5">
+      <c r="D150" s="14"/>
+      <c r="E150" s="19">
         <v>1</v>
       </c>
       <c r="F150" s="42"/>
@@ -4118,647 +4145,683 @@
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E151" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F151" s="42"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="4"/>
-      <c r="B152" s="4" t="s">
+      <c r="B152" s="4"/>
+      <c r="C152" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E152" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F152" s="42"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E153" s="5">
+        <v>1</v>
+      </c>
+      <c r="F153" s="42"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E154" s="5">
+        <v>2</v>
+      </c>
+      <c r="F154" s="42"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" s="4"/>
+      <c r="B155" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C155" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C152" s="10" t="s">
+      <c r="E155" s="5">
+        <v>2</v>
+      </c>
+      <c r="F155" s="42"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" s="15"/>
+      <c r="B156" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="E152" s="5">
-        <v>2</v>
-      </c>
-      <c r="F152" s="42"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="15"/>
-      <c r="B153" s="15" t="s">
+      <c r="C156" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C153" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="D153" s="16"/>
-      <c r="E153" s="6">
+      <c r="D156" s="16"/>
+      <c r="E156" s="6">
         <v>1</v>
       </c>
-      <c r="F153" s="42"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F154" s="42"/>
-      <c r="G154" s="1">
-        <f>SUM(E147:E153)</f>
+      <c r="F156" s="42"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F157" s="42"/>
+      <c r="G157" s="1">
+        <f>SUM(E150:E156)</f>
         <v>8.5</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F155" s="42"/>
-      <c r="G155" s="1">
-        <f>SUM(G2:G154)</f>
+    <row r="158" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F158" s="42"/>
+      <c r="G158" s="1">
+        <f>SUM(G2:G157)</f>
         <v>83.75</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="27" t="s">
+    <row r="159" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="B159" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="B156" s="28" t="s">
+      <c r="C159" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="C156" s="28" t="s">
+      <c r="F159" s="42"/>
+    </row>
+    <row r="160" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A160" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="F156" s="42"/>
-    </row>
-    <row r="157" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A157" s="29" t="s">
+      <c r="B160" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="C160" s="70" t="s">
+        <v>192</v>
+      </c>
+      <c r="F160" s="42"/>
+    </row>
+    <row r="161" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A161" s="29"/>
+      <c r="B161" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="C161" s="71"/>
+      <c r="F161" s="42"/>
+    </row>
+    <row r="162" spans="1:6" ht="54" x14ac:dyDescent="0.3">
+      <c r="A162" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="B157" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="C157" s="69" t="s">
-        <v>193</v>
-      </c>
-      <c r="F157" s="42"/>
-    </row>
-    <row r="158" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A158" s="29"/>
-      <c r="B158" s="32" t="s">
+      <c r="B162" s="32" t="s">
         <v>188</v>
-      </c>
-      <c r="C158" s="70"/>
-      <c r="F158" s="42"/>
-    </row>
-    <row r="159" spans="1:7" ht="54" x14ac:dyDescent="0.3">
-      <c r="A159" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="B159" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="C159" s="70"/>
-      <c r="F159" s="42"/>
-    </row>
-    <row r="160" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A160" s="30"/>
-      <c r="B160" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="C160" s="70"/>
-      <c r="F160" s="42"/>
-    </row>
-    <row r="161" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A161" s="30"/>
-      <c r="B161" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="C161" s="70"/>
-      <c r="F161" s="42"/>
-    </row>
-    <row r="162" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="31"/>
-      <c r="B162" s="33" t="s">
-        <v>192</v>
       </c>
       <c r="C162" s="71"/>
       <c r="F162" s="42"/>
     </row>
     <row r="163" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A163" s="29" t="s">
-        <v>194</v>
-      </c>
+      <c r="A163" s="30"/>
       <c r="B163" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="C163" s="69" t="s">
-        <v>193</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="C163" s="71"/>
       <c r="F163" s="42"/>
     </row>
     <row r="164" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A164" s="29"/>
+      <c r="A164" s="30"/>
       <c r="B164" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="C164" s="70"/>
+        <v>190</v>
+      </c>
+      <c r="C164" s="71"/>
       <c r="F164" s="42"/>
     </row>
-    <row r="165" spans="1:6" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="34" t="s">
-        <v>195</v>
-      </c>
+    <row r="165" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="31"/>
       <c r="B165" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="C165" s="71"/>
+        <v>191</v>
+      </c>
+      <c r="C165" s="72"/>
       <c r="F165" s="42"/>
     </row>
     <row r="166" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A166" s="29" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B166" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="C166" s="69" t="s">
-        <v>193</v>
+        <v>195</v>
+      </c>
+      <c r="C166" s="70" t="s">
+        <v>192</v>
       </c>
       <c r="F166" s="42"/>
     </row>
     <row r="167" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A167" s="29"/>
       <c r="B167" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="C167" s="70"/>
+        <v>196</v>
+      </c>
+      <c r="C167" s="71"/>
       <c r="F167" s="42"/>
     </row>
-    <row r="168" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="34" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B168" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="C168" s="71"/>
+        <v>197</v>
+      </c>
+      <c r="C168" s="72"/>
       <c r="F168" s="42"/>
     </row>
     <row r="169" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A169" s="29" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B169" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="C169" s="69" t="s">
-        <v>209</v>
+        <v>200</v>
+      </c>
+      <c r="C169" s="70" t="s">
+        <v>192</v>
       </c>
       <c r="F169" s="42"/>
     </row>
     <row r="170" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A170" s="29"/>
       <c r="B170" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="C170" s="71"/>
+      <c r="F170" s="42"/>
+    </row>
+    <row r="171" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="B171" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="C171" s="72"/>
+      <c r="F171" s="42"/>
+    </row>
+    <row r="172" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A172" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="B172" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="C172" s="70" t="s">
+        <v>208</v>
+      </c>
+      <c r="F172" s="42"/>
+    </row>
+    <row r="173" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A173" s="29"/>
+      <c r="B173" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="C173" s="71"/>
+      <c r="F173" s="42"/>
+    </row>
+    <row r="174" spans="1:6" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="B174" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="C170" s="70"/>
-      <c r="F170" s="42"/>
-    </row>
-    <row r="171" spans="1:6" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="B171" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="C171" s="71"/>
-      <c r="F171" s="42"/>
-    </row>
-    <row r="172" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A172" s="35"/>
-      <c r="B172"/>
-      <c r="C172"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="B173"/>
-      <c r="C173"/>
-    </row>
-    <row r="174" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A174" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="B174"/>
-      <c r="C174"/>
-    </row>
-    <row r="175" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C174" s="72"/>
+      <c r="F174" s="42"/>
+    </row>
+    <row r="175" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A175" s="35"/>
       <c r="B175"/>
       <c r="C175"/>
     </row>
-    <row r="176" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="37" t="s">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="B176"/>
+      <c r="C176"/>
+    </row>
+    <row r="177" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A177" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="B177"/>
+      <c r="C177"/>
+    </row>
+    <row r="178" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="35"/>
+      <c r="B178"/>
+      <c r="C178"/>
+    </row>
+    <row r="179" spans="1:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="B179" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="C179"/>
+    </row>
+    <row r="180" spans="1:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="B180" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="C180"/>
+    </row>
+    <row r="181" spans="1:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="B181" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="C181"/>
+    </row>
+    <row r="182" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="B182" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="B176" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C176"/>
-    </row>
-    <row r="177" spans="1:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="B177" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="C177"/>
-    </row>
-    <row r="178" spans="1:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="39" t="s">
-        <v>215</v>
-      </c>
-      <c r="B178" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="C178"/>
-    </row>
-    <row r="179" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="39" t="s">
+      <c r="C182"/>
+    </row>
+    <row r="183" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="B179" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="C179"/>
-    </row>
-    <row r="180" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="B180" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="C180"/>
-    </row>
-    <row r="182" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="183" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B183" s="47" t="s">
+      <c r="B183" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="C183"/>
+    </row>
+    <row r="185" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="186" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B186" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="C186" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="C183" s="48" t="s">
+      <c r="D186" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="D183" s="48" t="s">
+      <c r="E186" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="E183" s="49" t="s">
+      <c r="G186" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="G183" s="10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" ht="21" x14ac:dyDescent="0.3">
-      <c r="B184" s="50" t="s">
-        <v>230</v>
-      </c>
-      <c r="C184" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="D184" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="E184" s="52" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="21" x14ac:dyDescent="0.3">
-      <c r="B185" s="50" t="s">
-        <v>234</v>
-      </c>
-      <c r="C185" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="D185" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="E185" s="52" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="21" x14ac:dyDescent="0.3">
-      <c r="B186" s="50" t="s">
-        <v>238</v>
-      </c>
-      <c r="C186" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="D186" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="E186" s="52" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B187" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="C187" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="D187" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="E187" s="52" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="B188" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="C188" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="D188" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="E188" s="52" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="B189" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="C189" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="C187" s="51" t="s">
+      <c r="D189" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="E189" s="52" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="B190" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="C190" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="D190" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="E190" s="52" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B191" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="C191" s="54" t="s">
+        <v>247</v>
+      </c>
+      <c r="D191" s="54"/>
+      <c r="E191" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="D187" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="E187" s="52" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B188" s="53" t="s">
-        <v>243</v>
-      </c>
-      <c r="C188" s="54" t="s">
-        <v>248</v>
-      </c>
-      <c r="D188" s="54"/>
-      <c r="E188" s="55" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C190" s="1" t="s">
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C193" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B194" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C194" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B195" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B196" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B197" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C197" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D197" s="45" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B198" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B199" s="10" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B191" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C191" s="10" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B192" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C192" s="10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B193" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C193" s="10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="194" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B194" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C194" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="D194" s="45" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B195" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B196" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B200" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C200" s="10" t="s">
+    <row r="203" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B203" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C204" s="10" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C201" s="10" t="s">
+    <row r="205" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C205" s="10" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C202" s="10" t="s">
+    <row r="206" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C206" s="10" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C203" s="10" t="s">
+    <row r="207" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C207" s="10" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="204" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C204" s="10" t="s">
+      <c r="G207" s="10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="209" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B209" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C209" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="G204" s="10" t="s">
+      <c r="H209" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F210" s="44">
+        <v>1</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H210" s="10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C211" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="F211" s="66">
+        <v>2</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H211" s="10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F212" s="44">
+        <v>3</v>
+      </c>
+      <c r="G212" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B206" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C206" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="H206" s="10" t="s">
+    <row r="213" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B213" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C213" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="F213" s="66">
+        <v>4</v>
+      </c>
+      <c r="G213" s="73" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="214" spans="2:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="F214" s="44">
+        <v>5</v>
+      </c>
+      <c r="G214" s="68" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F207" s="44">
-        <v>1</v>
-      </c>
-      <c r="G207" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="H207" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="208" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C208" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="F208" s="66">
-        <v>2</v>
-      </c>
-      <c r="G208" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="H208" s="10" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F209" s="44">
-        <v>3</v>
-      </c>
-      <c r="G209" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B210" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="C210" s="10" t="s">
+      <c r="H214" s="23" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="215" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C215" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="F210" s="66">
-        <v>4</v>
-      </c>
-      <c r="G210" s="1" t="s">
+    </row>
+    <row r="217" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C217" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="218" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C218" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="220" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B220" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C220" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="221" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C221" s="10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="223" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B223" s="65" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B225" s="68" t="s">
+        <v>297</v>
+      </c>
+      <c r="C225" s="68" t="s">
+        <v>294</v>
+      </c>
+      <c r="D225" s="68" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="211" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="F211" s="44">
-        <v>5</v>
-      </c>
-      <c r="G211" s="68" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="212" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C212" s="10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="214" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C214" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C215" s="10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B217" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C217" s="10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C218" s="10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="220" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B220" s="65" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="222" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B222" s="68" t="s">
-        <v>298</v>
-      </c>
-      <c r="C222" s="68" t="s">
+      <c r="E225" s="68" t="s">
         <v>295</v>
       </c>
-      <c r="D222" s="68" t="s">
-        <v>294</v>
-      </c>
-      <c r="E222" s="68" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="223" spans="2:7" ht="21" x14ac:dyDescent="0.3">
-      <c r="B223" s="47" t="s">
+    </row>
+    <row r="226" spans="2:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="B226" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="C226" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="C223" s="48" t="s">
+      <c r="D226" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="D223" s="48" t="s">
+      <c r="E226" s="49" t="s">
         <v>227</v>
-      </c>
-      <c r="E223" s="49" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="224" spans="2:7" ht="21" x14ac:dyDescent="0.3">
-      <c r="B224" s="50" t="s">
-        <v>239</v>
-      </c>
-      <c r="C224" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="D224" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="E224" s="52" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="225" spans="2:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="B225" s="50" t="s">
-        <v>234</v>
-      </c>
-      <c r="C225" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="D225" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="E225" s="52" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="226" spans="2:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="B226" s="50" t="s">
-        <v>238</v>
-      </c>
-      <c r="C226" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="D226" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="E226" s="52" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="227" spans="2:5" ht="21" x14ac:dyDescent="0.3">
       <c r="B227" s="50" t="s">
-        <v>297</v>
+        <v>238</v>
       </c>
       <c r="C227" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="D227" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="E227" s="52" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="228" spans="2:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="B228" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="C228" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="D228" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="E228" s="52" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="229" spans="2:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="B229" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="C229" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="D229" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="E229" s="52" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="230" spans="2:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="B230" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="C230" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="D230" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="E230" s="52" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B231" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="C231" s="54" t="s">
+        <v>247</v>
+      </c>
+      <c r="D231" s="50"/>
+      <c r="E231" s="55" t="s">
         <v>246</v>
-      </c>
-      <c r="D227" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="E227" s="52" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="228" spans="2:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B228" s="53" t="s">
-        <v>243</v>
-      </c>
-      <c r="C228" s="54" t="s">
-        <v>248</v>
-      </c>
-      <c r="D228" s="50"/>
-      <c r="E228" s="55" t="s">
-        <v>247</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C157:C162"/>
-    <mergeCell ref="C163:C165"/>
+    <mergeCell ref="C160:C165"/>
     <mergeCell ref="C166:C168"/>
     <mergeCell ref="C169:C171"/>
+    <mergeCell ref="C172:C174"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G20" r:id="rId1" xr:uid="{8E0293B7-93B8-4EB1-A0D2-43896432E6DF}"/>
@@ -4766,7 +4829,7 @@
     <hyperlink ref="G29" r:id="rId3" xr:uid="{F079AFBB-415D-4EA3-944F-3494D265CAB1}"/>
     <hyperlink ref="G46" r:id="rId4" xr:uid="{1064F469-B7C8-4D16-BD64-8F41BD9470B2}"/>
     <hyperlink ref="G47" r:id="rId5" xr:uid="{DC9B39C9-3C45-405D-AE7D-1D5E16B5F60F}"/>
-    <hyperlink ref="D194" r:id="rId6" xr:uid="{7D0C916F-9D79-46BB-91AB-8D082F732B82}"/>
+    <hyperlink ref="D197" r:id="rId6" xr:uid="{7D0C916F-9D79-46BB-91AB-8D082F732B82}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
@@ -4790,162 +4853,162 @@
   <sheetData>
     <row r="2" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" t="s">
         <v>168</v>
-      </c>
-      <c r="D18" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/ML-DL-LLMs ver 0.2 - session progress.xlsx
+++ b/ML-DL-LLMs ver 0.2 - session progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gridflowAI\cgi-AI-ML-GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC147EB-9BF3-457F-95DD-3B5199940FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF859D15-E1C6-4A78-9741-36EC3AF6A2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-4680" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1802,7 +1802,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2011,6 +2011,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2020,8 +2023,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2306,8 +2309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G214" sqref="G214"/>
+    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C228" sqref="C228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3459,7 +3462,7 @@
         <v>300</v>
       </c>
       <c r="E86" s="5"/>
-      <c r="F86" s="69">
+      <c r="F86" s="74">
         <v>19</v>
       </c>
     </row>
@@ -4245,7 +4248,7 @@
       <c r="B160" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="C160" s="70" t="s">
+      <c r="C160" s="71" t="s">
         <v>192</v>
       </c>
       <c r="F160" s="42"/>
@@ -4255,7 +4258,7 @@
       <c r="B161" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="C161" s="71"/>
+      <c r="C161" s="72"/>
       <c r="F161" s="42"/>
     </row>
     <row r="162" spans="1:6" ht="54" x14ac:dyDescent="0.3">
@@ -4265,7 +4268,7 @@
       <c r="B162" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="C162" s="71"/>
+      <c r="C162" s="72"/>
       <c r="F162" s="42"/>
     </row>
     <row r="163" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4273,7 +4276,7 @@
       <c r="B163" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="C163" s="71"/>
+      <c r="C163" s="72"/>
       <c r="F163" s="42"/>
     </row>
     <row r="164" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4281,7 +4284,7 @@
       <c r="B164" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C164" s="71"/>
+      <c r="C164" s="72"/>
       <c r="F164" s="42"/>
     </row>
     <row r="165" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4289,7 +4292,7 @@
       <c r="B165" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="C165" s="72"/>
+      <c r="C165" s="73"/>
       <c r="F165" s="42"/>
     </row>
     <row r="166" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4299,7 +4302,7 @@
       <c r="B166" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="C166" s="70" t="s">
+      <c r="C166" s="71" t="s">
         <v>192</v>
       </c>
       <c r="F166" s="42"/>
@@ -4309,7 +4312,7 @@
       <c r="B167" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="C167" s="71"/>
+      <c r="C167" s="72"/>
       <c r="F167" s="42"/>
     </row>
     <row r="168" spans="1:6" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4319,7 +4322,7 @@
       <c r="B168" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C168" s="72"/>
+      <c r="C168" s="73"/>
       <c r="F168" s="42"/>
     </row>
     <row r="169" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4329,7 +4332,7 @@
       <c r="B169" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="C169" s="70" t="s">
+      <c r="C169" s="71" t="s">
         <v>192</v>
       </c>
       <c r="F169" s="42"/>
@@ -4339,7 +4342,7 @@
       <c r="B170" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="C170" s="71"/>
+      <c r="C170" s="72"/>
       <c r="F170" s="42"/>
     </row>
     <row r="171" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4349,7 +4352,7 @@
       <c r="B171" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="C171" s="72"/>
+      <c r="C171" s="73"/>
       <c r="F171" s="42"/>
     </row>
     <row r="172" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4359,7 +4362,7 @@
       <c r="B172" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="C172" s="70" t="s">
+      <c r="C172" s="71" t="s">
         <v>208</v>
       </c>
       <c r="F172" s="42"/>
@@ -4369,7 +4372,7 @@
       <c r="B173" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="C173" s="71"/>
+      <c r="C173" s="72"/>
       <c r="F173" s="42"/>
     </row>
     <row r="174" spans="1:6" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4379,7 +4382,7 @@
       <c r="B174" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="C174" s="72"/>
+      <c r="C174" s="73"/>
       <c r="F174" s="42"/>
     </row>
     <row r="175" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -4672,7 +4675,7 @@
       <c r="F213" s="66">
         <v>4</v>
       </c>
-      <c r="G213" s="73" t="s">
+      <c r="G213" s="70" t="s">
         <v>292</v>
       </c>
     </row>

--- a/ML-DL-LLMs ver 0.2 - session progress.xlsx
+++ b/ML-DL-LLMs ver 0.2 - session progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gridflowAI\cgi-AI-ML-GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF859D15-E1C6-4A78-9741-36EC3AF6A2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30F4CA0-9725-4145-9492-2FA1433BCADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4680" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1608" yWindow="36" windowWidth="20892" windowHeight="12192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="305">
   <si>
     <t>AI Fundamentatals</t>
   </si>
@@ -689,10 +689,6 @@
   </si>
   <si>
     <t>Explainable AI</t>
-  </si>
-  <si>
-    <t>Generative Adversarial Nets
-Architecture:</t>
   </si>
   <si>
     <t xml:space="preserve">Applications of GANs </t>
@@ -1248,26 +1244,13 @@
     <t>NLP - sentiment analysis (custom , preprocess)</t>
   </si>
   <si>
-    <t>NLP - sentiment analysis (curated data, Seauence models)</t>
-  </si>
-  <si>
     <t>Image gen, Anomaly detection (AE, VAE, GAN)</t>
   </si>
   <si>
-    <t>AE/VAE/GAN</t>
-  </si>
-  <si>
     <t>KPE</t>
   </si>
   <si>
-    <t>SA (Keras, DL models)</t>
-  </si>
-  <si>
     <t>Lakshmi</t>
-  </si>
-  <si>
-    <t>SA (Custom)
-Use of PTM (inception v3)</t>
   </si>
   <si>
     <r>
@@ -1307,6 +1290,30 @@
   </si>
   <si>
     <t>Key Phrase extraction (method)</t>
+  </si>
+  <si>
+    <t>Key phrase extrctions</t>
+  </si>
+  <si>
+    <t>NLP - sentiment analysis (curated data, Sequence models)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA (Custom, baseline , online ML model)
+</t>
+  </si>
+  <si>
+    <t>SA (Curated, Keras, DL models, RNN/LSTM )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Use of PTM (inception v3)</t>
+  </si>
+  <si>
+    <t>code demo of RNN</t>
+  </si>
+  <si>
+    <t>Generative Adversarial Nets
+Architecture</t>
   </si>
 </sst>
 </file>
@@ -2307,10 +2314,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H231"/>
+  <dimension ref="A1:H232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C228" sqref="C228"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2343,7 +2350,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2364,7 +2371,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -2406,7 +2413,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2422,13 +2429,13 @@
         <v>3</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F7" s="42"/>
       <c r="H7" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2448,7 +2455,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -2471,7 +2478,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2604,7 +2611,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
@@ -2728,7 +2735,7 @@
         <v>5</v>
       </c>
       <c r="G29" s="45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
@@ -2804,7 +2811,7 @@
         <v>2</v>
       </c>
       <c r="F34" s="46" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -2910,7 +2917,7 @@
       </c>
       <c r="F42" s="42"/>
       <c r="G42" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -2956,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="F46" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G46" s="45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -2967,7 +2974,7 @@
       <c r="E47" s="60"/>
       <c r="F47" s="42"/>
       <c r="G47" s="45" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -3002,7 +3009,7 @@
       </c>
       <c r="F50" s="43"/>
       <c r="G50" s="67" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.3">
@@ -3012,7 +3019,7 @@
       <c r="E51" s="20"/>
       <c r="F51" s="42"/>
       <c r="G51" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.3">
@@ -3030,7 +3037,7 @@
       </c>
       <c r="F52" s="42"/>
       <c r="G52" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="53" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3108,7 +3115,7 @@
         <v>13</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.3">
@@ -3186,7 +3193,7 @@
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B65" s="4"/>
       <c r="C65" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>43</v>
@@ -3228,7 +3235,7 @@
         <v>14</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -3417,7 +3424,7 @@
     <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="4"/>
       <c r="C82" s="10" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E82" s="5">
         <v>0.75</v>
@@ -3444,7 +3451,7 @@
     <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="4"/>
       <c r="C85" s="10" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>43</v>
@@ -3459,20 +3466,20 @@
     <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" s="4"/>
       <c r="C86" s="10" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E86" s="5"/>
-      <c r="F86" s="74">
+      <c r="F86" s="42">
         <v>19</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="4"/>
       <c r="C87" s="10" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E87" s="5"/>
-      <c r="F87" s="69">
+      <c r="F87" s="74">
         <v>19</v>
       </c>
     </row>
@@ -3487,7 +3494,7 @@
       <c r="E88" s="5">
         <v>1</v>
       </c>
-      <c r="F88" s="69">
+      <c r="F88" s="74">
         <v>19</v>
       </c>
     </row>
@@ -3611,7 +3618,9 @@
       <c r="E99" s="19">
         <v>0.75</v>
       </c>
-      <c r="F99" s="42"/>
+      <c r="F99" s="69">
+        <v>20</v>
+      </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B100" s="4"/>
@@ -3624,32 +3633,38 @@
       <c r="E100" s="5">
         <v>0.5</v>
       </c>
-      <c r="F100" s="42"/>
+      <c r="F100" s="69">
+        <v>20</v>
+      </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B101" s="4"/>
       <c r="E101" s="5"/>
-      <c r="F101" s="42"/>
+      <c r="F101" s="69"/>
     </row>
     <row r="102" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B102" s="4"/>
       <c r="C102" s="10" t="s">
-        <v>135</v>
+        <v>304</v>
       </c>
       <c r="E102" s="5">
         <v>0.5</v>
       </c>
-      <c r="F102" s="42"/>
+      <c r="F102" s="69">
+        <v>20</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B103" s="4"/>
       <c r="C103" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E103" s="5">
         <v>0.5</v>
       </c>
-      <c r="F103" s="42"/>
+      <c r="F103" s="69">
+        <v>20</v>
+      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B104" s="4"/>
@@ -3669,29 +3684,24 @@
       <c r="E105" s="5">
         <v>0.5</v>
       </c>
-      <c r="F105" s="69">
+      <c r="F105" s="74">
         <v>19</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B106" s="4"/>
       <c r="C106" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D106" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E106" s="5">
-        <v>0.25</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="E106" s="5"/>
       <c r="F106" s="69">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B107" s="4"/>
       <c r="C107" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>43</v>
@@ -3700,104 +3710,109 @@
         <v>0.25</v>
       </c>
       <c r="F107" s="69">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B108" s="4"/>
       <c r="C108" s="10" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E108" s="5">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F108" s="69">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B109" s="4"/>
       <c r="C109" s="10" t="s">
-        <v>110</v>
+        <v>87</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="E109" s="5">
         <v>0.5</v>
       </c>
-      <c r="F109" s="42"/>
+      <c r="F109" s="69">
+        <v>20</v>
+      </c>
     </row>
     <row r="110" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B110" s="4"/>
       <c r="C110" s="10" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E110" s="5">
         <v>0.5</v>
       </c>
       <c r="F110" s="42"/>
     </row>
-    <row r="111" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B111" s="4"/>
       <c r="C111" s="10" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="E111" s="5">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F111" s="42"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B112" s="4"/>
       <c r="C112" s="10" t="s">
         <v>148</v>
       </c>
       <c r="E112" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F112" s="69">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0.25</v>
+      </c>
+      <c r="F112" s="42"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B113" s="4"/>
       <c r="C113" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E113" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F113" s="69">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B114" s="4"/>
+      <c r="C114" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="E113" s="5">
-        <v>1</v>
-      </c>
-      <c r="F113" s="42"/>
-    </row>
-    <row r="114" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B114" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>150</v>
       </c>
       <c r="E114" s="5">
         <v>1</v>
       </c>
       <c r="F114" s="42"/>
     </row>
-    <row r="115" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B115" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E115" s="5">
+        <v>1</v>
+      </c>
+      <c r="F115" s="42"/>
+    </row>
+    <row r="116" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B116" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C115" s="10" t="s">
+      <c r="C116" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="E115" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="F115" s="42"/>
-    </row>
-    <row r="116" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B116" s="13"/>
-      <c r="C116" s="10" t="s">
-        <v>103</v>
       </c>
       <c r="E116" s="5">
         <v>0.25</v>
@@ -3807,43 +3822,43 @@
     <row r="117" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B117" s="13"/>
       <c r="C117" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E117" s="5">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F117" s="42"/>
-      <c r="G117" s="10" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="118" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B118" s="13"/>
       <c r="C118" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E118" s="5">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F118" s="42"/>
       <c r="G118" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B119" s="13"/>
-      <c r="C119" s="21" t="s">
-        <v>106</v>
+      <c r="C119" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="E119" s="5">
         <v>0.25</v>
       </c>
       <c r="F119" s="42"/>
-    </row>
-    <row r="120" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G119" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B120" s="13"/>
       <c r="C120" s="21" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E120" s="5">
         <v>0.25</v>
@@ -3853,7 +3868,7 @@
     <row r="121" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B121" s="13"/>
       <c r="C121" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E121" s="5">
         <v>0.25</v>
@@ -3863,94 +3878,94 @@
     <row r="122" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B122" s="13"/>
       <c r="C122" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E122" s="5">
         <v>0.25</v>
       </c>
       <c r="F122" s="42"/>
     </row>
-    <row r="123" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B123" s="13"/>
       <c r="C123" s="21" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E123" s="5">
         <v>0.25</v>
       </c>
       <c r="F123" s="42"/>
     </row>
-    <row r="124" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B124" s="13"/>
-      <c r="C124" s="10" t="s">
-        <v>108</v>
+      <c r="C124" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="E124" s="5">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F124" s="42"/>
     </row>
-    <row r="125" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B125" s="13"/>
       <c r="C125" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E125" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F125" s="42"/>
+    </row>
+    <row r="126" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B126" s="13"/>
+      <c r="C126" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E125" s="5">
+      <c r="E126" s="5">
         <v>1</v>
       </c>
-      <c r="F125" s="42"/>
-    </row>
-    <row r="126" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B126" s="4" t="s">
+      <c r="F126" s="42"/>
+    </row>
+    <row r="127" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B127" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C126" s="10" t="s">
+      <c r="C127" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E126" s="5">
+      <c r="E127" s="5">
         <v>0.25</v>
-      </c>
-      <c r="F126" s="42"/>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B127" s="13"/>
-      <c r="C127" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E127" s="5">
-        <v>0.5</v>
       </c>
       <c r="F127" s="42"/>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B128" s="13"/>
-      <c r="E128" s="5"/>
+      <c r="C128" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E128" s="5">
+        <v>0.5</v>
+      </c>
       <c r="F128" s="42"/>
     </row>
-    <row r="129" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B129" s="13"/>
-      <c r="C129" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E129" s="5">
-        <v>0.5</v>
-      </c>
+      <c r="E129" s="5"/>
       <c r="F129" s="42"/>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B130" s="13"/>
       <c r="C130" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E130" s="5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F130" s="42"/>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B131" s="13"/>
       <c r="C131" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E131" s="5">
         <v>1</v>
@@ -3959,33 +3974,33 @@
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B132" s="13"/>
-      <c r="E132" s="5"/>
+      <c r="C132" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E132" s="5">
+        <v>1</v>
+      </c>
       <c r="F132" s="42"/>
     </row>
-    <row r="133" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B133" s="13"/>
-      <c r="C133" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E133" s="5">
-        <v>0.25</v>
-      </c>
+      <c r="E133" s="5"/>
       <c r="F133" s="42"/>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B134" s="13"/>
       <c r="C134" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E134" s="5">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F134" s="42"/>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B135" s="13"/>
       <c r="C135" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E135" s="5">
         <v>1</v>
@@ -3995,162 +4010,161 @@
     <row r="136" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B136" s="13"/>
       <c r="C136" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E136" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F136" s="42"/>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B137" s="13"/>
       <c r="C137" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E137" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F137" s="42"/>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B138" s="13"/>
+      <c r="C138" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="E137" s="5">
+      <c r="E138" s="5">
         <v>1</v>
       </c>
-      <c r="F137" s="42"/>
-    </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B138" s="4"/>
-      <c r="E138" s="5"/>
       <c r="F138" s="42"/>
     </row>
-    <row r="139" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B139" s="4" t="s">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B139" s="4"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="42"/>
+    </row>
+    <row r="140" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B140" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C139" s="10" t="s">
+      <c r="C140" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E139" s="5">
+      <c r="E140" s="5">
         <v>0.75</v>
       </c>
-      <c r="F139" s="42"/>
-    </row>
-    <row r="140" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B140" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="C140" s="10" t="s">
+      <c r="F140" s="42"/>
+    </row>
+    <row r="141" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B141" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C141" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="E140" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="F140" s="42"/>
-    </row>
-    <row r="141" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B141" s="13"/>
-      <c r="C141" s="10" t="s">
-        <v>126</v>
       </c>
       <c r="E141" s="5">
         <v>1.5</v>
       </c>
       <c r="F141" s="42"/>
     </row>
-    <row r="142" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B142" s="13"/>
       <c r="C142" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E142" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F142" s="42"/>
+    </row>
+    <row r="143" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B143" s="13"/>
+      <c r="C143" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E142" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F142" s="42"/>
-    </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B143" s="13"/>
-      <c r="C143" s="23" t="s">
+      <c r="E143" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F143" s="42"/>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B144" s="13"/>
+      <c r="C144" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="E143" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F143" s="42"/>
-    </row>
-    <row r="144" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B144" s="13"/>
-      <c r="C144" s="10" t="s">
+      <c r="E144" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F144" s="42"/>
+    </row>
+    <row r="145" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B145" s="13"/>
+      <c r="C145" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E144" s="5">
+      <c r="E145" s="5">
         <v>1.5</v>
       </c>
-      <c r="F144" s="42"/>
-    </row>
-    <row r="145" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B145" s="4" t="s">
+      <c r="F145" s="42"/>
+    </row>
+    <row r="146" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B146" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C145" s="10" t="s">
+      <c r="C146" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E145" s="5">
+      <c r="E146" s="5">
         <v>1</v>
       </c>
-      <c r="F145" s="42"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B146" s="4"/>
-      <c r="E146" s="5"/>
       <c r="F146" s="42"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B147" s="4" t="s">
+      <c r="B147" s="4"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="42"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B148" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C147" s="24" t="s">
+      <c r="C148" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E147" s="5">
+      <c r="E148" s="5">
         <v>1</v>
       </c>
-      <c r="F147" s="42"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B148" s="15"/>
-      <c r="C148" s="26" t="s">
+      <c r="F148" s="42"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B149" s="15"/>
+      <c r="C149" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="D148" s="16"/>
-      <c r="E148" s="6">
+      <c r="D149" s="16"/>
+      <c r="E149" s="6">
         <v>1</v>
       </c>
-      <c r="F148" s="42"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F149" s="42"/>
-      <c r="G149" s="1">
-        <f>SUM(E99:E148)</f>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F150" s="42"/>
+      <c r="G150" s="1">
+        <f>SUM(E99:E149)</f>
         <v>27.75</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A150" s="25" t="s">
+    <row r="151" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A151" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B151" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B150" s="12" t="s">
+      <c r="C151" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C150" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D150" s="14"/>
-      <c r="E150" s="19">
-        <v>1</v>
-      </c>
-      <c r="F150" s="42"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
-      <c r="C151" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="E151" s="5">
+      <c r="D151" s="14"/>
+      <c r="E151" s="19">
         <v>1</v>
       </c>
       <c r="F151" s="42"/>
@@ -4159,10 +4173,10 @@
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E152" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F152" s="42"/>
     </row>
@@ -4170,10 +4184,10 @@
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E153" s="5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F153" s="42"/>
     </row>
@@ -4181,20 +4195,18 @@
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E154" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F154" s="42"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="4"/>
-      <c r="B155" s="4" t="s">
-        <v>144</v>
-      </c>
+      <c r="B155" s="4"/>
       <c r="C155" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E155" s="5">
         <v>2</v>
@@ -4202,79 +4214,84 @@
       <c r="F155" s="42"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A156" s="15"/>
-      <c r="B156" s="15" t="s">
+      <c r="A156" s="4"/>
+      <c r="B156" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E156" s="5">
+        <v>2</v>
+      </c>
+      <c r="F156" s="42"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" s="15"/>
+      <c r="B157" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C157" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="C156" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="D156" s="16"/>
-      <c r="E156" s="6">
+      <c r="D157" s="16"/>
+      <c r="E157" s="6">
         <v>1</v>
       </c>
-      <c r="F156" s="42"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F157" s="42"/>
-      <c r="G157" s="1">
-        <f>SUM(E150:E156)</f>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F158" s="42"/>
       <c r="G158" s="1">
-        <f>SUM(G2:G157)</f>
+        <f>SUM(E151:E157)</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F159" s="42"/>
+      <c r="G159" s="1">
+        <f>SUM(G2:G158)</f>
         <v>83.75</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="27" t="s">
+    <row r="160" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="B160" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="B159" s="28" t="s">
+      <c r="C160" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="C159" s="28" t="s">
+      <c r="F160" s="42"/>
+    </row>
+    <row r="161" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A161" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="F159" s="42"/>
-    </row>
-    <row r="160" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A160" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="B160" s="32" t="s">
+      <c r="B161" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="C161" s="71" t="s">
+        <v>191</v>
+      </c>
+      <c r="F161" s="42"/>
+    </row>
+    <row r="162" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A162" s="29"/>
+      <c r="B162" s="32" t="s">
         <v>186</v>
-      </c>
-      <c r="C160" s="71" t="s">
-        <v>192</v>
-      </c>
-      <c r="F160" s="42"/>
-    </row>
-    <row r="161" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A161" s="29"/>
-      <c r="B161" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="C161" s="72"/>
-      <c r="F161" s="42"/>
-    </row>
-    <row r="162" spans="1:6" ht="54" x14ac:dyDescent="0.3">
-      <c r="A162" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="B162" s="32" t="s">
-        <v>188</v>
       </c>
       <c r="C162" s="72"/>
       <c r="F162" s="42"/>
     </row>
-    <row r="163" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A163" s="30"/>
+    <row r="163" spans="1:6" ht="54" x14ac:dyDescent="0.3">
+      <c r="A163" s="29" t="s">
+        <v>184</v>
+      </c>
       <c r="B163" s="32" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C163" s="72"/>
       <c r="F163" s="42"/>
@@ -4282,549 +4299,560 @@
     <row r="164" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A164" s="30"/>
       <c r="B164" s="32" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C164" s="72"/>
       <c r="F164" s="42"/>
     </row>
-    <row r="165" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="31"/>
-      <c r="B165" s="33" t="s">
+    <row r="165" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A165" s="30"/>
+      <c r="B165" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="C165" s="72"/>
+      <c r="F165" s="42"/>
+    </row>
+    <row r="166" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="31"/>
+      <c r="B166" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="C166" s="73"/>
+      <c r="F166" s="42"/>
+    </row>
+    <row r="167" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A167" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B167" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="C167" s="71" t="s">
         <v>191</v>
       </c>
-      <c r="C165" s="73"/>
-      <c r="F165" s="42"/>
-    </row>
-    <row r="166" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A166" s="29" t="s">
+      <c r="F167" s="42"/>
+    </row>
+    <row r="168" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A168" s="29"/>
+      <c r="B168" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="C168" s="72"/>
+      <c r="F168" s="42"/>
+    </row>
+    <row r="169" spans="1:6" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="B166" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="C166" s="71" t="s">
-        <v>192</v>
-      </c>
-      <c r="F166" s="42"/>
-    </row>
-    <row r="167" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A167" s="29"/>
-      <c r="B167" s="32" t="s">
+      <c r="B169" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="C167" s="72"/>
-      <c r="F167" s="42"/>
-    </row>
-    <row r="168" spans="1:6" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="B168" s="33" t="s">
+      <c r="C169" s="73"/>
+      <c r="F169" s="42"/>
+    </row>
+    <row r="170" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A170" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="C168" s="73"/>
-      <c r="F168" s="42"/>
-    </row>
-    <row r="169" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A169" s="29" t="s">
+      <c r="B170" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="C170" s="71" t="s">
+        <v>191</v>
+      </c>
+      <c r="F170" s="42"/>
+    </row>
+    <row r="171" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A171" s="29"/>
+      <c r="B171" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="C171" s="72"/>
+      <c r="F171" s="42"/>
+    </row>
+    <row r="172" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="B169" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="C169" s="71" t="s">
-        <v>192</v>
-      </c>
-      <c r="F169" s="42"/>
-    </row>
-    <row r="170" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A170" s="29"/>
-      <c r="B170" s="32" t="s">
+      <c r="B172" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="C170" s="72"/>
-      <c r="F170" s="42"/>
-    </row>
-    <row r="171" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="B171" s="33" t="s">
+      <c r="C172" s="73"/>
+      <c r="F172" s="42"/>
+    </row>
+    <row r="173" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A173" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="C171" s="73"/>
-      <c r="F171" s="42"/>
-    </row>
-    <row r="172" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A172" s="29" t="s">
+      <c r="B173" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="C173" s="71" t="s">
+        <v>207</v>
+      </c>
+      <c r="F173" s="42"/>
+    </row>
+    <row r="174" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A174" s="29"/>
+      <c r="B174" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="C174" s="72"/>
+      <c r="F174" s="42"/>
+    </row>
+    <row r="175" spans="1:6" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="B172" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="C172" s="71" t="s">
-        <v>208</v>
-      </c>
-      <c r="F172" s="42"/>
-    </row>
-    <row r="173" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A173" s="29"/>
-      <c r="B173" s="32" t="s">
+      <c r="B175" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="C173" s="72"/>
-      <c r="F173" s="42"/>
-    </row>
-    <row r="174" spans="1:6" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="B174" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="C174" s="73"/>
-      <c r="F174" s="42"/>
-    </row>
-    <row r="175" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A175" s="35"/>
-      <c r="B175"/>
-      <c r="C175"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="36" t="s">
-        <v>209</v>
-      </c>
+      <c r="C175" s="73"/>
+      <c r="F175" s="42"/>
+    </row>
+    <row r="176" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A176" s="35"/>
       <c r="B176"/>
       <c r="C176"/>
     </row>
-    <row r="177" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A177" s="35" t="s">
-        <v>210</v>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177" s="36" t="s">
+        <v>208</v>
       </c>
       <c r="B177"/>
       <c r="C177"/>
     </row>
-    <row r="178" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="35"/>
+    <row r="178" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A178" s="35" t="s">
+        <v>209</v>
+      </c>
       <c r="B178"/>
       <c r="C178"/>
     </row>
-    <row r="179" spans="1:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="B179" s="38" t="s">
-        <v>218</v>
-      </c>
+    <row r="179" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="35"/>
+      <c r="B179"/>
       <c r="C179"/>
     </row>
     <row r="180" spans="1:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="B180" s="40" t="s">
-        <v>219</v>
+      <c r="A180" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="B180" s="38" t="s">
+        <v>217</v>
       </c>
       <c r="C180"/>
     </row>
     <row r="181" spans="1:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="39" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B181" s="40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C181"/>
     </row>
-    <row r="182" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="39" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B182" s="40" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C182"/>
     </row>
     <row r="183" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="39" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B183" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C183"/>
     </row>
-    <row r="185" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="186" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B186" s="47" t="s">
+    <row r="184" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="B184" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="C184"/>
+    </row>
+    <row r="186" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="187" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B187" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="C187" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="C186" s="48" t="s">
+      <c r="D187" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="D186" s="48" t="s">
+      <c r="E187" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="E186" s="49" t="s">
+      <c r="G187" s="10" t="s">
         <v>227</v>
-      </c>
-      <c r="G186" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="21" x14ac:dyDescent="0.3">
-      <c r="B187" s="50" t="s">
-        <v>229</v>
-      </c>
-      <c r="C187" s="51" t="s">
-        <v>230</v>
-      </c>
-      <c r="D187" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="E187" s="52" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B188" s="50" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C188" s="51" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D188" s="51" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E188" s="52" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B189" s="50" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C189" s="51" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D189" s="51" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E189" s="52" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B190" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="C190" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="C190" s="51" t="s">
+      <c r="D190" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="E190" s="52" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="B191" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="C191" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="D191" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="E191" s="52" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B192" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="C192" s="54" t="s">
+        <v>246</v>
+      </c>
+      <c r="D192" s="54"/>
+      <c r="E192" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="D190" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="E190" s="52" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B191" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="C191" s="54" t="s">
-        <v>247</v>
-      </c>
-      <c r="D191" s="54"/>
-      <c r="E191" s="55" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C193" s="1" t="s">
-        <v>260</v>
-      </c>
     </row>
     <row r="194" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B194" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C194" s="10" t="s">
-        <v>256</v>
+      <c r="C194" s="1" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="195" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B195" s="10" t="s">
-        <v>141</v>
+        <v>252</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="196" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B196" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B197" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C197" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B198" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C196" s="10" t="s">
+      <c r="C198" s="10" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="197" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B197" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C197" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="D197" s="45" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B198" s="10" t="s">
-        <v>55</v>
+      <c r="D198" s="45" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="199" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B199" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B203" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C203" s="10" t="s">
-        <v>266</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B200" s="10" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="204" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B204" s="10" t="s">
+        <v>140</v>
+      </c>
       <c r="C204" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="205" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C205" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="206" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C206" s="10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C207" s="10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="208" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C208" s="10" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="207" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C207" s="10" t="s">
+      <c r="G208" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B210" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C210" s="10" t="s">
         <v>270</v>
-      </c>
-      <c r="G207" s="10" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="209" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B209" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C209" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="H209" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="210" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F210" s="44">
-        <v>1</v>
-      </c>
-      <c r="G210" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="H210" s="10" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="211" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C211" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="F211" s="66">
-        <v>2</v>
+    <row r="211" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F211" s="44">
+        <v>1</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H211" s="10" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="212" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F212" s="44">
+    <row r="212" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C212" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="F212" s="66">
+        <v>2</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H212" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F213" s="44">
         <v>3</v>
       </c>
-      <c r="G212" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="213" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B213" s="10" t="s">
+      <c r="G213" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H213" s="10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="214" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B214" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C214" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="C213" s="10" t="s">
+      <c r="F214" s="66">
+        <v>4</v>
+      </c>
+      <c r="G214" s="70" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="215" spans="2:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="F215" s="44">
+        <v>5</v>
+      </c>
+      <c r="G215" s="68" t="s">
+        <v>288</v>
+      </c>
+      <c r="H215" s="23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="216" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C216" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="F213" s="66">
-        <v>4</v>
-      </c>
-      <c r="G213" s="70" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="214" spans="2:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="F214" s="44">
-        <v>5</v>
-      </c>
-      <c r="G214" s="68" t="s">
-        <v>289</v>
-      </c>
-      <c r="H214" s="23" t="s">
+    </row>
+    <row r="218" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C218" s="10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="219" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C219" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="221" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B221" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C221" s="10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="222" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C222" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="224" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B224" s="65" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B226" s="68" t="s">
+        <v>300</v>
+      </c>
+      <c r="C226" s="68" t="s">
+        <v>291</v>
+      </c>
+      <c r="D226" s="68" t="s">
+        <v>302</v>
+      </c>
+      <c r="E226" s="68" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="215" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C215" s="10" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="217" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C217" s="10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C218" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="220" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B220" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C220" s="10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C221" s="10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="223" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B223" s="65" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="225" spans="2:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B225" s="68" t="s">
-        <v>297</v>
-      </c>
-      <c r="C225" s="68" t="s">
-        <v>294</v>
-      </c>
-      <c r="D225" s="68" t="s">
-        <v>293</v>
-      </c>
-      <c r="E225" s="68" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="226" spans="2:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="B226" s="47" t="s">
+    <row r="227" spans="2:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="B227" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="C227" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="C226" s="48" t="s">
+      <c r="D227" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="D226" s="48" t="s">
+      <c r="E227" s="49" t="s">
         <v>226</v>
-      </c>
-      <c r="E226" s="49" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="227" spans="2:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="B227" s="50" t="s">
-        <v>238</v>
-      </c>
-      <c r="C227" s="51" t="s">
-        <v>230</v>
-      </c>
-      <c r="D227" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="E227" s="52" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="228" spans="2:5" ht="21" x14ac:dyDescent="0.3">
       <c r="B228" s="50" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C228" s="51" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D228" s="51" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E228" s="52" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="229" spans="2:5" ht="21" x14ac:dyDescent="0.3">
       <c r="B229" s="50" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C229" s="51" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D229" s="51" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E229" s="52" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="230" spans="2:5" ht="21" x14ac:dyDescent="0.3">
       <c r="B230" s="50" t="s">
-        <v>296</v>
+        <v>236</v>
       </c>
       <c r="C230" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="D230" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="E230" s="52" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="B231" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="C231" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="D231" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="E231" s="52" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="232" spans="2:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B232" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="C232" s="54" t="s">
+        <v>246</v>
+      </c>
+      <c r="D232" s="50"/>
+      <c r="E232" s="55" t="s">
         <v>245</v>
-      </c>
-      <c r="D230" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="E230" s="52" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="231" spans="2:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B231" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="C231" s="54" t="s">
-        <v>247</v>
-      </c>
-      <c r="D231" s="50"/>
-      <c r="E231" s="55" t="s">
-        <v>246</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C160:C165"/>
-    <mergeCell ref="C166:C168"/>
-    <mergeCell ref="C169:C171"/>
-    <mergeCell ref="C172:C174"/>
+    <mergeCell ref="C161:C166"/>
+    <mergeCell ref="C167:C169"/>
+    <mergeCell ref="C170:C172"/>
+    <mergeCell ref="C173:C175"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G20" r:id="rId1" xr:uid="{8E0293B7-93B8-4EB1-A0D2-43896432E6DF}"/>
@@ -4832,7 +4860,7 @@
     <hyperlink ref="G29" r:id="rId3" xr:uid="{F079AFBB-415D-4EA3-944F-3494D265CAB1}"/>
     <hyperlink ref="G46" r:id="rId4" xr:uid="{1064F469-B7C8-4D16-BD64-8F41BD9470B2}"/>
     <hyperlink ref="G47" r:id="rId5" xr:uid="{DC9B39C9-3C45-405D-AE7D-1D5E16B5F60F}"/>
-    <hyperlink ref="D197" r:id="rId6" xr:uid="{7D0C916F-9D79-46BB-91AB-8D082F732B82}"/>
+    <hyperlink ref="D198" r:id="rId6" xr:uid="{7D0C916F-9D79-46BB-91AB-8D082F732B82}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
@@ -4856,162 +4884,162 @@
   <sheetData>
     <row r="2" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" t="s">
         <v>167</v>
-      </c>
-      <c r="D18" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/ML-DL-LLMs ver 0.2 - session progress.xlsx
+++ b/ML-DL-LLMs ver 0.2 - session progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gridflowAI\cgi-AI-ML-GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30F4CA0-9725-4145-9492-2FA1433BCADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA8F01B-494C-4E02-B800-BD31282E20A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1608" yWindow="36" windowWidth="20892" windowHeight="12192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29280" yWindow="-4080" windowWidth="23115" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2316,8 +2316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3479,7 +3479,7 @@
         <v>297</v>
       </c>
       <c r="E87" s="5"/>
-      <c r="F87" s="74">
+      <c r="F87" s="42">
         <v>19</v>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
       <c r="E88" s="5">
         <v>1</v>
       </c>
-      <c r="F88" s="74">
+      <c r="F88" s="42">
         <v>19</v>
       </c>
     </row>
@@ -3684,7 +3684,7 @@
       <c r="E105" s="5">
         <v>0.5</v>
       </c>
-      <c r="F105" s="74">
+      <c r="F105" s="42">
         <v>19</v>
       </c>
     </row>
@@ -3694,7 +3694,7 @@
         <v>303</v>
       </c>
       <c r="E106" s="5"/>
-      <c r="F106" s="69">
+      <c r="F106" s="74">
         <v>20</v>
       </c>
     </row>
@@ -3709,7 +3709,7 @@
       <c r="E107" s="5">
         <v>0.25</v>
       </c>
-      <c r="F107" s="69">
+      <c r="F107" s="74">
         <v>20</v>
       </c>
     </row>
@@ -3724,7 +3724,7 @@
       <c r="E108" s="5">
         <v>0.25</v>
       </c>
-      <c r="F108" s="69">
+      <c r="F108" s="74">
         <v>20</v>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
       <c r="E109" s="5">
         <v>0.5</v>
       </c>
-      <c r="F109" s="69">
+      <c r="F109" s="74">
         <v>20</v>
       </c>
     </row>

--- a/ML-DL-LLMs ver 0.2 - session progress.xlsx
+++ b/ML-DL-LLMs ver 0.2 - session progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gridflowAI\cgi-AI-ML-GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA8F01B-494C-4E02-B800-BD31282E20A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651AA46A-9404-44FE-AFE2-5C80F1895ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29280" yWindow="-4080" windowWidth="23115" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29280" yWindow="-4080" windowWidth="23145" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2316,8 +2316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G105" sqref="G105"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3234,7 +3234,7 @@
       <c r="F67" s="42">
         <v>14</v>
       </c>
-      <c r="G67" s="10" t="s">
+      <c r="G67" s="65" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3618,7 +3618,7 @@
       <c r="E99" s="19">
         <v>0.75</v>
       </c>
-      <c r="F99" s="69">
+      <c r="F99" s="74">
         <v>20</v>
       </c>
     </row>
@@ -3633,14 +3633,14 @@
       <c r="E100" s="5">
         <v>0.5</v>
       </c>
-      <c r="F100" s="69">
+      <c r="F100" s="74">
         <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B101" s="4"/>
       <c r="E101" s="5"/>
-      <c r="F101" s="69"/>
+      <c r="F101" s="74"/>
     </row>
     <row r="102" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B102" s="4"/>
@@ -3694,7 +3694,7 @@
         <v>303</v>
       </c>
       <c r="E106" s="5"/>
-      <c r="F106" s="74">
+      <c r="F106" s="42">
         <v>20</v>
       </c>
     </row>
@@ -3709,7 +3709,7 @@
       <c r="E107" s="5">
         <v>0.25</v>
       </c>
-      <c r="F107" s="74">
+      <c r="F107" s="42">
         <v>20</v>
       </c>
     </row>
@@ -3724,7 +3724,7 @@
       <c r="E108" s="5">
         <v>0.25</v>
       </c>
-      <c r="F108" s="74">
+      <c r="F108" s="42">
         <v>20</v>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
       <c r="E109" s="5">
         <v>0.5</v>
       </c>
-      <c r="F109" s="74">
+      <c r="F109" s="42">
         <v>20</v>
       </c>
     </row>
@@ -3771,7 +3771,9 @@
       <c r="E112" s="5">
         <v>0.25</v>
       </c>
-      <c r="F112" s="42"/>
+      <c r="F112" s="69">
+        <v>21</v>
+      </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B113" s="4"/>
@@ -3782,7 +3784,7 @@
         <v>0.5</v>
       </c>
       <c r="F113" s="69">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -3793,7 +3795,9 @@
       <c r="E114" s="5">
         <v>1</v>
       </c>
-      <c r="F114" s="42"/>
+      <c r="F114" s="69">
+        <v>21</v>
+      </c>
     </row>
     <row r="115" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B115" s="4" t="s">

--- a/ML-DL-LLMs ver 0.2 - session progress.xlsx
+++ b/ML-DL-LLMs ver 0.2 - session progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gridflowAI\cgi-AI-ML-GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651AA46A-9404-44FE-AFE2-5C80F1895ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E017546-3173-471F-BF5A-AD6D9307F75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29280" yWindow="-4080" windowWidth="23145" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-4680" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2316,8 +2316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118:F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3618,7 +3618,7 @@
       <c r="E99" s="19">
         <v>0.75</v>
       </c>
-      <c r="F99" s="74">
+      <c r="F99" s="42">
         <v>20</v>
       </c>
     </row>
@@ -3633,14 +3633,14 @@
       <c r="E100" s="5">
         <v>0.5</v>
       </c>
-      <c r="F100" s="74">
+      <c r="F100" s="42">
         <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B101" s="4"/>
       <c r="E101" s="5"/>
-      <c r="F101" s="74"/>
+      <c r="F101" s="42"/>
     </row>
     <row r="102" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B102" s="4"/>
@@ -3771,7 +3771,7 @@
       <c r="E112" s="5">
         <v>0.25</v>
       </c>
-      <c r="F112" s="69">
+      <c r="F112" s="74">
         <v>21</v>
       </c>
     </row>
@@ -3783,7 +3783,7 @@
       <c r="E113" s="5">
         <v>0.5</v>
       </c>
-      <c r="F113" s="69">
+      <c r="F113" s="74">
         <v>21</v>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       <c r="E114" s="5">
         <v>1</v>
       </c>
-      <c r="F114" s="69">
+      <c r="F114" s="74">
         <v>21</v>
       </c>
     </row>
@@ -3841,7 +3841,9 @@
       <c r="E118" s="5">
         <v>0.5</v>
       </c>
-      <c r="F118" s="42"/>
+      <c r="F118" s="69">
+        <v>22</v>
+      </c>
       <c r="G118" s="10" t="s">
         <v>174</v>
       </c>
@@ -3854,7 +3856,9 @@
       <c r="E119" s="5">
         <v>0.25</v>
       </c>
-      <c r="F119" s="42"/>
+      <c r="F119" s="69">
+        <v>22</v>
+      </c>
       <c r="G119" s="10" t="s">
         <v>175</v>
       </c>
